--- a/Physiopathologie/Excel/digestif.xlsx
+++ b/Physiopathologie/Excel/digestif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74483708-17D5-4820-B50F-7853B13C221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252B6B6-1CF8-4473-8EE8-BD43F944B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="477">
   <si>
     <t>Numero</t>
   </si>
@@ -57,14 +57,1432 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contrairement à la sécrétion salivaire, la tonicité du liquide pancréatique est indépendante du débit sécrétoire,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion hydro-électrolytique (HE) canalaire représente + 75% de la sécrétion HE pancréatique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le trypsinogène est le principal constituant de la sécrétion protéique acinaire pancréatique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion gastrique est une sécrétion purement hydro-électrolytique, formée de HCI et de NaHCO2 et qui représente + 2L/j.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.Lorsque le débit de la sécrétion acide est stimulé, la concentration de H° augmente tandis que la concentration de Na'diminue.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors du vomissement, la sensation de haut le cœur précède les manifestations autonomes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'accommodation de la région proximale de l'estomac est un réflexe mixte (vago-vagal et intrinsèque). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vidange gastrique dépend de la composition ou de la consistance des aliments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dyspepsie est un symptôme qui peut se manifester par une sensation de réplétion précoce et être  favorisée par la vagotomie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive primaire est un liquide isotonique, dont la composition ionique se rapproche de celle du plasma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les médicaments à effet anti-cholinergiques peuvent être responsables d’hypersialorrhée. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stimulation orthosympathique induit une sécrétion de salive peu abondante et riche en mucus.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la déglutition, la phase œsophagienne est la plus courte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le sphincter œsophagien supérieur est un muscle lisse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il existe une faible absorption des nutriments au niveau de l’œsophage.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système nerveux entérique est le système nerveux autonome intrinsèque de l'appareil digestif. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La motilité du tube digestif assure la progression et la digestion des aliments ingérés. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fréquence du rythme électrique de base est identique au niveau des différents segments du tube digestif.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vascularisation hépatique est mixte, assurée par la veine porte (1/3) et l'artère hépatique (2/3). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le GIP (Gastrolntestinal Peptide) ralentit la vidange gastrique et évite une arrivée trop rapide du contenu gastrique dans le duodénum.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe péristaltique qui assure la propulsion des aliments au niveau de l'intestin grêle est un réflexe de type long.   [] = 0  [1 LL  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase gastrique de la sécrétion acide est la plus importante sur le plan quantitatif et comprend deux composantes, mécanique et chimique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la phase céphalique de la sécrétion pancréatique, la sécrétion est essentiellement acinaire et stimulée par l’acétylcholine (voie neurocrine).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe conditionné est une stimulation de la sécrétion salivaire par une stimulation buccale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un ictère s'accompagne de selles décolorées lorsque les urobilinogènes fécaux augmentent.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La variabilité génétique des OATPSs (Organic Anion Transporting Polypeptide), situés au niveau de la membrane basolatérale de l'hépatocyte, peut expliquer les différences de pharmacocinétique entre les individus.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hepcidine est un peptide de 25 aa, principalement synthétisé par les hépatocytes, qui contrôle la sortie  tissulaire de fer et évite l'excès de fer plasmatique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cholangiocytes assurent 25% de la sécrétion biliaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les hépatocytes de la zone I ou périportale sont les mieux oxygénés et sont spécialisés dans les fonctions métaboliques du foie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules stellées sont activées au repos et deviennent quiescentes lors d’une agression hépatique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer quitte l’entérocyte duodénal, sous forme de Fe”, en étant transporté par la ferroportine basolatérale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intolérance au lactose est un déficit en lactase, responsable de maldigestion et de malabsorption du  lactose.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitamine D (1,25-OH}D:) contrôle l'absorption paracellulaire de Ca” sur toute la longueur du grêle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez le sujet normal, l'intestin grêle et le colon absorbent chaque jour 80% de la charge hydrique qui leur est présentée. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption grêle de cholestérol, en se fixant sur le récepteur NPCILI.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le grêle peut absorber des dipeptides et des tripeptides.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont immédiatement abolis par l’ingestion alimentaire, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion intestinale de CT est élevée à l’état basal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les toxines infectieuses du cholera et d'E. Coli inhibent le symport SGLTI.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stéatorrhée apparait précocement lors d'une pancréatite chronique, lorsque la production de lipase devient inférieure à 90% de sa production normale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le péristaltisme est un réflexe court, intégré au niveau du système nerveux entérique, en réponse à la distension ou à la stimulation chimique locale de la paroi du tube digestif.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La segmentation se produit constamment au niveau du grêle, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion grêle est une sécrétion hydro-électrolytique d'environ 1L/jour et qui est dépourvue d'enzymes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion du chyme qui arrive dans l'intestin grêle est assurée par la motilité grêle et par l'action d'enzymes luminales et d'enzymes membranaires de la bordure en brosse.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intestin grêle absorbe plus d'eau que le colon et avec un rendement supérieur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La cellule principale sécrète également le facteur intrinsèque qui intervient lors du processus d'absorption de la vitamine B12. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La composition ionique du liquide gastrique est indépendante du débit sécrétoire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La gastrine stimule la sécrétion acide, principalement par son action directe sur la cellule pariétale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’accommodation du fundus est un réflexe mixte, cäd vago-vagal et intrinsèque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité pacemaker de l'estomac se situe au niveau du tiers moyen de la grande courbure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau du fundus, le potentiel membranaire de repos des cellules musculaires est supérieur au seuil de  contraction, expliquant ainsi les contractions toniques à ce niveau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors du reflux gastro-æsophagien pathologique, les symptômes ORL et respiratoires sont fréquents. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase œsophagienne de la déglutition se caractérise par une onde de péristaltisme primaire qui propulse le bol alimentaire vers l'estomac à la vitesse de 3 à 5 cm/sec  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le péristaltisme secondaire qui est un réflexe intrinsèque survient également lors de la déglutition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes sub-linguales sont des glandes muqueuses mais contiennent quelques acini séreux. Elles sont innervées par le nerf VII et assurent 5% de la sécrétion salivaire basale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'innervation des glandes salivaires principales dépend du système nerveux autonome et est mixte, à la fois parasympathique et orthosympathique dont les effets sont similaires et stimulateurs.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes salivaires accessoires sont globalement visqueuses, innervées par le nerf IX et assurent 5% de la sécrétion salivaire basale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyposialie est un symptôme qui est très souvent d'origine iatrogène, causée par des médicaments qui ont un effet parasympathicolytique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le débit salivaire est élevé, la tonicité de la salive est proche de celle du plasma  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acétylcholine stimule la sécrétion acinaire salivaire via un récepteur M3 basolatéral et via la voie du Ca”  intracellulaire qui entraîne une sécrétion hydro-électrolytique prédominante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe péristaltique est un réflexe mixte du tube digestif,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau du tube digestif, le système parasympathique est globalement stimulateur même si 1l induit la relaxation des sphincters.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'innervation du tube digestif est uniquement autonome, assurée par le système nerveux intrinsèque et par  le système nerveux extrinsèque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stimulation salivaire acinaire par un agent fl adrénergique entraîne une sécrétion protéique prédominante via la voie de l'AMPc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le débit salivaire est faible, la salive est isotonique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive définitive provient de la modification de la salive primaire par les canaux striés. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes parotides sont innervées par le nerf IX et assurent 20% de la sécrétion salivaire basale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les antidépresseurs ayant un effet anti-cholinergique peuvent entraîner une hyposialorrhée qui se manifeste par de la xérostomie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion salivaire basale est d'environ 5 ml/min </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion des nutriments est uniquement intraluminale,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système nerveux autonome extrinsèque du tube digestif est formé par le plexus sous muqueux de Meissner et par le plexus myentérique d’Auerbach.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le sphincter anal externe est un muscle lisse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une anémie mégaloblastique peut être liée à une carence en vitamine B12 ou en acide folique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le grêle peut parfois absorber des disaccharides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La toxine du choléra CTX inhibe également l'absorption électroneutre de NaCT en inhibant l'échangeur  Na /H° (NHE3). </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les ictères à bilirubine conjuguée s’accompagnent toujours de bilirubinurie mais d’une urobilinurie variable.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un repas, la CCK provoque la contraction de la vésicule biliaire par une action indirecte (réflexe vago-vagal) et directe (endocrine).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La bile ductulaire, qui représente 75% de la sécrétion biliaire, provient de la modification de la bile canaliculaire par les cholangiocytes qui réalisent une sécrétion alcaline. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stéatorrhée est une diarrhée graisseuse (&gt; 200g selles/j) avec selles liquides et flottantes qui apparait précocement lors d'une insuffisance pancréatique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique représente + 1,5L/j d’un liquide alcalin, riche en NaHCO2, et également riche en protéines qui sont majoritairement des enzymes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétine est le principal régulateur hormonal de la sécrétion acinaire et la CCK est le principal régulateur paracrine de la sécrétion canalaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 100g d'un aliment qui contient 5g de glucide et dont l'index glycémique = 50, représente une charge glycémique de 2,5 qui est une charge faible,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'absorption grêle du cholestérol se fait par endocytose par récepteur interposé. Ce processus est inhibé par l'ézétimibe.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une intolérance au lactose, la production de H;, de CO2 ou de CH, au niveau grêle explique le ballonnement abdominal dont se plaignent régulièrement les patients intolérants. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion hydro-électrolytique (HE) acinaire représente + 25% de la sécrétion HE pancréatique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique stimulée est isotonique et alcaline, étant considérablement enrichie en HCO2 (+110 mEg/L).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’hydrolyse intraluminale des peptides génère 40% d'acides aminés et 60% d’oligopeptides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion biliaire ductulaire est alcaline et stimulée par la sécrétine.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les ictères à bilirubine non conjuguée s’accompagnent toujours d’une augmentation de l’urobilirubinurie mais d'une absence de bilirubinurie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules stellées sont situées dans l'espace de Disse. Elles sont activées lors d'une agression hépatique  chronique et sont responsables du développement de la fibrose hépatique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les triglycérides représentent 90-95% des apports quotidiens de lipides dans les pays occidentaux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'absorption de tous les glucides est limitée par leur digestion membranaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un aliment qui a un index glycémique de 45 signifie que l'ingestion de 50 g de cet aliment augmente la  glycémie à une valeur qui atteint 45% de celle obtenue par 50g de glucose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une carence importante en vitamine B12 s'accompagne également d'une diminution de l'homocystéine. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intolérance au lactose est une maldigestion du lactose qui entraîne sa malabsorption et qui est liée à un déficit d'activité lactasique pouvant être primaire ou secondaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le grêle peut absorber des dipeptides et des tripeptides, voir même des tétrapeptides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dyspepsie peut être liée à un défaut de l'accommodation gastrique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vidange gastrique des glucides est plus rapide que celle des protéines et des lipides qui ont un temps de vidange quasi similaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les deux tiers distaux du corps gastrique et l'antre sont le siège de contractions toniques et constituent la  "pompe antrale”.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion hydro-électrolytique gastrique est constituée de HCTI et de NaHCO2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La somatostatine est l'inhibiteur majeur de la sécrétion gastrique acide, agissant directement par voie paracrine et endocrine et agissant indirectement par voie paracrine.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La plupart des agents qui stimulent la sécrétion acide pariétale stimulent également la sécrétion des  pepsinogènes par les cellules principales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase pharyngée de la déglutition est involontaire et dure environ 0,5 sec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La relaxation réceptive de l'estomac est une chute de pression intragastrique qui prépare la partie proximale de l'estomac à recevoir le bol alimentaire,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le reflux gastro-æsophagien pathologique est un reflux de liquide gastrique de longue durée, fréquent,  symptomatique, diurne ou noctume, qui s'accompagne toujours de lésions d'œsophagite. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. Concernant les glucides: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glucides ne sont absorbés que sous forme de monomères.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un régime dont la charge glycémique est faible peut être obtenu par la prise de petites portions d'aliments dont l'index glycémique est élevé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une intolérance au lactose n'est jamais complète dans la mesure où l'activité lactasique déficiente peut être partiellement remplacée par d'autres enzymes de la bordure en brosse.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Concernant l'estomac: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vidange gastrique des glucides est plus rapide que celle des protéines, celle-ci étant cependant plus lente que la vidange gastrique des graisses.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En dehors d'un repas, l'estomac est le siège des complexes moteurs migrants interdigestifs qui débutent  environ deux heures après un repas, au niveau du tiers moyen du corps gastrique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'accommodation du fundus permet de recevoir une quantité conséquente de bol alimentaire sans augmentation notable de la pression intra-gastrique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Concernant le grêle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avant d'être absorbé, l'acide folique alimentaire, ingéré sous forme de PteGlu 7, est hydrolysé en PteGlul par une exopeptidase de la bordure en brosse des cellules villositaires du jéjunum.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seul le fer non hémique est absorbé au niveau du duodénum.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le calcium est également absorbé passivement et par la voie paracellulaire sur toute la longueur du grêle.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Concernant la digestion et l'absorption du grêle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le cholestérol est absorbé au niveau de l'entérocyte via un processus d'endocytose médiée par le récepteur NPCILI apical.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le facteur intrinsèque est produit par les cellules principales des glandes gastriques et la liaison entre la  vitamine B12 et le facteur intrinsèque a lieu au niveau intragastrique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les dipeptides et tripeptides peuvent être transportés dans l'entérocyte où ils sont digérés par des peptidases cytoplasmiques.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le calcitriol stimule l'absorption duodénale de calcium par la voie transcellulaire et par la voie paracellulaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est absorbé au niveau de l'iléon sous forme de Fe”, via le symport DMTI apical,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intensité des contractions segmentaires augmente après les repas, renforcée par l'action du système  orthosympathique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22. Concernant la motilité du tube digestif: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le sphincter œsophagien supérieur et le sphincter anal externe sont des muscles striés qui se situent respectivement à l'entrée et à la sortie du tube digestif.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La motilité du tube digestif assure uniquement la progression des aliments ingérés depuis la bouche jusqu'à  l'anus.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contraction phasique est une contraction de forte amplitude, indépendante du REB et suivie d'une relaxation.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Concernant les glandes salivaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe salivaire conditionné se produit en absence de stimulation buccale.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La xérostomie est la sensation de sécheresse buccale qui est ressentie précocement à partir d'une réduction  de 10% de la sécrétion salivaire,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes sous maxillaires sont innervées par le nerf VII et assurent 70% de la sécrétion salivaire basale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Concernant le pancréas: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation de la sécrétion hydro-électrolytique pancréatique acinaire est principalement endocrine et assurée par la sécrétine.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La lipase pancréatique est activée par la colipase dont les propriétés lypolytiques intrinsèques sont  indispensables à l'activité de la lipase.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contrairement à la sécrétion salivaire, la sécrétion pancréatique est hypotonique et dépendante du débit sécrétoire,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Concernant le foie et les voies biliaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hémolyse massive entraine un ictère mixte lorsque la fonction hépatique est normale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La bile canaliculaire est produite par les hépatocytes et représente 75% de la sécrétion biliaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules stellées activées sont dotées de propriétés contractiles et sécrètent une quantité abondante de collagène de type 1 responsable du développement de la fibrose.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Concernant la sécrétion salivaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive est un liquide hypotonique qui est riche en K° et en HCO2 et dont le pH se situe entre 7 et 8 selon le niveau de stimulation.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'élaboration de la salive est un processus en deux étapes, essentiellement contrôlées par voie neurocrine et  qui se déroulent au niveau acinaire et canalaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion salivaire est stimulée par le système parasympathique et peut atteindre un débit de 5 ml/min, soit un débit près de 10 fois supérieur à la sécrétion salivaire basale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13. Concernant l'intestin grêle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La toxine du choléra CTX stimule la sécrétion de CT au niveau des cellules du grêle et du colon par activation réversible de l’adénylate cyclase.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion membranaire des produits d’hydrolyse de l’amidon est assurée par la maltase, le complexe  sucrase-isomalatase et la lactase.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le symport SGLT1 (2Na'/1glucose) est la voie prépondérante d'absorption de Na” lors d'un repas.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Concernant les macronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de l'intolérance au lactose, les symptômes (ballonnement abdominal, borborygmes et flatulences) sont liés à la production grêle de H; et de CO2.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion des lipides débute par leur émulsion au niveau de l'estomac.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'absorption des différents acides aminés au niveau de la membrane apicale des entérocvytes est assuré par de nombreux symports spécifiques par transport actif secondaire et tertiaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Concernant l'intestin grêle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est transporté sous forme de PteGlul par le symport PteGlul/H° apical des cellules villositaires du Jéjunum.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est absorbé au niveau du duodénum sous forme de Fe” par le symport DMTI de la membrane apicale  des entérocytes.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'élévation de l'homocystéine se rencontre lors d'un déficit en vitamine B12.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35. Concernant l'estomac: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La gastrine exerce un effet stimulateur sur la sécrétion acide par action principalement indirecte au niveau de la cellule ECL.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase céphalique de la sécrétion gastrique acide représente moins de 10% de la sécrétion acide.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion des pepsinogènes par les cellules principales est stimulée par le nerf vague et inhibée par la somatostatine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29, Concernant l'oesophage:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le reflux-oesophagien pathologique s'accompagne toujours de lésion d'œsophagite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase orale de la déglutition est volontaire et dure environ 0,6 sec    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La relaxation du sphincter œsophagien inférieur et la relaxation réceptive de la partie proximale de l'estomac se produisent lors de l’arrivée de l’onde péristaltique à leur niveau.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32. Concernant les glandes salivaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Certains antidépresseurs peuvent être responsables de xérostomie.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes parotides sont purement séreuses et sont innervées par le nerf VIL    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe mastico-salivaire module la sécrétion salivaire qui s'adapte à la consistance et à la taille des particules mâchées.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27. Concernant la sécrétion salivaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La composition salivaire dépend du débit salivaire, la salive étant fortement hypotonique lorsque le débit salivaire est faible.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique assure un rôle trophique sur les glandes salivaires qui est indispensable pour  maintenir la masse tissulaire salivaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26. Concernant le foie et les voies biliaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les hépatocytes constituent + 50% du parenchyme hépatique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La bile ductulaire est une sécrétion hydro-électrolytique alcaline stimulée par la cholécystokinine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les ictères à bilirubine non conjuguée ne s'accompagnent pas de bilirubinurie,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Concernant la motilité du tube digestif:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les réflexes courts du tube digestif sont intrinsèques càäd intégrés au niveau du système nerveux entérique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contrairement à la segmentation, le péristaltisme est une contraction phasique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acétylcholine qui hyperpolarise la cellule musculaire lisse du tube digestif, augmente l'intensité des contractions phasiques.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Concernant la sécrétion gastrique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La somatostatine est l'inhibiteur majeur de la sécrétion acide, agissant uniquement directement sur la cellule pariétale par voie paracrine et endocrine,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase gastrique de la sécrétion acide débute lorsque le bol alimentaire se trouve dans l'œsophage.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les pepsinogènes sont des proenzymes sécrétés par les cellules principales et leur sécrétion basale représente + 20% de la sécrétion maximale qui est atteinte lors de la prise d’un repas.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Concernant le pancréas: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique basale, dont le pH est #7,2, a un débit de l'ordre de 0,2 à 0,3 ml/min et contient surtout du NaCI.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité enzymatique de l’a-amylase pancréatique est identique à celle de l'x-amylase salivaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'estomac est le siège des complexes moteurs migrants interdigestifs qui surviennent lors des repas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> au niveau du fundus, le potentiel de repos des cellules musculaires est situé au-dessus du seuil de contraction (cäd plus proche de 0 mV).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le système parasympathique, via le nerf vague, stimule la sécrétion acide et des pepsinogènes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les glandes sous-maxillaires sont mixtes, à prédominance muqueuse, innervées par le n. VII, et assurent 20% de la sécrétion salivaire basale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la sécrétion salivaire suit un rythme circadien et est fortement réduite durant la nuit (5 ml/min pendant le sommeil}.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la xérostomie est la sensation de sécheresse buccale, ressentie à partir d’une réduction de 50% de la sécrétion salivaire,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le péristaltisme primaire est stimulé par une déglutition qui survient rapidement après la déglutition précédente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le tiers moyen de l’œsophage est composé de muscles striés et lisses.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le péristaltisme secondaire survient en dehors de la déglutition. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le réflexe vago-vagal est un exemple de réflexe court du tube digestif. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’innervation orthosympathique cfférente du tube digestif est principalement postganglionnaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le REB déclenche généralement un potentiel d'action au niveau des fibres musculaires lisses du tube  digestif. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la gastrine stimule la sécrétion acide gastrique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la ghréline stimule la prise alimentaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le plexus de Meissner véhicule les informations vers et en provenance de la muqueuse intestinale.  D = [|  [J C] C]  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">35. Concernant l'œsophage: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le reflux gastro-oesophagien est toujours pathologique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La musculature de l'æœsophage comporte une couche circulaire interne et une couche longitudinale externe  qui sont formées par des muscles striés au niveau du tiers supérieur de l'oesophage.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le tonus de base du sphincter œsophagien inférieur est augmenté par les agents anti-cholinergiques.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">33. Concernant l'estomac: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vidange gastrique des liquides est rapide et se déroule en deux phases.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La cellule pariétale gastrique sécrète notamment le facteur intrinsèque qui intervient dans l'absorption de la  vitamine B12 au niveau de l'iléon.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion gastrique est constituée de sécrétions hydro-électrolytiques et également organiques.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les réactions hépatique de détoxification de phase I et IT augmentent la solubilité des endo et exobiotiques toxiques et favorisent leur excrétion biliaire ou urinaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la bile est une voie d’excrétion importante du cholestérol.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les cellules stellées sont quiescentes au repos et deviennent activées lors d’une agression hépatique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le DCYTB (duodenal cytochrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de la membrane apicale de l’entérocyte duodénal possède une activité ferrique réductase qui réduit le Fe” intestinal en Fe”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les bactéries coliques possèdent une activité B-galactosidase qui permet l'hydrolyse du lactose.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la digestion luminale des protéines débute dans le duodénum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la malabsorption des nutriments est nécessairement associée à une maldigestion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'absorption transcellulaire de calcium se produit uniquement au niveau du duodénum.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la perméabilité de la voie paracellulaire diminue du duodénum au rectum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les contractions péristaltiques sont des contractions phasiques, rythmées par le rythme électrique de base. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la segmentation est une succession de contractions annulaires suivies de relaxations, se produisant toutes  les quelques secondes, au niveau d'un long segment du grêle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chez l'individu normal, l'intestin grêle et le colon absorbent chaque jour &gt; 95% du Na” ingéré.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'absorption électroneutre de Na par les échangeurs apicaux Na /H° et CT'HCO% est prépondérante en période interprandiale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la toxine d'E. Coli thermostable stimule la sécrétion intestinale de CT via l'augmentation d'AMPc  intracellulaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le cycle entéro-hépatique des acides biliaires permet de réabsorber +99% des acides biliaires.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> une tumeur de la tête du pancréas qui comprime la voie biliaire principale peut entraîner des selles décolorées (comme du masti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la somatostatine est l’antagoniste majeur de la sécrétion acide gastrique et agit uniquement au niveau de la cellule pariétale, via la voie de l’'AMPc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les efférences du vomissement diffèrent selon la cause du vomissement.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la cellule principale sécrète également le facteur intrinsèque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9. Concernant la motricité du tube digestif: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système nerveux entérique est composé de deux plexus principaux qui sont en étroite relation: le plexus sous muqueux d’Auerbach et le plexus myentérique de Meissner.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La paroi du grêle comporte 4 couches qui sont, de l’intérieur vers l'extérieur, la muqueuse, la sous-muqueuse,  la muscularis propria et la séreuse.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe péristaltique est un réflexe court du tube digestif.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant le foie et les voies biliaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'accommodation de la vésicule biliaire permet son remplissage entre les repas.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le foie est normal, les ictères à bilirubine non conjuguée peuvent s'accompagner de selles décolorées.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'inhibition, par certains médicaments, des OATPSs (Organic Amion Transporting Polypeptide) situés au niveau de la membrane basolatérale de l'hépatocyte peut être responsable d'interactions médicamenteuses.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3. Concernant les glucides: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'amidon existe sous forme d'amylose et d'amylopectine qui représentent 45 à 60% des apports quotidiens de glucides d'un régime occidental.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une portion alimentaire de 150g, qui contient 30g de glucides dont l'index glycémique est de 40, représente  une charge glycémique de 12g qui est une charge moyenne.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intolérance au lactose est une maldigestion du lactose qui entraîne sa malabsorption, elle est liée à un déficit d'activité lactasique qui peut être primaire ou secondaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2. Concernant les macronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les acides gras libres à chaînes courtes et moyennes ne sont pas réestérifiés au sein de l’entérocyte et sont directement transportés dans le sang.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les phytostérols et le cholestérol sont absorbés au niveau du grêle via le récepteur NPCILI,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau des cellules villositaires, le transport apical des différents acides aminés est assuré par de nombreux symports spécifiques pouvant être Na° ou H° dépendants.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la phase céphalique de la sécrétion pancréatique peut atteindre jusqu'à 50% de la sécrétion pancréatique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la vagotomie abolit la phase céphalique de la sécrétion acide gastrique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le reflux gastro-æœsophagien n'est jamais physiologique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la bile hépatique est isotonique et légèrement alcaline. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la bile canaliculaire est produite par les cholangiocytes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lors d’un repas, la sécrétine provoque la contraction de la vésicule et la relaxation du sphincter d’'Oddi, de  manière coordonnée.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15. Concernant l'œsophage: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le reflux gastro-æsophagien pathologique est un reflux de liquide gastrique de longue durée, fréquent, symptomatique, diurne ou nocturne, avec ou sans lésions d'œsophagite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La musculature du tiers supérieur de l'œsophage est composée de muscles lisses et de muscles striés.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La déglutition déclenche une onde péristaltique primaire qui induit la relaxation du sphincter œsophagien inférieur et la relaxation réceptive de la partie proximale de l'estomac.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant la sécrétion gastrique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules pariétales sont parfois présentes au niveau antral.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion gastrique de NaHCO2 est assurée par les cellules muqueuses de surface; elle est relativement faible et de volume constant.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En dehors des repas, l'effet inhibiteur et prédominant de la somatostatine explique le faible débit de sécrétion acide gastrique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. Concernant les diarrhées sécrétoires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse qui ne détruit pas la muqueuse, le SGLT1 (2Na /Iglucose) présent au niveau des villosités et des cryptes reste fonctionnel.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse, une entérotoxine bactérienne qui agit par la voie de l'adénylate  cyclase stimule également l'échangeur apical Na°/H° (NHE3) au niveau villositaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans une solution orale de réhydratation, la présence d'amidon résistant à la digestion grêle permettrait la formation colique de SCFA, ce qui favoriserait l'absorption colique de Na” et d’eau.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11. Concernant les glandes salivaires:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les dérivés anti-cholinergiques peuvent entraîner une hyposialorrhée qui se manifeste par de la xérostomie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique stimule principalement la sécrétion protéique acinaire via un récepteur «&amp;  adrénergique et la voie de l’AMP cyclique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes sous-maxillaires sont mixtes, à forte prédominance séreuse, et sont innervées par le nerf IX.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10. Concernant les vitamines et les micronutriments:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La liaison entre la vitamine B12 et le facteur intrinsèque se produit au niveau du duodénum et du jéjunum.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le DCYTB (duodenal cytochrome </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> de la membrane basolatérale de l’entérocyte duodénal possède une  activité ferrique réductase qui réduit le Fe*” intestinal en Fe”     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3. Concernant la salive: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive est un liquide clair séromuqueux, contenant 95% d'eau, dont la composition ionique est indépendante du débit salivaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation de la sécrétion salivaire est principalement neuro-endocrine.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive primaire, produite par les cellules acinaires séreuses, est régulée uniquement par la voie de l'AMPc.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. Concernant la motricité du tube digestif: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le plexus sous muqueux de Meissner est interne et innerve la muqueuse et la sous muqueuse du grêle.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline hyperpolarise la cellule musculaire lisse du tube digestif, ce qui augmente le nombre de potentiels d'action et augmente l'intensité de la contraction phasique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système nerveux autonome extrinsèque du tube digestif est formé par l'interaction du système parasympathique et du système orthosympathique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q29. Concernant l'estomac: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la cellule pariétale, la gastrine et l'acétylcholine sont des agonistes de la voie de l’'AMPc tandis que l'histamine est un agoniste de la voie de la phospholipase C.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau du corps gastrique et de l'antre, le potentiel membranaire de repos des cellules musculaires est  inférieur au seuil de contraction, expliquant ainsi l'absence de contractions toniques à ces niveaux.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le temps de vidange gastrique ne dépend que de la quantité et de la composition des aliments ingérés.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant la salive: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion salivaire non stimulée est d'environ 0,3-0,5 ml/min    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La composition salivaire dépend du débit salivaire, la salive étant isotonique lorsque le débit salivaire est  faible,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le pH de la salive est plus élevé lorsque la sécrétion salivaire est stimulée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16. Concernant les sécrétions pancréatiques: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La cholécystokinine est le principal régulateur paracrine de la sécrétion acinaire pancréatique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En dehors des repas, la sécrétion pancréatique exocrine est faible mais cyclique et corrélée aux complexes moteurs migrants interdigestifs, augmentant juste avant ou durant la phase 3.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les propriétés lipolytiques de la colipase sont nécessaires pour permettre à la lipase pancréatique d'agir au niveau de l'interface cau-lipide des gouttelettes de triglycérides.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24. Concernant l'œsophage:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la déglutition, la phase œsophagienne est la plus courte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le sphincter oesophagien inférieur possède une pression de repos faible et inférieure à 10 mmHg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le reflux gastro-œsophagien n'est jamais physiologique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. Concernant les macronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion luminale des protéines débute dans le duodénum.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption grêle de cholestérol, en se fixant sur le récepteur NPCILI.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'émulsion des lipides est un pocessus exclusivement mécanique, assuré par la mastication et par la pompe antrale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10. Concernant l'estomac: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le temps de vidange gastrique dépend de la quantité, de la composition et de la consistance du bol alimentaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau du fundus, le potentiel de repos des cellules musculaires a une valeur supérieure à celle du seuil de contraction, ce qui explique les contractions toniques de cette zone.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dyspepsie est un symptôme qui peut se manifester par une sensation de réplétion précoce et être favorisée par la vagotomie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant les vitamines et les micronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est transporté vers les tissus périphériques, sous forme de Fe” lié à la transferrine.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dissociation du complexe facteur intrinsèque (FT)-vitamine B12 est favorisée au niveau du duodénum par l'élévation du pH et par l’action protéolytique des enzymes pancréatiques qui dégradent le FI    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est transporté sous forme de PteGlul par le symport PteGlul/Na° apical des cellules villositaires du jéjunum.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5. Concernant les glucides: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les fibres représentent les glucides d'origine végétale qui sont non digestibles.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La charge glycémique (CG) d'un aliment est calculée par la formule suivante:  CG = [1G (%) x quantité d’aliment ingérée (g)] / [proportion de glucides présente dans l'aliment (%)]   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glucides sont parfois absorbés au niveau du grêle sous forme de dimères.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4. Concernant le foie et les voies biliaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules stellées hépatiques sont activées au repos et deviennent quiescentes lors d’une agression hépatique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La bile canaliculaire est une sécrétion alcaline produite par les hépatocytes et qui représente 75% de la  sécrétion biliaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un obstacle complet de la voie biliaire principale par une tumeur de la tête du pancréas, les urines sont foncées et liées à la présence de bilirubine conjuguée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une hémolyse avec une fonction hépatique normale, la présence de bilirubine urinaire explique la couleur foncée des urines.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les acides biliaires primaires sont synthétisés dans l'hépatocyte et à partir du cholestérol.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un repas, la sécrétine provoque la contraction de la vésicule et la relaxation du sphincter d'Oddi, de manière coordonnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34. Concernant les glandes salivaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hyposialie est très souvent d'origine iatrogène et causée par des médicaments qui ont un effet anti- cholinergique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes salivaires accessoires sécrètent de manière discontinue.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes parotides sont purement séreuses et sont innervées par le nerf IX.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32. Concernant la sécrétion gastrique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la sécrétion acide pariétale est stimulée, la concentration de K° du liquide gastrique diminue fortement tandis que celle de H° augmente fortement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules à somatostatine sont situées au niveau des glandes gastriques et antrales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le nerf X stimule la sécrétion acide, notamment par stimulation indirecte, en stimulant les cellules ECL (situées au niveau des glandes gastriques) qui sécrètent de l’histamine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30. Concernant les diarrhées sécrétoires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les toxines du cholera CTX et d’E, Coli thermolabile stimulent la sécrétion intestinale de CT, notamment via l'augmentation d'AMPc intracellulaire au niveau des cellules des cryptes.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le grêle absorbe plus d'eau que le colon mais avec un rendement inférieur.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un traitement antibiotique, une diarrhée osmotique peut se développer suite à la modification du  microbiote colique qui entraîne une augmentation de production colique de SCFA.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant les sécrétions pancréatiques: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les protéases sont les enzymes majoritaires sécrétées par les cellules acinaires du pancréas.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation de la sécrétion hydro-électrolytique acinaire est principalement neurocrine, sous contrôle parasympathique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stéatorrhée apparait tardivement lors de la pancréatite chronique, lorsque la production de lipase devient inférieure à 10% de la production normale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19. Concernant les sécrétions pancréatiques:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les acides biliaires et les phospholipides entourent les gouttelettes de triglyclérides, ce qui favorise la fixation et l'action de la lipase pancréatique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique basale est isotonique et sa composition est similaire à celle du plasma.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétine, qui est le principal régulateur hormonal de la sécrétion canalaire, induit une sécrétion hydro- électrolytique alcaline abondante via la voie de la PLC et du Ca°*    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. Concernant l'estomac:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'accommodation de la région proximale de l'estomac est un réflexe mixte (vago-vagal et intrinsèque).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La somatostatine est sans effet sur la sécrétion des pepsinogènes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les deux tiers distaux du corps gastrique et l'antre sont le siège de contractions phasiques rythmées sur le REB, lui-même généré par les cellules interstitielles de Cajal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15. Concernant la sécrétion salivaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion salivaire suit un rythme circadien et est fortement réduite durant la nuit (5 ml/min pendant le sommeil).   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'un patient dépressif signale de la xérostormie, 1l est possible que son traitement comporte des  médications qui ont un effet anti-cholinergique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La composition de la salive définitive est indépendante du débit salivaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de l'estomac, les cellules à gastrine sont uniquement situées au niveau des glandes antrales.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion d'HCI par la cellule pariétale est stimulée de manière synergique par la voie neuronale (acétylcholine via la PLC et le Ca”), endocrine (gastrine via la PLC et le Ca*°) et paracrine (histamine via  l'AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. Concernant la motricité du tube digestif: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont des contractions rythmiques de l'æœsophage, de l'estomac et de l'intestin grêle se produisant en période de jeûne et qui se propagent vers l'iléon.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une contraction péristaltique, le segment d'amont est le siège d'une contraction du muscle circulaire  interne et d'une contraction du muscle longitudinal externe.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les contractions segmentaires du grêle sont des contractions phasiques; elles sont rythmées par le REB dont la fréquence augmente du duodénum vers l'iléon.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q29. Concernant les glandes salivaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes sous-maxillaires sont mixtes, à prédominance muqueuse, et innervées par le nerf VII.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion acinaire salivaire est une sécrétion mixte, hydro-électrolytique (favorisée par la voie de la PLC et du Ca°*) et protéique (favorisée par la voie de l'AMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28. Concernant l'œsophage: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le péristaltisme secondaire survient en dehors de la déglutition. Il s'agit d'un réflexe intrinsèque du SNE déclenché au niveau du muscle lisse œsophagien par la distension de l’œsophage.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors du reflux gastro-æœsophagien pathologique, il y a une excellente corrélation entre les symptômes présentés  par les patients et les lésions endoscopiques.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase æœsophagienne de la déglutition est involontaire et dure entre 6 et 10 secondes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant les sécrétions hydro-électrolytiques du tube digestif: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse, la sécrétion de CT et de HCO est stimulée au niveau des cryptes et des villosités de l'intestin grêle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les acides gras à chaînes courtes sont produits au niveau du colon à partir des carbohydrates non digérés et  favorisent la sécrétion de NaC et d'eau au niveau du colon.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une solution orale de réhydratation ne doit pas toujours contenir du Na’ et du glucose pour assurer l'absorption de Na et de glucose via le SGLTI qui reste fonctionnel.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23. Concernant les vitamines et les micronutriments:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est la vitamine B9 et le tétrahydrofolate est sa forme réduite et active.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitamine B12 liée au facteur intrinsèque est absorbée au niveau de l'iléon par endocytose médiée par le  récepteur CUBAM.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer inorganique est absorbé au niveau du duodénum sous forme de Fe” et par le symport DMTI apical (1H'/1Fe*).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20. Concernant les macronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En dehors du lactose, la digestion des glucides n’est pas l'étape limitante à leur absorption.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les besoins protéiques d'un adulte normal sont de +55g/j, apportés par les protéines alimentaires, d'origine  animale et végétale,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Certaines bactéries coliques possèdent une activité f-galactosidase qui permet l'hydrolyse du lactose.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. Concernant le transport hydro-électrolytique du tube digestif: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intestin grêle d'un individu adulte et en bonne santé reçoit quotidiennement près de 9 litres d'eau.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une solution orale de réhydratation doit contenir du Na’ et du glucose pour assurer l'absorption de Na° et de glucose via le SGLT2 (1Na'/l glucose) apical des cellules villositaires qui reste fonctionnel.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un traitement antibiotique, le développement d'une diarrhée osmotique peut être lié à une diminution de production de SCFA par le microbiote colique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant les sécrétions pancréatiques:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La procolipase pancréatique est activée par la lipase pancréatique.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il n'y a pas de sécrétion protéique au niveau des canaux pancréatiques intercalaires.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet stimulateur de la CCK sur la sécrétion acinaire pancréatique est plus marqué sur la sécrétion hydro-  électrolytique que sur la sécrétion protéique.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6. Concernant la sécrétion salivaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive définitive est un liquide isotonique, riche en K° et en HCO2, dont le pH se situe entre 7 (en absence de stimulation) et 8 (lors d'une stimulation).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive primaire qui est produite par les cellules acinaires séreuses est un liquide hypotonique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La composante protéique de la salive provient d'une sécrétion canalaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4. Concernant les vitamines et les micronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dissociation du complexe protéine R-vitamine B12 a lieu au niveau de la cavité gastrique, étant favorisée par le milieu acide,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est transporté sous fome de PteGlu1 dans la cellule villositaire par le symport apical PteGlu1/H°   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le calcitriol contrôle l'absorption transcellulaire du Ca°° au niveau du duodénum.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La musculature du tube digestif est uniquement composée de muscle lisse.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les réflexes courts du tube digestif permettent une régulation rapide de la motricité et des sécrétions digestives.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rythme électrique de base est une succession d’ondes lentes de potentiel au niveau des fibres musculaires lisses du grêle qui peuvent déclencher spontanément un potentiel d'action.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31. Concernant les macronutriments:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les phytostérols entrent en compétition avec le cholestérol pour la liaison avec le récepteur NPCILI,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En présence de fibres végétales, l'index glycémique d'un aliment est augmenté.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'échangeur NHE3 (Na /H'} participe à l'absorption intestinale des oligopeptides qui s'effectue selon un mécanisme de transport actif secondaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30. Concernant l'œsophage: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le pyrosis est une sensation de brûlure rétrosternale descendante.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Des épisodes inappropriés de relaxation transitoire du sphincter œsophagien inférieur peuvent être la cause de  reflux gastro-æsophagien pathologique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La relaxation du sphincter œsophagien inférieur se produit uniquement lors de la déglutition.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q29. Concernant les macronutriments:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion luminale du lactose est assurée par la lactase.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'index glycémique ne tient pas compte de la quantité de glucides ingérée qui est un facteur important de  l'élévation de la glycémie et de la réponse insulinique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les protéines végétales sont complètes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24. Concernant l'estomac:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vidange gastrique dépend de la composition ou de la consistance des aliments ingérés.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de l'antre, le potentiel membranaire de repos des cellules musculaires est supérieur au seuil de  contraction, expliquant ainsi les contractions phasiques à ce niveau.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'accommodation du fundus est un réflexe uniquement intrinsèque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant les macronutriments: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les besoins lipidiques quotidiens sont apportés par les triglycérides (95%), les phospholipides (5%) et les phytostérols (&lt; 1%).     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'émulsion des lipides est un processus à la fois mécanique et physico-chimique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intestin grêle peut absorber des dipeptides et des tripeptides qui sont ensuite hydrolysés par des peptidases cytoplasmiques des cellules villositaires.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19. Concernant les glandes salivaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'innervation des glandes salivaires principales est assurée par le système para et orthosympathique dont les effets sont opposés, le parasympathique stimulant la sécrétion salivaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes sublinguales sont essentiellement muqueuses; elles sont innervées par le nerf VIT et assurent 5% de  la sécrétion salivaire basale,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe conditionné est une stimulation de la sécrétion salivaire induite par une stimulation intra-buccale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. Concernant la sécrétion gastrique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase céphalique de la sécrétion gastrique acide représente 30-40%% de la sécrétion acide.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La gastrine exerce un effet stimulateur sur la sécrétion acide par action principalement directe au niveau de la cellule pariétale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La plupart des agents qui stimulent la sécrétion acide pariétale stimulent également la sécrétion de pepsines par les cellules principales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant le foie et les voies biliaires: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fonction hépatique est normale, un ictère à bilirubine non conjuguée s'accompagne toujours d'urobilirubinurie.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La bile ductulaire est produite par les cholangiocytes et les hépatocytes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un repas, la CCK favorise la contraction de la vésicule bilaire par réflexe vago-vagal mais également par voie endocrine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2. Concernant les sécrétions digestives, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétine est le principal régulateur hormonal de la sécrétion canalaire pancréatique. Elle induit une sécrétion hydro-électrolytique alcaline abondante lors de la phase intestinale de la sécrétion pancréatique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le débit sécrétoire hydro-électrolytique augmente, la concentration en sodium du liquide gastrique  diminue tandis que la concentration en sodium du liquide pancréatique augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En période interprandiale, la somatostatine exerce un effet tonique inhibiteur sur la sécrétion d'HCI gastrique en agissant, via son récepteur SST2, sur les cellules G, ECL et pariétales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. Concernant la motricité digestive, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En aval d'un segment péristaltique intestinal, la relaxation du muscle lisse circulaire interne et la relaxation du muscle longitudinal externe favorisent la diminution de pression nécessaire à la progression du contenu intestinal.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont composés de 3 phases dont la dernière, et qui est la plus  courte, est une période de contractions régulières et intenses.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un repas, la cholécystokinine induit la relaxation du sphincter d'Oddi par voie endocrine et par réflexe vago-vagal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5. Concernant les minéraux et vitamines, caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La carence en acide folique se rencontre régulièrement chez l'alcoolique chronique et s'explique notamment par l'inhibition, par l'alcool, de l'exopeptidase de la bordure en brosse qui clive séquentiellement les résidus glutamate du PteGlu7.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules pariétales gastriques sécrètent le facteur intrinsèque qui se lie à la vitamine 812 dans la cavité gastrique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hepcidine empêche la sortie tissulaire de Fe** vers le plasma en se liant à la ferroportine,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20. Concernant les minéraux et vitamines, caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La biologie plasmatique d'un patient de 30 ans est la suivante: saturation de la transferrine 90% ; ferritine 1500 ng/ml (30-350) et hepcidine &lt; 0,3 nmol/L (0,7-3,9). Ces résultats sont compatibles avec le diagnostic d'une hémochromatose HFE C282Y homozygote,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'élévation de l'homocystéine plasmatique peut se rencontrer lors d'une carence en vitamine B12 mais également lors d'une carence en vitamine B9,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'absorption digestive de Ca‘ est active tout au long du grêle.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant les macronutriments, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une pancréatite chronique, la stéatorrhée apparaît précocement et résulte de la maldigestion et de la malabsorption des graisses.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un régime occidental apporte quotidiennement près de 30% des glucides sous forme de sucrose et 45 à 60%  des glucides sous forme d'amidon (amylose et amylopectine).   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les dipeptides et les tripeptides sont absorbés dans l'entérocyte par un mécanisme de transport actif tertiaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5. Concernant le foie, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95% acides biliaires conjugués sont réabsorbés activement au niveau de l'iléon par endocytose médiée par leur liaison au récepteur cubiline-amnionless.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une cirrhose hépatique avec hypertension portale sinusoïdale cliniquement significative, l'état circulatoire hyperdynamique est favorisé par le développement du réseau collatéral porto-cave.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un patient de 75 ans, dont la fonction hépatique est normale, présente un ictère franc, sans température. Ses urines sont devenues foncées et ses selles sont de couleur mastic. Son état général s'est dégradé depuis plusieurs mois et il signale des épisodes de douleurs épigastriques. Dans ces conditions, on peut en déduire qu'il s’agit très probablement d'un ictère à bilirubine conjuguée, avec présence de grandes quantités de bilirubine et  ‘urobilin     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant les sécrétions digestives, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une maladie auto-immunitaire qui détruit les cellules pariétales, une hypergastrinémie est fréquente.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique exocrine et la sécrétion salivaire sont des sécrétions isotoniques quel que soit le débit sécrétoire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les médications ayant des effets cholinergiques peuvent entrainer une hyposialorrhée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant le foie, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La bile ductulaire est une sécrétion hydroélectrolytique alcaline stimulée par la cholécystokinine.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activation des cellules stellées entraîne une vasoconstriction sinusoïdale qui augmente la résistance vasculaire intra-hépatique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une hémolyse avec une fonction hépatique normale, la présence de bilirubine urinaire explique la couleur foncée des urines.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. Concernant les diarrhées, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire, les pertes de Na° sont généralement iso-osmotiques.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sous unité A centrale de la toxine thermolabile de E. Coli entérotoxigène stimule de manière irréversible l'adénylate cyclase au niveau des cellules des cryptes du grêle, ce qui entraîne une sécrétion majeure de Cf via le CFTR.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ajouter de l'amidon résistant à la digestion grêle dans la composition d'une solution de réhydratation orale pourrait être utile dans la mesure où cet amidon est transformé, au niveau du colon, en acides gras à chaînes courtes.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11. Concernant la motricité digestive, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'accommodation gastrique est un réflexe mixte, vago-vagal et intrinsèque.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La relaxation réceptive de la partie proximale de l'estomac se produit lors de l'arrivée du bol alimentaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe péristaltique qui assure la progression des aliments au niveau de l'intestin grêle est un réflexe court, c'est-à-dire intégré au niveau du système nerveux entérique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9. Concernant les macronutriments, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un aliment de 100g contient 10% de glucides dont l'index glycémique (IG) est de 70%, sa charge glycémique est de 7g. Il s'agit d'une valeur faible alors que l'IG est pourtant élevé.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption intestinale de cholestérol libre en se liant au récepteur NPC1L1 qui est situé dans la membrane apicale de la cellule villositaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion des protéines peut encore avoir lieu dans le cytoplasme des entérocytes où des peptidases assurent l'hydrolyse de di et tripeptides, ceux-ci ayant été transportés dans la cellule par un cotransporteur 1H‘/1oligopeptide.    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -80,7 +1498,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,12 +1506,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,16 +1864,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="D365" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M380" sqref="M380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,17 +1898,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -482,17 +1918,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -502,17 +1938,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,17 +1958,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -542,17 +1978,17 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -562,17 +1998,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -582,17 +2018,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -602,17 +2038,17 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -622,17 +2058,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -642,17 +2078,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -662,17 +2098,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -682,17 +2118,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -702,17 +2138,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -722,17 +2158,17 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -742,17 +2178,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -762,17 +2198,17 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -782,17 +2218,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -802,17 +2238,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -822,17 +2258,17 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -842,17 +2278,17 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -862,17 +2298,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -882,17 +2318,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -902,17 +2338,17 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -922,17 +2358,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -942,17 +2378,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -962,17 +2398,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -982,17 +2418,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -1002,17 +2438,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1022,17 +2458,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1042,17 +2478,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1062,17 +2498,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1082,17 +2518,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -1102,17 +2538,17 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1122,17 +2558,17 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1142,17 +2578,17 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1162,17 +2598,17 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1182,17 +2618,17 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1202,17 +2638,17 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1222,17 +2658,17 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -1242,17 +2678,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1262,17 +2698,17 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>6</v>
@@ -1282,17 +2718,17 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1302,17 +2738,17 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -1322,17 +2758,17 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1342,17 +2778,17 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1362,17 +2798,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1382,17 +2818,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1402,17 +2838,17 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -1422,17 +2858,17 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -1442,17 +2878,17 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -1462,17 +2898,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -1482,17 +2918,17 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1502,17 +2938,17 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -1522,17 +2958,17 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1542,17 +2978,17 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>6</v>
@@ -1562,17 +2998,17 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1582,17 +3018,17 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1602,17 +3038,17 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -1622,17 +3058,17 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
@@ -1642,17 +3078,17 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -1662,17 +3098,17 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -1682,17 +3118,17 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -1702,17 +3138,17 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -1722,17 +3158,17 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -1742,17 +3178,17 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -1762,17 +3198,17 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -1782,17 +3218,17 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -1802,17 +3238,17 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -1822,17 +3258,17 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -1842,17 +3278,17 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -1862,17 +3298,17 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -1882,17 +3318,17 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -1902,17 +3338,17 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -1922,17 +3358,17 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -1942,17 +3378,17 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -1962,17 +3398,17 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -1982,17 +3418,17 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>6</v>
@@ -2002,17 +3438,17 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -2022,17 +3458,17 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -2042,17 +3478,17 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
@@ -2062,17 +3498,17 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
@@ -2082,17 +3518,17 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
@@ -2102,17 +3538,17 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -2122,17 +3558,17 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
@@ -2142,17 +3578,17 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -2162,17 +3598,17 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
@@ -2182,17 +3618,17 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -2202,17 +3638,17 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
@@ -2222,17 +3658,17 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
@@ -2242,17 +3678,17 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
@@ -2262,17 +3698,17 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>6</v>
+        <v>97</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -2282,17 +3718,17 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -2302,17 +3738,17 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
+        <v>99</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -2322,17 +3758,17 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -2342,17 +3778,17 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -2362,17 +3798,17 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -2382,17 +3818,17 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -2402,17 +3838,17 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
@@ -2422,17 +3858,17 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -2442,17 +3878,17 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -2462,17 +3898,17 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>6</v>
@@ -2482,17 +3918,17 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>6</v>
@@ -2502,17 +3938,17 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
@@ -2522,17 +3958,17 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -2542,17 +3978,17 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
       </c>
       <c r="E106" t="s">
         <v>6</v>
@@ -2561,7 +3997,5766 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>114</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>126</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+      <c r="C128" t="s">
+        <v>140</v>
+      </c>
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" t="s">
+        <v>141</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>143</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>143</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>149</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" t="s">
+        <v>158</v>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>163</v>
+      </c>
+      <c r="C147" t="s">
+        <v>165</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" t="b">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>167</v>
+      </c>
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" t="b">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" t="s">
+        <v>170</v>
+      </c>
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152" t="s">
+        <v>172</v>
+      </c>
+      <c r="D152" t="b">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" t="s">
+        <v>173</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" t="s">
+        <v>174</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>175</v>
+      </c>
+      <c r="C155" t="s">
+        <v>176</v>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>175</v>
+      </c>
+      <c r="C156" t="s">
+        <v>177</v>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" t="s">
+        <v>178</v>
+      </c>
+      <c r="D157" t="b">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>179</v>
+      </c>
+      <c r="C158" t="s">
+        <v>180</v>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" t="s">
+        <v>181</v>
+      </c>
+      <c r="D159" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160" t="s">
+        <v>182</v>
+      </c>
+      <c r="D160" t="b">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>183</v>
+      </c>
+      <c r="C162" t="s">
+        <v>185</v>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>183</v>
+      </c>
+      <c r="C163" t="s">
+        <v>186</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>187</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" t="s">
+        <v>189</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>187</v>
+      </c>
+      <c r="C166" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>191</v>
+      </c>
+      <c r="C167" t="s">
+        <v>192</v>
+      </c>
+      <c r="D167" t="b">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>191</v>
+      </c>
+      <c r="C168" t="s">
+        <v>177</v>
+      </c>
+      <c r="D168" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>191</v>
+      </c>
+      <c r="C169" t="s">
+        <v>193</v>
+      </c>
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>194</v>
+      </c>
+      <c r="D170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" t="s">
+        <v>195</v>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" t="s">
+        <v>196</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" t="s">
+        <v>197</v>
+      </c>
+      <c r="D173" t="b">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" t="s">
+        <v>198</v>
+      </c>
+      <c r="D174" t="b">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>199</v>
+      </c>
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>200</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" t="s">
+        <v>201</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" t="s">
+        <v>202</v>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" t="s">
+        <v>203</v>
+      </c>
+      <c r="D179" t="b">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" t="s">
+        <v>204</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" t="s">
+        <v>205</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>206</v>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D183" t="b">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>208</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>209</v>
+      </c>
+      <c r="C185" t="s">
+        <v>210</v>
+      </c>
+      <c r="D185" t="b">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>209</v>
+      </c>
+      <c r="C186" t="s">
+        <v>211</v>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>209</v>
+      </c>
+      <c r="C187" t="s">
+        <v>212</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>213</v>
+      </c>
+      <c r="C188" t="s">
+        <v>214</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" t="s">
+        <v>215</v>
+      </c>
+      <c r="D189" t="b">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>213</v>
+      </c>
+      <c r="C190" t="s">
+        <v>216</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>217</v>
+      </c>
+      <c r="D191" t="b">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>218</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>219</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>220</v>
+      </c>
+      <c r="D194" t="b">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>221</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>222</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>223</v>
+      </c>
+      <c r="D197" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" t="s">
+        <v>224</v>
+      </c>
+      <c r="D198" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" t="s">
+        <v>225</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" t="s">
+        <v>226</v>
+      </c>
+      <c r="D200" t="b">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" t="s">
+        <v>227</v>
+      </c>
+      <c r="D201" t="b">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" t="s">
+        <v>228</v>
+      </c>
+      <c r="D202" t="b">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>229</v>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>230</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" t="s">
+        <v>231</v>
+      </c>
+      <c r="D205" t="b">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" t="s">
+        <v>232</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" t="s">
+        <v>233</v>
+      </c>
+      <c r="D207" t="b">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>234</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" t="s">
+        <v>235</v>
+      </c>
+      <c r="D209" t="b">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>236</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>237</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>238</v>
+      </c>
+      <c r="C212" t="s">
+        <v>239</v>
+      </c>
+      <c r="D212" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" t="s">
+        <v>240</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>238</v>
+      </c>
+      <c r="C214" t="s">
+        <v>241</v>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>242</v>
+      </c>
+      <c r="C215" t="s">
+        <v>243</v>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>242</v>
+      </c>
+      <c r="C216" t="s">
+        <v>244</v>
+      </c>
+      <c r="D216" t="b">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>242</v>
+      </c>
+      <c r="C217" t="s">
+        <v>245</v>
+      </c>
+      <c r="D217" t="b">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>246</v>
+      </c>
+      <c r="C218" t="s">
+        <v>247</v>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>246</v>
+      </c>
+      <c r="C219" t="s">
+        <v>248</v>
+      </c>
+      <c r="D219" t="b">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>246</v>
+      </c>
+      <c r="C220" t="s">
+        <v>249</v>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>250</v>
+      </c>
+      <c r="C221" t="s">
+        <v>251</v>
+      </c>
+      <c r="D221" t="b">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>250</v>
+      </c>
+      <c r="C222" t="s">
+        <v>252</v>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>250</v>
+      </c>
+      <c r="C223" t="s">
+        <v>253</v>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>254</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>255</v>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>256</v>
+      </c>
+      <c r="D226" t="b">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" t="s">
+        <v>257</v>
+      </c>
+      <c r="D227" t="b">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" t="s">
+        <v>258</v>
+      </c>
+      <c r="D228" t="b">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>259</v>
+      </c>
+      <c r="D229" t="b">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>260</v>
+      </c>
+      <c r="C230" t="s">
+        <v>261</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>260</v>
+      </c>
+      <c r="C231" t="s">
+        <v>262</v>
+      </c>
+      <c r="D231" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>260</v>
+      </c>
+      <c r="C232" t="s">
+        <v>263</v>
+      </c>
+      <c r="D232" t="b">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+      <c r="F232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>264</v>
+      </c>
+      <c r="C233" t="s">
+        <v>265</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>264</v>
+      </c>
+      <c r="C234" t="s">
+        <v>266</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>264</v>
+      </c>
+      <c r="C235" t="s">
+        <v>267</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>268</v>
+      </c>
+      <c r="C236" t="s">
+        <v>269</v>
+      </c>
+      <c r="D236" t="b">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+      <c r="F236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>268</v>
+      </c>
+      <c r="C237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D237" t="b">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+      <c r="F237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" t="s">
+        <v>271</v>
+      </c>
+      <c r="D238" t="b">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>272</v>
+      </c>
+      <c r="C239" t="s">
+        <v>273</v>
+      </c>
+      <c r="D239" t="b">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>272</v>
+      </c>
+      <c r="C240" t="s">
+        <v>274</v>
+      </c>
+      <c r="D240" t="b">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>272</v>
+      </c>
+      <c r="C241" t="s">
+        <v>275</v>
+      </c>
+      <c r="D241" t="b">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>276</v>
+      </c>
+      <c r="C242" t="s">
+        <v>277</v>
+      </c>
+      <c r="D242" t="b">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>276</v>
+      </c>
+      <c r="C243" t="s">
+        <v>278</v>
+      </c>
+      <c r="D243" t="b">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>276</v>
+      </c>
+      <c r="C244" t="s">
+        <v>279</v>
+      </c>
+      <c r="D244" t="b">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>280</v>
+      </c>
+      <c r="C245" t="s">
+        <v>281</v>
+      </c>
+      <c r="D245" t="b">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>280</v>
+      </c>
+      <c r="C246" t="s">
+        <v>282</v>
+      </c>
+      <c r="D246" t="b">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>280</v>
+      </c>
+      <c r="C247" t="s">
+        <v>283</v>
+      </c>
+      <c r="D247" t="b">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>284</v>
+      </c>
+      <c r="C248" t="s">
+        <v>285</v>
+      </c>
+      <c r="D248" t="b">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>284</v>
+      </c>
+      <c r="C249" t="s">
+        <v>286</v>
+      </c>
+      <c r="D249" t="b">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>284</v>
+      </c>
+      <c r="C250" t="s">
+        <v>287</v>
+      </c>
+      <c r="D250" t="b">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>288</v>
+      </c>
+      <c r="C251" t="s">
+        <v>289</v>
+      </c>
+      <c r="D251" t="b">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>288</v>
+      </c>
+      <c r="C252" t="s">
+        <v>290</v>
+      </c>
+      <c r="D252" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>288</v>
+      </c>
+      <c r="C253" t="s">
+        <v>291</v>
+      </c>
+      <c r="D253" t="b">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>292</v>
+      </c>
+      <c r="C254" t="s">
+        <v>293</v>
+      </c>
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>292</v>
+      </c>
+      <c r="C255" t="s">
+        <v>294</v>
+      </c>
+      <c r="D255" t="b">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>292</v>
+      </c>
+      <c r="C256" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+      <c r="F256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>296</v>
+      </c>
+      <c r="C257" t="s">
+        <v>297</v>
+      </c>
+      <c r="D257" t="b">
+        <v>1</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>296</v>
+      </c>
+      <c r="C258" t="s">
+        <v>298</v>
+      </c>
+      <c r="D258" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>296</v>
+      </c>
+      <c r="C259" t="s">
+        <v>299</v>
+      </c>
+      <c r="D259" t="b">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>300</v>
+      </c>
+      <c r="C260" t="s">
+        <v>301</v>
+      </c>
+      <c r="D260" t="b">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>300</v>
+      </c>
+      <c r="C261" t="s">
+        <v>302</v>
+      </c>
+      <c r="D261" t="b">
+        <v>0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>300</v>
+      </c>
+      <c r="C262" t="s">
+        <v>303</v>
+      </c>
+      <c r="D262" t="b">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>304</v>
+      </c>
+      <c r="C263" t="s">
+        <v>305</v>
+      </c>
+      <c r="D263" t="b">
+        <v>0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>304</v>
+      </c>
+      <c r="C264" t="s">
+        <v>306</v>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>304</v>
+      </c>
+      <c r="C265" t="s">
+        <v>307</v>
+      </c>
+      <c r="D265" t="b">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>308</v>
+      </c>
+      <c r="C266" t="s">
+        <v>309</v>
+      </c>
+      <c r="D266" t="b">
+        <v>1</v>
+      </c>
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>308</v>
+      </c>
+      <c r="C267" t="s">
+        <v>310</v>
+      </c>
+      <c r="D267" t="b">
+        <v>1</v>
+      </c>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>308</v>
+      </c>
+      <c r="C268" t="s">
+        <v>311</v>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>312</v>
+      </c>
+      <c r="C269" t="s">
+        <v>313</v>
+      </c>
+      <c r="D269" t="b">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>312</v>
+      </c>
+      <c r="C270" t="s">
+        <v>314</v>
+      </c>
+      <c r="D270" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>312</v>
+      </c>
+      <c r="C271" t="s">
+        <v>315</v>
+      </c>
+      <c r="D271" t="b">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>316</v>
+      </c>
+      <c r="C272" t="s">
+        <v>317</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>316</v>
+      </c>
+      <c r="C273" t="s">
+        <v>318</v>
+      </c>
+      <c r="D273" t="b">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>316</v>
+      </c>
+      <c r="C274" t="s">
+        <v>319</v>
+      </c>
+      <c r="D274" t="b">
+        <v>0</v>
+      </c>
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>320</v>
+      </c>
+      <c r="C275" t="s">
+        <v>321</v>
+      </c>
+      <c r="D275" t="b">
+        <v>0</v>
+      </c>
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+      <c r="F275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>320</v>
+      </c>
+      <c r="C276" t="s">
+        <v>322</v>
+      </c>
+      <c r="D276" t="b">
+        <v>0</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>320</v>
+      </c>
+      <c r="C277" t="s">
+        <v>323</v>
+      </c>
+      <c r="D277" t="b">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>320</v>
+      </c>
+      <c r="C278" t="s">
+        <v>324</v>
+      </c>
+      <c r="D278" t="b">
+        <v>0</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+      <c r="F278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>320</v>
+      </c>
+      <c r="C279" t="s">
+        <v>325</v>
+      </c>
+      <c r="D279" t="b">
+        <v>1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>320</v>
+      </c>
+      <c r="C280" t="s">
+        <v>326</v>
+      </c>
+      <c r="D280" t="b">
+        <v>0</v>
+      </c>
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>327</v>
+      </c>
+      <c r="C281" t="s">
+        <v>328</v>
+      </c>
+      <c r="D281" t="b">
+        <v>1</v>
+      </c>
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>327</v>
+      </c>
+      <c r="C282" t="s">
+        <v>329</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
+      <c r="F282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>327</v>
+      </c>
+      <c r="C283" t="s">
+        <v>330</v>
+      </c>
+      <c r="D283" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+      <c r="F283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>331</v>
+      </c>
+      <c r="C284" t="s">
+        <v>332</v>
+      </c>
+      <c r="D284" t="b">
+        <v>0</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+      <c r="F284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>331</v>
+      </c>
+      <c r="C285" t="s">
+        <v>333</v>
+      </c>
+      <c r="D285" t="b">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>6</v>
+      </c>
+      <c r="F285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>331</v>
+      </c>
+      <c r="C286" t="s">
+        <v>334</v>
+      </c>
+      <c r="D286" t="b">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>6</v>
+      </c>
+      <c r="F286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>335</v>
+      </c>
+      <c r="C287" t="s">
+        <v>336</v>
+      </c>
+      <c r="D287" t="b">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+      <c r="F287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>335</v>
+      </c>
+      <c r="C288" t="s">
+        <v>337</v>
+      </c>
+      <c r="D288" t="b">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
+      <c r="F288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>335</v>
+      </c>
+      <c r="C289" t="s">
+        <v>338</v>
+      </c>
+      <c r="D289" t="b">
+        <v>0</v>
+      </c>
+      <c r="E289" t="s">
+        <v>6</v>
+      </c>
+      <c r="F289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>339</v>
+      </c>
+      <c r="C290" t="s">
+        <v>340</v>
+      </c>
+      <c r="D290" t="b">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+      <c r="F290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>339</v>
+      </c>
+      <c r="C291" t="s">
+        <v>341</v>
+      </c>
+      <c r="D291" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>339</v>
+      </c>
+      <c r="C292" t="s">
+        <v>342</v>
+      </c>
+      <c r="D292" t="b">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
+      <c r="F292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>343</v>
+      </c>
+      <c r="C293" t="s">
+        <v>344</v>
+      </c>
+      <c r="D293" t="b">
+        <v>0</v>
+      </c>
+      <c r="E293" t="s">
+        <v>6</v>
+      </c>
+      <c r="F293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>343</v>
+      </c>
+      <c r="C294" t="s">
+        <v>345</v>
+      </c>
+      <c r="D294" t="b">
+        <v>1</v>
+      </c>
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+      <c r="F294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>343</v>
+      </c>
+      <c r="C295" t="s">
+        <v>346</v>
+      </c>
+      <c r="D295" t="b">
+        <v>0</v>
+      </c>
+      <c r="E295" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>347</v>
+      </c>
+      <c r="C296" t="s">
+        <v>348</v>
+      </c>
+      <c r="D296" t="b">
+        <v>1</v>
+      </c>
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+      <c r="F296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>347</v>
+      </c>
+      <c r="C297" t="s">
+        <v>349</v>
+      </c>
+      <c r="D297" t="b">
+        <v>0</v>
+      </c>
+      <c r="E297" t="s">
+        <v>6</v>
+      </c>
+      <c r="F297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>347</v>
+      </c>
+      <c r="C298" t="s">
+        <v>350</v>
+      </c>
+      <c r="D298" t="b">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>351</v>
+      </c>
+      <c r="C299" t="s">
+        <v>352</v>
+      </c>
+      <c r="D299" t="b">
+        <v>0</v>
+      </c>
+      <c r="E299" t="s">
+        <v>6</v>
+      </c>
+      <c r="F299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>351</v>
+      </c>
+      <c r="C300" t="s">
+        <v>353</v>
+      </c>
+      <c r="D300" t="b">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>6</v>
+      </c>
+      <c r="F300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>351</v>
+      </c>
+      <c r="C301" t="s">
+        <v>354</v>
+      </c>
+      <c r="D301" t="b">
+        <v>0</v>
+      </c>
+      <c r="E301" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>264</v>
+      </c>
+      <c r="C302" t="s">
+        <v>355</v>
+      </c>
+      <c r="D302" t="b">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>6</v>
+      </c>
+      <c r="F302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>264</v>
+      </c>
+      <c r="C303" t="s">
+        <v>356</v>
+      </c>
+      <c r="D303" t="b">
+        <v>1</v>
+      </c>
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>264</v>
+      </c>
+      <c r="C304" t="s">
+        <v>357</v>
+      </c>
+      <c r="D304" t="b">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>6</v>
+      </c>
+      <c r="F304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>358</v>
+      </c>
+      <c r="C305" t="s">
+        <v>359</v>
+      </c>
+      <c r="D305" t="b">
+        <v>0</v>
+      </c>
+      <c r="E305" t="s">
+        <v>6</v>
+      </c>
+      <c r="F305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>358</v>
+      </c>
+      <c r="C306" t="s">
+        <v>360</v>
+      </c>
+      <c r="D306" t="b">
+        <v>0</v>
+      </c>
+      <c r="E306" t="s">
+        <v>6</v>
+      </c>
+      <c r="F306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>358</v>
+      </c>
+      <c r="C307" t="s">
+        <v>361</v>
+      </c>
+      <c r="D307" t="b">
+        <v>0</v>
+      </c>
+      <c r="E307" t="s">
+        <v>6</v>
+      </c>
+      <c r="F307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>362</v>
+      </c>
+      <c r="C308" t="s">
+        <v>363</v>
+      </c>
+      <c r="D308" t="b">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>6</v>
+      </c>
+      <c r="F308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>362</v>
+      </c>
+      <c r="C309" t="s">
+        <v>364</v>
+      </c>
+      <c r="D309" t="b">
+        <v>1</v>
+      </c>
+      <c r="E309" t="s">
+        <v>6</v>
+      </c>
+      <c r="F309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>362</v>
+      </c>
+      <c r="C310" t="s">
+        <v>365</v>
+      </c>
+      <c r="D310" t="b">
+        <v>1</v>
+      </c>
+      <c r="E310" t="s">
+        <v>6</v>
+      </c>
+      <c r="F310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>366</v>
+      </c>
+      <c r="C311" t="s">
+        <v>367</v>
+      </c>
+      <c r="D311" t="b">
+        <v>1</v>
+      </c>
+      <c r="E311" t="s">
+        <v>6</v>
+      </c>
+      <c r="F311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>366</v>
+      </c>
+      <c r="C312" t="s">
+        <v>368</v>
+      </c>
+      <c r="D312" t="b">
+        <v>0</v>
+      </c>
+      <c r="E312" t="s">
+        <v>6</v>
+      </c>
+      <c r="F312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>366</v>
+      </c>
+      <c r="C313" t="s">
+        <v>369</v>
+      </c>
+      <c r="D313" t="b">
+        <v>1</v>
+      </c>
+      <c r="E313" t="s">
+        <v>6</v>
+      </c>
+      <c r="F313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>370</v>
+      </c>
+      <c r="C314" t="s">
+        <v>371</v>
+      </c>
+      <c r="D314" t="b">
+        <v>0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>6</v>
+      </c>
+      <c r="F314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>370</v>
+      </c>
+      <c r="C315" t="s">
+        <v>372</v>
+      </c>
+      <c r="D315" t="b">
+        <v>0</v>
+      </c>
+      <c r="E315" t="s">
+        <v>6</v>
+      </c>
+      <c r="F315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>370</v>
+      </c>
+      <c r="C316" t="s">
+        <v>373</v>
+      </c>
+      <c r="D316" t="b">
+        <v>0</v>
+      </c>
+      <c r="E316" t="s">
+        <v>6</v>
+      </c>
+      <c r="F316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>374</v>
+      </c>
+      <c r="C317" t="s">
+        <v>375</v>
+      </c>
+      <c r="D317" t="b">
+        <v>1</v>
+      </c>
+      <c r="E317" t="s">
+        <v>6</v>
+      </c>
+      <c r="F317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>374</v>
+      </c>
+      <c r="C318" t="s">
+        <v>376</v>
+      </c>
+      <c r="D318" t="b">
+        <v>1</v>
+      </c>
+      <c r="E318" t="s">
+        <v>6</v>
+      </c>
+      <c r="F318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>374</v>
+      </c>
+      <c r="C319" t="s">
+        <v>377</v>
+      </c>
+      <c r="D319" t="b">
+        <v>1</v>
+      </c>
+      <c r="E319" t="s">
+        <v>6</v>
+      </c>
+      <c r="F319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>378</v>
+      </c>
+      <c r="C320" t="s">
+        <v>379</v>
+      </c>
+      <c r="D320" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" t="s">
+        <v>6</v>
+      </c>
+      <c r="F320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>378</v>
+      </c>
+      <c r="C321" t="s">
+        <v>380</v>
+      </c>
+      <c r="D321" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>6</v>
+      </c>
+      <c r="F321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>378</v>
+      </c>
+      <c r="C322" t="s">
+        <v>381</v>
+      </c>
+      <c r="D322" t="b">
+        <v>1</v>
+      </c>
+      <c r="E322" t="s">
+        <v>6</v>
+      </c>
+      <c r="F322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>382</v>
+      </c>
+      <c r="C323" t="s">
+        <v>383</v>
+      </c>
+      <c r="D323" t="b">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>6</v>
+      </c>
+      <c r="F323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>382</v>
+      </c>
+      <c r="C324" t="s">
+        <v>384</v>
+      </c>
+      <c r="D324" t="b">
+        <v>0</v>
+      </c>
+      <c r="E324" t="s">
+        <v>6</v>
+      </c>
+      <c r="F324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>382</v>
+      </c>
+      <c r="C325" t="s">
+        <v>385</v>
+      </c>
+      <c r="D325" t="b">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
+        <v>6</v>
+      </c>
+      <c r="F325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>386</v>
+      </c>
+      <c r="C326" t="s">
+        <v>387</v>
+      </c>
+      <c r="D326" t="b">
+        <v>0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>6</v>
+      </c>
+      <c r="F326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>386</v>
+      </c>
+      <c r="C327" t="s">
+        <v>388</v>
+      </c>
+      <c r="D327" t="b">
+        <v>1</v>
+      </c>
+      <c r="E327" t="s">
+        <v>6</v>
+      </c>
+      <c r="F327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>386</v>
+      </c>
+      <c r="C328" t="s">
+        <v>389</v>
+      </c>
+      <c r="D328" t="b">
+        <v>0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>6</v>
+      </c>
+      <c r="F328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>390</v>
+      </c>
+      <c r="C329" t="s">
+        <v>391</v>
+      </c>
+      <c r="D329" t="b">
+        <v>0</v>
+      </c>
+      <c r="E329" t="s">
+        <v>6</v>
+      </c>
+      <c r="F329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>390</v>
+      </c>
+      <c r="C330" t="s">
+        <v>392</v>
+      </c>
+      <c r="D330" t="b">
+        <v>0</v>
+      </c>
+      <c r="E330" t="s">
+        <v>6</v>
+      </c>
+      <c r="F330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>390</v>
+      </c>
+      <c r="C331" t="s">
+        <v>393</v>
+      </c>
+      <c r="D331" t="b">
+        <v>0</v>
+      </c>
+      <c r="E331" t="s">
+        <v>6</v>
+      </c>
+      <c r="F331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>394</v>
+      </c>
+      <c r="C332" t="s">
+        <v>395</v>
+      </c>
+      <c r="D332" t="b">
+        <v>0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>6</v>
+      </c>
+      <c r="F332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>394</v>
+      </c>
+      <c r="C333" t="s">
+        <v>396</v>
+      </c>
+      <c r="D333" t="b">
+        <v>1</v>
+      </c>
+      <c r="E333" t="s">
+        <v>6</v>
+      </c>
+      <c r="F333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>394</v>
+      </c>
+      <c r="C334" t="s">
+        <v>397</v>
+      </c>
+      <c r="D334" t="b">
+        <v>1</v>
+      </c>
+      <c r="E334" t="s">
+        <v>6</v>
+      </c>
+      <c r="F334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>284</v>
+      </c>
+      <c r="C335" t="s">
+        <v>398</v>
+      </c>
+      <c r="D335" t="b">
+        <v>0</v>
+      </c>
+      <c r="E335" t="s">
+        <v>6</v>
+      </c>
+      <c r="F335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>284</v>
+      </c>
+      <c r="C336" t="s">
+        <v>399</v>
+      </c>
+      <c r="D336" t="b">
+        <v>1</v>
+      </c>
+      <c r="E336" t="s">
+        <v>6</v>
+      </c>
+      <c r="F336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>284</v>
+      </c>
+      <c r="C337" t="s">
+        <v>400</v>
+      </c>
+      <c r="D337" t="b">
+        <v>0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>6</v>
+      </c>
+      <c r="F337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>401</v>
+      </c>
+      <c r="C338" t="s">
+        <v>402</v>
+      </c>
+      <c r="D338" t="b">
+        <v>1</v>
+      </c>
+      <c r="E338" t="s">
+        <v>6</v>
+      </c>
+      <c r="F338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>401</v>
+      </c>
+      <c r="C339" t="s">
+        <v>403</v>
+      </c>
+      <c r="D339" t="b">
+        <v>0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>401</v>
+      </c>
+      <c r="C340" t="s">
+        <v>404</v>
+      </c>
+      <c r="D340" t="b">
+        <v>0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>6</v>
+      </c>
+      <c r="F340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>405</v>
+      </c>
+      <c r="C341" t="s">
+        <v>406</v>
+      </c>
+      <c r="D341" t="b">
+        <v>0</v>
+      </c>
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
+      <c r="F341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>405</v>
+      </c>
+      <c r="C342" t="s">
+        <v>407</v>
+      </c>
+      <c r="D342" t="b">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
+        <v>6</v>
+      </c>
+      <c r="F342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>405</v>
+      </c>
+      <c r="C343" t="s">
+        <v>408</v>
+      </c>
+      <c r="D343" t="b">
+        <v>0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>6</v>
+      </c>
+      <c r="F343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>409</v>
+      </c>
+      <c r="C344" t="s">
+        <v>410</v>
+      </c>
+      <c r="D344" t="b">
+        <v>0</v>
+      </c>
+      <c r="E344" t="s">
+        <v>6</v>
+      </c>
+      <c r="F344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>409</v>
+      </c>
+      <c r="C345" t="s">
+        <v>411</v>
+      </c>
+      <c r="D345" t="b">
+        <v>1</v>
+      </c>
+      <c r="E345" t="s">
+        <v>6</v>
+      </c>
+      <c r="F345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>409</v>
+      </c>
+      <c r="C346" t="s">
+        <v>412</v>
+      </c>
+      <c r="D346" t="b">
+        <v>0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>6</v>
+      </c>
+      <c r="F346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>413</v>
+      </c>
+      <c r="C347" t="s">
+        <v>414</v>
+      </c>
+      <c r="D347" t="b">
+        <v>0</v>
+      </c>
+      <c r="E347" t="s">
+        <v>6</v>
+      </c>
+      <c r="F347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>413</v>
+      </c>
+      <c r="C348" t="s">
+        <v>415</v>
+      </c>
+      <c r="D348" t="b">
+        <v>0</v>
+      </c>
+      <c r="E348" t="s">
+        <v>6</v>
+      </c>
+      <c r="F348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>413</v>
+      </c>
+      <c r="C349" t="s">
+        <v>416</v>
+      </c>
+      <c r="D349" t="b">
+        <v>0</v>
+      </c>
+      <c r="E349" t="s">
+        <v>6</v>
+      </c>
+      <c r="F349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>417</v>
+      </c>
+      <c r="C350" t="s">
+        <v>418</v>
+      </c>
+      <c r="D350" t="b">
+        <v>0</v>
+      </c>
+      <c r="E350" t="s">
+        <v>6</v>
+      </c>
+      <c r="F350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="1">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>417</v>
+      </c>
+      <c r="C351" t="s">
+        <v>419</v>
+      </c>
+      <c r="D351" t="b">
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
+      <c r="F351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>417</v>
+      </c>
+      <c r="C352" t="s">
+        <v>420</v>
+      </c>
+      <c r="D352" t="b">
+        <v>1</v>
+      </c>
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+      <c r="F352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>421</v>
+      </c>
+      <c r="C353" t="s">
+        <v>422</v>
+      </c>
+      <c r="D353" t="b">
+        <v>0</v>
+      </c>
+      <c r="E353" t="s">
+        <v>6</v>
+      </c>
+      <c r="F353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>421</v>
+      </c>
+      <c r="C354" t="s">
+        <v>423</v>
+      </c>
+      <c r="D354" t="b">
+        <v>1</v>
+      </c>
+      <c r="E354" t="s">
+        <v>6</v>
+      </c>
+      <c r="F354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>421</v>
+      </c>
+      <c r="C355" t="s">
+        <v>424</v>
+      </c>
+      <c r="D355" t="b">
+        <v>0</v>
+      </c>
+      <c r="E355" t="s">
+        <v>6</v>
+      </c>
+      <c r="F355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>425</v>
+      </c>
+      <c r="C356" t="s">
+        <v>426</v>
+      </c>
+      <c r="D356" t="b">
+        <v>1</v>
+      </c>
+      <c r="E356" t="s">
+        <v>6</v>
+      </c>
+      <c r="F356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>425</v>
+      </c>
+      <c r="C357" t="s">
+        <v>427</v>
+      </c>
+      <c r="D357" t="b">
+        <v>0</v>
+      </c>
+      <c r="E357" t="s">
+        <v>6</v>
+      </c>
+      <c r="F357" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>425</v>
+      </c>
+      <c r="C358" t="s">
+        <v>428</v>
+      </c>
+      <c r="D358" t="b">
+        <v>0</v>
+      </c>
+      <c r="E358" t="s">
+        <v>6</v>
+      </c>
+      <c r="F358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>429</v>
+      </c>
+      <c r="C359" t="s">
+        <v>430</v>
+      </c>
+      <c r="D359" t="b">
+        <v>1</v>
+      </c>
+      <c r="E359" t="s">
+        <v>6</v>
+      </c>
+      <c r="F359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>429</v>
+      </c>
+      <c r="C360" t="s">
+        <v>431</v>
+      </c>
+      <c r="D360" t="b">
+        <v>0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>6</v>
+      </c>
+      <c r="F360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>429</v>
+      </c>
+      <c r="C361" t="s">
+        <v>432</v>
+      </c>
+      <c r="D361" t="b">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>6</v>
+      </c>
+      <c r="F361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>433</v>
+      </c>
+      <c r="C362" t="s">
+        <v>434</v>
+      </c>
+      <c r="D362" t="b">
+        <v>1</v>
+      </c>
+      <c r="E362" t="s">
+        <v>6</v>
+      </c>
+      <c r="F362" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>433</v>
+      </c>
+      <c r="C363" t="s">
+        <v>435</v>
+      </c>
+      <c r="D363" t="b">
+        <v>0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>6</v>
+      </c>
+      <c r="F363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>433</v>
+      </c>
+      <c r="C364" t="s">
+        <v>436</v>
+      </c>
+      <c r="D364" t="b">
+        <v>1</v>
+      </c>
+      <c r="E364" t="s">
+        <v>6</v>
+      </c>
+      <c r="F364" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>437</v>
+      </c>
+      <c r="C365" t="s">
+        <v>438</v>
+      </c>
+      <c r="D365" t="b">
+        <v>0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>6</v>
+      </c>
+      <c r="F365" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>437</v>
+      </c>
+      <c r="C366" t="s">
+        <v>439</v>
+      </c>
+      <c r="D366" t="b">
+        <v>1</v>
+      </c>
+      <c r="E366" t="s">
+        <v>6</v>
+      </c>
+      <c r="F366" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>437</v>
+      </c>
+      <c r="C367" t="s">
+        <v>440</v>
+      </c>
+      <c r="D367" t="b">
+        <v>0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>6</v>
+      </c>
+      <c r="F367" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>441</v>
+      </c>
+      <c r="C368" t="s">
+        <v>442</v>
+      </c>
+      <c r="D368" t="b">
+        <v>1</v>
+      </c>
+      <c r="E368" t="s">
+        <v>6</v>
+      </c>
+      <c r="F368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="1">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>441</v>
+      </c>
+      <c r="C369" t="s">
+        <v>443</v>
+      </c>
+      <c r="D369" t="b">
+        <v>0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>6</v>
+      </c>
+      <c r="F369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="1">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>441</v>
+      </c>
+      <c r="C370" t="s">
+        <v>444</v>
+      </c>
+      <c r="D370" t="b">
+        <v>1</v>
+      </c>
+      <c r="E370" t="s">
+        <v>6</v>
+      </c>
+      <c r="F370" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="1">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>445</v>
+      </c>
+      <c r="C371" t="s">
+        <v>446</v>
+      </c>
+      <c r="D371" t="b">
+        <v>1</v>
+      </c>
+      <c r="E371" t="s">
+        <v>6</v>
+      </c>
+      <c r="F371" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>445</v>
+      </c>
+      <c r="C372" t="s">
+        <v>447</v>
+      </c>
+      <c r="D372" t="b">
+        <v>1</v>
+      </c>
+      <c r="E372" t="s">
+        <v>6</v>
+      </c>
+      <c r="F372" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>445</v>
+      </c>
+      <c r="C373" t="s">
+        <v>448</v>
+      </c>
+      <c r="D373" t="b">
+        <v>0</v>
+      </c>
+      <c r="E373" t="s">
+        <v>6</v>
+      </c>
+      <c r="F373" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>449</v>
+      </c>
+      <c r="C374" t="s">
+        <v>450</v>
+      </c>
+      <c r="D374" t="b">
+        <v>0</v>
+      </c>
+      <c r="E374" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>449</v>
+      </c>
+      <c r="C375" t="s">
+        <v>451</v>
+      </c>
+      <c r="D375" t="b">
+        <v>1</v>
+      </c>
+      <c r="E375" t="s">
+        <v>6</v>
+      </c>
+      <c r="F375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>449</v>
+      </c>
+      <c r="C376" t="s">
+        <v>452</v>
+      </c>
+      <c r="D376" t="b">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>453</v>
+      </c>
+      <c r="C377" t="s">
+        <v>454</v>
+      </c>
+      <c r="D377" t="b">
+        <v>0</v>
+      </c>
+      <c r="E377" t="s">
+        <v>6</v>
+      </c>
+      <c r="F377" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>453</v>
+      </c>
+      <c r="C378" t="s">
+        <v>455</v>
+      </c>
+      <c r="D378" t="b">
+        <v>1</v>
+      </c>
+      <c r="E378" t="s">
+        <v>6</v>
+      </c>
+      <c r="F378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>453</v>
+      </c>
+      <c r="C379" t="s">
+        <v>456</v>
+      </c>
+      <c r="D379" t="b">
+        <v>0</v>
+      </c>
+      <c r="E379" t="s">
+        <v>6</v>
+      </c>
+      <c r="F379" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>457</v>
+      </c>
+      <c r="C380" t="s">
+        <v>458</v>
+      </c>
+      <c r="D380" t="b">
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
+        <v>6</v>
+      </c>
+      <c r="F380" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>457</v>
+      </c>
+      <c r="C381" t="s">
+        <v>459</v>
+      </c>
+      <c r="D381" t="b">
+        <v>0</v>
+      </c>
+      <c r="E381" t="s">
+        <v>6</v>
+      </c>
+      <c r="F381" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>457</v>
+      </c>
+      <c r="C382" t="s">
+        <v>460</v>
+      </c>
+      <c r="D382" t="b">
+        <v>0</v>
+      </c>
+      <c r="E382" t="s">
+        <v>6</v>
+      </c>
+      <c r="F382" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>461</v>
+      </c>
+      <c r="C383" t="s">
+        <v>462</v>
+      </c>
+      <c r="D383" t="b">
+        <v>0</v>
+      </c>
+      <c r="E383" t="s">
+        <v>6</v>
+      </c>
+      <c r="F383" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>461</v>
+      </c>
+      <c r="C384" t="s">
+        <v>463</v>
+      </c>
+      <c r="D384" t="b">
+        <v>1</v>
+      </c>
+      <c r="E384" t="s">
+        <v>6</v>
+      </c>
+      <c r="F384" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>461</v>
+      </c>
+      <c r="C385" t="s">
+        <v>464</v>
+      </c>
+      <c r="D385" t="b">
+        <v>0</v>
+      </c>
+      <c r="E385" t="s">
+        <v>6</v>
+      </c>
+      <c r="F385" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>465</v>
+      </c>
+      <c r="C386" t="s">
+        <v>466</v>
+      </c>
+      <c r="D386" t="b">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>6</v>
+      </c>
+      <c r="F386" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>465</v>
+      </c>
+      <c r="C387" t="s">
+        <v>467</v>
+      </c>
+      <c r="D387" t="b">
+        <v>1</v>
+      </c>
+      <c r="E387" t="s">
+        <v>6</v>
+      </c>
+      <c r="F387" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>465</v>
+      </c>
+      <c r="C388" t="s">
+        <v>468</v>
+      </c>
+      <c r="D388" t="b">
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>6</v>
+      </c>
+      <c r="F388" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>469</v>
+      </c>
+      <c r="C389" t="s">
+        <v>470</v>
+      </c>
+      <c r="D389" t="b">
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
+        <v>6</v>
+      </c>
+      <c r="F389" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>469</v>
+      </c>
+      <c r="C390" t="s">
+        <v>471</v>
+      </c>
+      <c r="D390" t="b">
+        <v>0</v>
+      </c>
+      <c r="E390" t="s">
+        <v>6</v>
+      </c>
+      <c r="F390" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>469</v>
+      </c>
+      <c r="C391" t="s">
+        <v>472</v>
+      </c>
+      <c r="D391" t="b">
+        <v>1</v>
+      </c>
+      <c r="E391" t="s">
+        <v>6</v>
+      </c>
+      <c r="F391" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="1">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>473</v>
+      </c>
+      <c r="C392" t="s">
+        <v>474</v>
+      </c>
+      <c r="D392" t="b">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>6</v>
+      </c>
+      <c r="F392" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="1">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>473</v>
+      </c>
+      <c r="C393" t="s">
+        <v>475</v>
+      </c>
+      <c r="D393" t="b">
+        <v>1</v>
+      </c>
+      <c r="E393" t="s">
+        <v>6</v>
+      </c>
+      <c r="F393" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>473</v>
+      </c>
+      <c r="C394" t="s">
+        <v>476</v>
+      </c>
+      <c r="D394" t="b">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>6</v>
+      </c>
+      <c r="F394" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physiopathologie/Excel/digestif.xlsx
+++ b/Physiopathologie/Excel/digestif.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252B6B6-1CF8-4473-8EE8-BD43F944B861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E93FD3-60EC-4BD8-A6F8-66EC1DDB3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="625">
   <si>
     <t>Numero</t>
   </si>
@@ -59,21 +59,12 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve"> Contrairement à la sécrétion salivaire, la tonicité du liquide pancréatique est indépendante du débit sécrétoire,  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La sécrétion hydro-électrolytique (HE) canalaire représente + 75% de la sécrétion HE pancréatique.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le trypsinogène est le principal constituant de la sécrétion protéique acinaire pancréatique. </t>
   </si>
   <si>
     <t xml:space="preserve"> La sécrétion gastrique est une sécrétion purement hydro-électrolytique, formée de HCI et de NaHCO2 et qui représente + 2L/j.  </t>
   </si>
   <si>
-    <t xml:space="preserve">.Lorsque le débit de la sécrétion acide est stimulé, la concentration de H° augmente tandis que la concentration de Na'diminue.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors du vomissement, la sensation de haut le cœur précède les manifestations autonomes.  </t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t xml:space="preserve"> Le GIP (Gastrolntestinal Peptide) ralentit la vidange gastrique et évite une arrivée trop rapide du contenu gastrique dans le duodénum.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le réflexe péristaltique qui assure la propulsion des aliments au niveau de l'intestin grêle est un réflexe de type long.   [] = 0  [1 LL  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La phase gastrique de la sécrétion acide est la plus importante sur le plan quantitatif et comprend deux composantes, mécanique et chimique.  </t>
   </si>
   <si>
@@ -149,33 +137,18 @@
     <t xml:space="preserve"> Les cellules stellées sont activées au repos et deviennent quiescentes lors d’une agression hépatique.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le fer quitte l’entérocyte duodénal, sous forme de Fe”, en étant transporté par la ferroportine basolatérale. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'intolérance au lactose est un déficit en lactase, responsable de maldigestion et de malabsorption du  lactose.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La vitamine D (1,25-OH}D:) contrôle l'absorption paracellulaire de Ca” sur toute la longueur du grêle. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chez le sujet normal, l'intestin grêle et le colon absorbent chaque jour 80% de la charge hydrique qui leur est présentée. </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption grêle de cholestérol, en se fixant sur le récepteur NPCILI.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le grêle peut absorber des dipeptides et des tripeptides.  </t>
   </si>
   <si>
     <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont immédiatement abolis par l’ingestion alimentaire, </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion intestinale de CT est élevée à l’état basal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les toxines infectieuses du cholera et d'E. Coli inhibent le symport SGLTI.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La stéatorrhée apparait précocement lors d'une pancréatite chronique, lorsque la production de lipase devient inférieure à 90% de sa production normale.  </t>
   </si>
   <si>
@@ -236,21 +209,12 @@
     <t xml:space="preserve"> Lorsque le débit salivaire est élevé, la tonicité de la salive est proche de celle du plasma  </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'acétylcholine stimule la sécrétion acinaire salivaire via un récepteur M3 basolatéral et via la voie du Ca”  intracellulaire qui entraîne une sécrétion hydro-électrolytique prédominante. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le réflexe péristaltique est un réflexe mixte du tube digestif,  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Au niveau du tube digestif, le système parasympathique est globalement stimulateur même si 1l induit la relaxation des sphincters.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'innervation du tube digestif est uniquement autonome, assurée par le système nerveux intrinsèque et par  le système nerveux extrinsèque. </t>
   </si>
   <si>
-    <t xml:space="preserve"> La stimulation salivaire acinaire par un agent fl adrénergique entraîne une sécrétion protéique prédominante via la voie de l'AMPc. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque le débit salivaire est faible, la salive est isotonique.  </t>
   </si>
   <si>
@@ -281,9 +245,6 @@
     <t xml:space="preserve"> Le grêle peut parfois absorber des disaccharides. </t>
   </si>
   <si>
-    <t xml:space="preserve"> La toxine du choléra CTX inhibe également l'absorption électroneutre de NaCT en inhibant l'échangeur  Na /H° (NHE3). </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les ictères à bilirubine conjuguée s’accompagnent toujours de bilirubinurie mais d’une urobilinurie variable.  </t>
   </si>
   <si>
@@ -296,9 +257,6 @@
     <t xml:space="preserve"> La stéatorrhée est une diarrhée graisseuse (&gt; 200g selles/j) avec selles liquides et flottantes qui apparait précocement lors d'une insuffisance pancréatique.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion pancréatique représente + 1,5L/j d’un liquide alcalin, riche en NaHCO2, et également riche en protéines qui sont majoritairement des enzymes.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La sécrétine est le principal régulateur hormonal de la sécrétion acinaire et la CCK est le principal régulateur paracrine de la sécrétion canalaire. </t>
   </si>
   <si>
@@ -308,24 +266,15 @@
     <t xml:space="preserve"> L'absorption grêle du cholestérol se fait par endocytose par récepteur interposé. Ce processus est inhibé par l'ézétimibe.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une intolérance au lactose, la production de H;, de CO2 ou de CH, au niveau grêle explique le ballonnement abdominal dont se plaignent régulièrement les patients intolérants. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La sécrétion hydro-électrolytique (HE) acinaire représente + 25% de la sécrétion HE pancréatique. </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion pancréatique stimulée est isotonique et alcaline, étant considérablement enrichie en HCO2 (+110 mEg/L).  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L’hydrolyse intraluminale des peptides génère 40% d'acides aminés et 60% d’oligopeptides. </t>
   </si>
   <si>
     <t xml:space="preserve"> La sécrétion biliaire ductulaire est alcaline et stimulée par la sécrétine.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les ictères à bilirubine non conjuguée s’accompagnent toujours d’une augmentation de l’urobilirubinurie mais d'une absence de bilirubinurie.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les cellules stellées sont situées dans l'espace de Disse. Elles sont activées lors d'une agression hépatique  chronique et sont responsables du développement de la fibrose hépatique. </t>
   </si>
   <si>
@@ -356,9 +305,6 @@
     <t xml:space="preserve"> Les deux tiers distaux du corps gastrique et l'antre sont le siège de contractions toniques et constituent la  "pompe antrale”.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion hydro-électrolytique gastrique est constituée de HCTI et de NaHCO2  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La somatostatine est l'inhibiteur majeur de la sécrétion gastrique acide, agissant directement par voie paracrine et endocrine et agissant indirectement par voie paracrine.  </t>
   </si>
   <si>
@@ -401,9 +347,6 @@
     <t xml:space="preserve">7. Concernant le grêle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Avant d'être absorbé, l'acide folique alimentaire, ingéré sous forme de PteGlu 7, est hydrolysé en PteGlul par une exopeptidase de la bordure en brosse des cellules villositaires du jéjunum.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Seul le fer non hémique est absorbé au niveau du duodénum.   </t>
   </si>
   <si>
@@ -425,9 +368,6 @@
     <t xml:space="preserve"> Le calcitriol stimule l'absorption duodénale de calcium par la voie transcellulaire et par la voie paracellulaire.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le fer est absorbé au niveau de l'iléon sous forme de Fe”, via le symport DMTI apical,  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'intensité des contractions segmentaires augmente après les repas, renforcée par l'action du système  orthosympathique. </t>
   </si>
   <si>
@@ -482,9 +422,6 @@
     <t xml:space="preserve">18. Concernant la sécrétion salivaire: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La salive est un liquide hypotonique qui est riche en K° et en HCO2 et dont le pH se situe entre 7 et 8 selon le niveau de stimulation.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'élaboration de la salive est un processus en deux étapes, essentiellement contrôlées par voie neurocrine et  qui se déroulent au niveau acinaire et canalaire.   </t>
   </si>
   <si>
@@ -494,21 +431,12 @@
     <t xml:space="preserve">13. Concernant l'intestin grêle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La toxine du choléra CTX stimule la sécrétion de CT au niveau des cellules du grêle et du colon par activation réversible de l’adénylate cyclase.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La digestion membranaire des produits d’hydrolyse de l’amidon est assurée par la maltase, le complexe  sucrase-isomalatase et la lactase.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le symport SGLT1 (2Na'/1glucose) est la voie prépondérante d'absorption de Na” lors d'un repas.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">11. Concernant les macronutriments: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors de l'intolérance au lactose, les symptômes (ballonnement abdominal, borborygmes et flatulences) sont liés à la production grêle de H; et de CO2.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La digestion des lipides débute par leur émulsion au niveau de l'estomac.    </t>
   </si>
   <si>
@@ -518,12 +446,6 @@
     <t xml:space="preserve">1. Concernant l'intestin grêle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'acide folique est transporté sous forme de PteGlul par le symport PteGlul/H° apical des cellules villositaires du Jéjunum.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le fer est absorbé au niveau du duodénum sous forme de Fe” par le symport DMTI de la membrane apicale  des entérocytes.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'élévation de l'homocystéine se rencontre lors d'un déficit en vitamine B12.    </t>
   </si>
   <si>
@@ -542,9 +464,6 @@
     <t xml:space="preserve">29, Concernant l'oesophage:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le reflux-oesophagien pathologique s'accompagne toujours de lésion d'œsophagite.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La phase orale de la déglutition est volontaire et dure environ 0,6 sec    </t>
   </si>
   <si>
@@ -557,9 +476,6 @@
     <t xml:space="preserve"> Certains antidépresseurs peuvent être responsables de xérostomie.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les glandes parotides sont purement séreuses et sont innervées par le nerf VIL    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le réflexe mastico-salivaire module la sécrétion salivaire qui s'adapte à la consistance et à la taille des particules mâchées.  </t>
   </si>
   <si>
@@ -569,18 +485,12 @@
     <t xml:space="preserve"> La composition salivaire dépend du débit salivaire, la salive étant fortement hypotonique lorsque le débit salivaire est faible.  </t>
   </si>
   <si>
-    <t xml:space="preserve">)  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le système parasympathique assure un rôle trophique sur les glandes salivaires qui est indispensable pour  maintenir la masse tissulaire salivaire.   </t>
   </si>
   <si>
     <t xml:space="preserve">26. Concernant le foie et les voies biliaires: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les hépatocytes constituent + 50% du parenchyme hépatique.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La bile ductulaire est une sécrétion hydro-électrolytique alcaline stimulée par la cholécystokinine.    </t>
   </si>
   <si>
@@ -614,12 +524,6 @@
     <t xml:space="preserve">15. Concernant le pancréas: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion pancréatique basale, dont le pH est #7,2, a un débit de l'ordre de 0,2 à 0,3 ml/min et contient surtout du NaCI.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'activité enzymatique de l’a-amylase pancréatique est identique à celle de l'x-amylase salivaire.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> l'estomac est le siège des complexes moteurs migrants interdigestifs qui surviennent lors des repas. </t>
   </si>
   <si>
@@ -629,9 +533,6 @@
     <t xml:space="preserve"> le système parasympathique, via le nerf vague, stimule la sécrétion acide et des pepsinogènes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> les glandes sous-maxillaires sont mixtes, à prédominance muqueuse, innervées par le n. VII, et assurent 20% de la sécrétion salivaire basale.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la sécrétion salivaire suit un rythme circadien et est fortement réduite durant la nuit (5 ml/min pendant le sommeil}.  </t>
   </si>
   <si>
@@ -650,9 +551,6 @@
     <t xml:space="preserve"> le réflexe vago-vagal est un exemple de réflexe court du tube digestif. </t>
   </si>
   <si>
-    <t xml:space="preserve"> l’innervation orthosympathique cfférente du tube digestif est principalement postganglionnaire. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> le REB déclenche généralement un potentiel d'action au niveau des fibres musculaires lisses du tube  digestif. </t>
   </si>
   <si>
@@ -662,18 +560,12 @@
     <t xml:space="preserve"> la ghréline stimule la prise alimentaire.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> le plexus de Meissner véhicule les informations vers et en provenance de la muqueuse intestinale.  D = [|  [J C] C]  </t>
-  </si>
-  <si>
     <t xml:space="preserve">35. Concernant l'œsophage: </t>
   </si>
   <si>
     <t xml:space="preserve"> Le reflux gastro-oesophagien est toujours pathologique.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La musculature de l'æœsophage comporte une couche circulaire interne et une couche longitudinale externe  qui sont formées par des muscles striés au niveau du tiers supérieur de l'oesophage.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le tonus de base du sphincter œsophagien inférieur est augmenté par les agents anti-cholinergiques.    </t>
   </si>
   <si>
@@ -683,30 +575,12 @@
     <t xml:space="preserve"> La vidange gastrique des liquides est rapide et se déroule en deux phases.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La cellule pariétale gastrique sécrète notamment le facteur intrinsèque qui intervient dans l'absorption de la  vitamine B12 au niveau de l'iléon.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La sécrétion gastrique est constituée de sécrétions hydro-électrolytiques et également organiques.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> les réactions hépatique de détoxification de phase I et IT augmentent la solubilité des endo et exobiotiques toxiques et favorisent leur excrétion biliaire ou urinaire </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la bile est une voie d’excrétion importante du cholestérol.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> les cellules stellées sont quiescentes au repos et deviennent activées lors d’une agression hépatique.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> le DCYTB (duodenal cytochrome </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de la membrane apicale de l’entérocyte duodénal possède une activité ferrique réductase qui réduit le Fe” intestinal en Fe”. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> les bactéries coliques possèdent une activité B-galactosidase qui permet l'hydrolyse du lactose.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la digestion luminale des protéines débute dans le duodénum. </t>
   </si>
   <si>
@@ -725,24 +599,9 @@
     <t xml:space="preserve"> la segmentation est une succession de contractions annulaires suivies de relaxations, se produisant toutes  les quelques secondes, au niveau d'un long segment du grêle. </t>
   </si>
   <si>
-    <t xml:space="preserve"> chez l'individu normal, l'intestin grêle et le colon absorbent chaque jour &gt; 95% du Na” ingéré.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l'absorption électroneutre de Na par les échangeurs apicaux Na /H° et CT'HCO% est prépondérante en période interprandiale.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> la toxine d'E. Coli thermostable stimule la sécrétion intestinale de CT via l'augmentation d'AMPc  intracellulaire. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> le cycle entéro-hépatique des acides biliaires permet de réabsorber +99% des acides biliaires.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> une tumeur de la tête du pancréas qui comprime la voie biliaire principale peut entraîner des selles décolorées (comme du masti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la somatostatine est l’antagoniste majeur de la sécrétion acide gastrique et agit uniquement au niveau de la cellule pariétale, via la voie de l’'AMPc. </t>
   </si>
   <si>
@@ -794,12 +653,6 @@
     <t xml:space="preserve"> Les acides gras libres à chaînes courtes et moyennes ne sont pas réestérifiés au sein de l’entérocyte et sont directement transportés dans le sang.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les phytostérols et le cholestérol sont absorbés au niveau du grêle via le récepteur NPCILI,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Au niveau des cellules villositaires, le transport apical des différents acides aminés est assuré par de nombreux symports spécifiques pouvant être Na° ou H° dépendants.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> la phase céphalique de la sécrétion pancréatique peut atteindre jusqu'à 50% de la sécrétion pancréatique. </t>
   </si>
   <si>
@@ -836,48 +689,24 @@
     <t xml:space="preserve"> Les cellules pariétales sont parfois présentes au niveau antral.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion gastrique de NaHCO2 est assurée par les cellules muqueuses de surface; elle est relativement faible et de volume constant.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> En dehors des repas, l'effet inhibiteur et prédominant de la somatostatine explique le faible débit de sécrétion acide gastrique.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q13. Concernant les diarrhées sécrétoires: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse qui ne détruit pas la muqueuse, le SGLT1 (2Na /Iglucose) présent au niveau des villosités et des cryptes reste fonctionnel.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse, une entérotoxine bactérienne qui agit par la voie de l'adénylate  cyclase stimule également l'échangeur apical Na°/H° (NHE3) au niveau villositaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dans une solution orale de réhydratation, la présence d'amidon résistant à la digestion grêle permettrait la formation colique de SCFA, ce qui favoriserait l'absorption colique de Na” et d’eau.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q11. Concernant les glandes salivaires:  </t>
   </si>
   <si>
     <t xml:space="preserve"> Les dérivés anti-cholinergiques peuvent entraîner une hyposialorrhée qui se manifeste par de la xérostomie.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le système orthosympathique stimule principalement la sécrétion protéique acinaire via un récepteur «&amp;  adrénergique et la voie de l’AMP cyclique.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les glandes sous-maxillaires sont mixtes, à forte prédominance séreuse, et sont innervées par le nerf IX.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q10. Concernant les vitamines et les micronutriments:  </t>
   </si>
   <si>
     <t xml:space="preserve"> La liaison entre la vitamine B12 et le facteur intrinsèque se produit au niveau du duodénum et du jéjunum.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le DCYTB (duodenal cytochrome </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> de la membrane basolatérale de l’entérocyte duodénal possède une  activité ferrique réductase qui réduit le Fe*” intestinal en Fe”     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q3. Concernant la salive: </t>
   </si>
   <si>
@@ -905,9 +734,6 @@
     <t xml:space="preserve">Q29. Concernant l'estomac: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Au niveau de la cellule pariétale, la gastrine et l'acétylcholine sont des agonistes de la voie de l’'AMPc tandis que l'histamine est un agoniste de la voie de la phospholipase C.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Au niveau du corps gastrique et de l'antre, le potentiel membranaire de repos des cellules musculaires est  inférieur au seuil de contraction, expliquant ainsi l'absence de contractions toniques à ces niveaux.     </t>
   </si>
   <si>
@@ -920,9 +746,6 @@
     <t xml:space="preserve"> La sécrétion salivaire non stimulée est d'environ 0,3-0,5 ml/min    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La composition salivaire dépend du débit salivaire, la salive étant isotonique lorsque le débit salivaire est  faible,   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le pH de la salive est plus élevé lorsque la sécrétion salivaire est stimulée.    </t>
   </si>
   <si>
@@ -941,33 +764,21 @@
     <t xml:space="preserve">Q24. Concernant l'œsophage:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors de la déglutition, la phase œsophagienne est la plus courte.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le sphincter oesophagien inférieur possède une pression de repos faible et inférieure à 10 mmHg.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le reflux gastro-œsophagien n'est jamais physiologique.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q17. Concernant les macronutriments: </t>
   </si>
   <si>
     <t xml:space="preserve"> La digestion luminale des protéines débute dans le duodénum.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption grêle de cholestérol, en se fixant sur le récepteur NPCILI.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'émulsion des lipides est un pocessus exclusivement mécanique, assuré par la mastication et par la pompe antrale.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q10. Concernant l'estomac: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le temps de vidange gastrique dépend de la quantité, de la composition et de la consistance du bol alimentaire.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Au niveau du fundus, le potentiel de repos des cellules musculaires a une valeur supérieure à celle du seuil de contraction, ce qui explique les contractions toniques de cette zone.    </t>
   </si>
   <si>
@@ -977,33 +788,18 @@
     <t xml:space="preserve">Q7. Concernant les vitamines et les micronutriments: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le fer est transporté vers les tissus périphériques, sous forme de Fe” lié à la transferrine.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La dissociation du complexe facteur intrinsèque (FT)-vitamine B12 est favorisée au niveau du duodénum par l'élévation du pH et par l’action protéolytique des enzymes pancréatiques qui dégradent le FI    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'acide folique est transporté sous forme de PteGlul par le symport PteGlul/Na° apical des cellules villositaires du jéjunum.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q5. Concernant les glucides: </t>
   </si>
   <si>
     <t xml:space="preserve"> Les fibres représentent les glucides d'origine végétale qui sont non digestibles.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La charge glycémique (CG) d'un aliment est calculée par la formule suivante:  CG = [1G (%) x quantité d’aliment ingérée (g)] / [proportion de glucides présente dans l'aliment (%)]   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les glucides sont parfois absorbés au niveau du grêle sous forme de dimères.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q4. Concernant le foie et les voies biliaires: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les cellules stellées hépatiques sont activées au repos et deviennent quiescentes lors d’une agression hépatique.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La bile canaliculaire est une sécrétion alcaline produite par les hépatocytes et qui représente 75% de la  sécrétion biliaire.   </t>
   </si>
   <si>
@@ -1028,15 +824,9 @@
     <t xml:space="preserve"> Les glandes salivaires accessoires sécrètent de manière discontinue.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les glandes parotides sont purement séreuses et sont innervées par le nerf IX.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q32. Concernant la sécrétion gastrique: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la sécrétion acide pariétale est stimulée, la concentration de K° du liquide gastrique diminue fortement tandis que celle de H° augmente fortement.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les cellules à somatostatine sont situées au niveau des glandes gastriques et antrales.    </t>
   </si>
   <si>
@@ -1046,12 +836,6 @@
     <t xml:space="preserve">Q30. Concernant les diarrhées sécrétoires: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les toxines du cholera CTX et d’E, Coli thermolabile stimulent la sécrétion intestinale de CT, notamment via l'augmentation d'AMPc intracellulaire au niveau des cellules des cryptes.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le grêle absorbe plus d'eau que le colon mais avec un rendement inférieur.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'un traitement antibiotique, une diarrhée osmotique peut se développer suite à la modification du  microbiote colique qui entraîne une augmentation de production colique de SCFA.     </t>
   </si>
   <si>
@@ -1076,9 +860,6 @@
     <t xml:space="preserve"> La sécrétion pancréatique basale est isotonique et sa composition est similaire à celle du plasma.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétine, qui est le principal régulateur hormonal de la sécrétion canalaire, induit une sécrétion hydro- électrolytique alcaline abondante via la voie de la PLC et du Ca°*    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q17. Concernant l'estomac:  </t>
   </si>
   <si>
@@ -1094,30 +875,15 @@
     <t xml:space="preserve">Q15. Concernant la sécrétion salivaire: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion salivaire suit un rythme circadien et est fortement réduite durant la nuit (5 ml/min pendant le sommeil).   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsqu'un patient dépressif signale de la xérostormie, 1l est possible que son traitement comporte des  médications qui ont un effet anti-cholinergique.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La composition de la salive définitive est indépendante du débit salivaire.    </t>
   </si>
   <si>
     <t xml:space="preserve"> Au niveau de l'estomac, les cellules à gastrine sont uniquement situées au niveau des glandes antrales.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion d'HCI par la cellule pariétale est stimulée de manière synergique par la voie neuronale (acétylcholine via la PLC et le Ca”), endocrine (gastrine via la PLC et le Ca*°) et paracrine (histamine via  l'AMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q13. Concernant la motricité du tube digestif: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont des contractions rythmiques de l'æœsophage, de l'estomac et de l'intestin grêle se produisant en période de jeûne et qui se propagent vers l'iléon.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'une contraction péristaltique, le segment d'amont est le siège d'une contraction du muscle circulaire  interne et d'une contraction du muscle longitudinal externe.    </t>
   </si>
   <si>
@@ -1130,12 +896,6 @@
     <t xml:space="preserve"> Les glandes sous-maxillaires sont mixtes, à prédominance muqueuse, et innervées par le nerf VII.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion acinaire salivaire est une sécrétion mixte, hydro-électrolytique (favorisée par la voie de la PLC et du Ca°*) et protéique (favorisée par la voie de l'AMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q28. Concernant l'œsophage: </t>
   </si>
   <si>
@@ -1145,21 +905,9 @@
     <t xml:space="preserve"> Lors du reflux gastro-æœsophagien pathologique, il y a une excellente corrélation entre les symptômes présentés  par les patients et les lésions endoscopiques.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La phase æœsophagienne de la déglutition est involontaire et dure entre 6 et 10 secondes.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q27. Concernant les sécrétions hydro-électrolytiques du tube digestif: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse, la sécrétion de CT et de HCO est stimulée au niveau des cryptes et des villosités de l'intestin grêle.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Les acides gras à chaînes courtes sont produits au niveau du colon à partir des carbohydrates non digérés et  favorisent la sécrétion de NaC et d'eau au niveau du colon.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Une solution orale de réhydratation ne doit pas toujours contenir du Na’ et du glucose pour assurer l'absorption de Na et de glucose via le SGLTI qui reste fonctionnel.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q23. Concernant les vitamines et les micronutriments:  </t>
   </si>
   <si>
@@ -1169,9 +917,6 @@
     <t xml:space="preserve"> La vitamine B12 liée au facteur intrinsèque est absorbée au niveau de l'iléon par endocytose médiée par le  récepteur CUBAM.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le fer inorganique est absorbé au niveau du duodénum sous forme de Fe” et par le symport DMTI apical (1H'/1Fe*).    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q20. Concernant les macronutriments: </t>
   </si>
   <si>
@@ -1181,18 +926,12 @@
     <t xml:space="preserve"> Les besoins protéiques d'un adulte normal sont de +55g/j, apportés par les protéines alimentaires, d'origine  animale et végétale,   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Certaines bactéries coliques possèdent une activité f-galactosidase qui permet l'hydrolyse du lactose.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q12. Concernant le transport hydro-électrolytique du tube digestif: </t>
   </si>
   <si>
     <t xml:space="preserve"> L'intestin grêle d'un individu adulte et en bonne santé reçoit quotidiennement près de 9 litres d'eau.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une solution orale de réhydratation doit contenir du Na’ et du glucose pour assurer l'absorption de Na° et de glucose via le SGLT2 (1Na'/l glucose) apical des cellules villositaires qui reste fonctionnel.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'un traitement antibiotique, le développement d'une diarrhée osmotique peut être lié à une diminution de production de SCFA par le microbiote colique.    </t>
   </si>
   <si>
@@ -1211,27 +950,15 @@
     <t xml:space="preserve">Q6. Concernant la sécrétion salivaire: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La salive définitive est un liquide isotonique, riche en K° et en HCO2, dont le pH se situe entre 7 (en absence de stimulation) et 8 (lors d'une stimulation).    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La salive primaire qui est produite par les cellules acinaires séreuses est un liquide hypotonique.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> La composante protéique de la salive provient d'une sécrétion canalaire.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q4. Concernant les vitamines et les micronutriments: </t>
   </si>
   <si>
     <t xml:space="preserve"> La dissociation du complexe protéine R-vitamine B12 a lieu au niveau de la cavité gastrique, étant favorisée par le milieu acide,    </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'acide folique est transporté sous fome de PteGlu1 dans la cellule villositaire par le symport apical PteGlu1/H°   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le calcitriol contrôle l'absorption transcellulaire du Ca°° au niveau du duodénum.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La musculature du tube digestif est uniquement composée de muscle lisse.   </t>
   </si>
   <si>
@@ -1244,15 +971,9 @@
     <t xml:space="preserve">Q31. Concernant les macronutriments:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les phytostérols entrent en compétition avec le cholestérol pour la liaison avec le récepteur NPCILI,    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> En présence de fibres végétales, l'index glycémique d'un aliment est augmenté.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'échangeur NHE3 (Na /H'} participe à l'absorption intestinale des oligopeptides qui s'effectue selon un mécanisme de transport actif secondaire.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q30. Concernant l'œsophage: </t>
   </si>
   <si>
@@ -1307,18 +1028,12 @@
     <t xml:space="preserve"> L'innervation des glandes salivaires principales est assurée par le système para et orthosympathique dont les effets sont opposés, le parasympathique stimulant la sécrétion salivaire.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les glandes sublinguales sont essentiellement muqueuses; elles sont innervées par le nerf VIT et assurent 5% de  la sécrétion salivaire basale,   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le réflexe conditionné est une stimulation de la sécrétion salivaire induite par une stimulation intra-buccale.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q17. Concernant la sécrétion gastrique: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La phase céphalique de la sécrétion gastrique acide représente 30-40%% de la sécrétion acide.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La gastrine exerce un effet stimulateur sur la sécrétion acide par action principalement directe au niveau de la cellule pariétale.    </t>
   </si>
   <si>
@@ -1367,12 +1082,6 @@
     <t xml:space="preserve"> La carence en acide folique se rencontre régulièrement chez l'alcoolique chronique et s'explique notamment par l'inhibition, par l'alcool, de l'exopeptidase de la bordure en brosse qui clive séquentiellement les résidus glutamate du PteGlu7.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les cellules pariétales gastriques sécrètent le facteur intrinsèque qui se lie à la vitamine 812 dans la cavité gastrique.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'hepcidine empêche la sortie tissulaire de Fe** vers le plasma en se liant à la ferroportine,    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q20. Concernant les minéraux et vitamines, caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
   </si>
   <si>
@@ -1382,9 +1091,6 @@
     <t xml:space="preserve"> L'élévation de l'homocystéine plasmatique peut se rencontrer lors d'une carence en vitamine B12 mais également lors d'une carence en vitamine B9,   </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'absorption digestive de Ca‘ est active tout au long du grêle.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q7. Concernant les macronutriments, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
@@ -1415,9 +1121,6 @@
     <t xml:space="preserve"> Lors d'une maladie auto-immunitaire qui détruit les cellules pariétales, une hypergastrinémie est fréquente.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sécrétion pancréatique exocrine et la sécrétion salivaire sont des sécrétions isotoniques quel que soit le débit sécrétoire.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Les médications ayant des effets cholinergiques peuvent entrainer une hyposialorrhée.    </t>
   </si>
   <si>
@@ -1436,9 +1139,6 @@
     <t xml:space="preserve">Q17. Concernant les diarrhées, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire, les pertes de Na° sont généralement iso-osmotiques.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La sous unité A centrale de la toxine thermolabile de E. Coli entérotoxigène stimule de manière irréversible l'adénylate cyclase au niveau des cellules des cryptes du grêle, ce qui entraîne une sécrétion majeure de Cf via le CFTR.   </t>
   </si>
   <si>
@@ -1448,9 +1148,6 @@
     <t xml:space="preserve">Q11. Concernant la motricité digestive, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'accommodation gastrique est un réflexe mixte, vago-vagal et intrinsèque.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La relaxation réceptive de la partie proximale de l'estomac se produit lors de l'arrivée du bol alimentaire.    </t>
   </si>
   <si>
@@ -1460,13 +1157,760 @@
     <t xml:space="preserve">Q9. Concernant les macronutriments, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si un aliment de 100g contient 10% de glucides dont l'index glycémique (IG) est de 70%, sa charge glycémique est de 7g. Il s'agit d'une valeur faible alors que l'IG est pourtant élevé.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption intestinale de cholestérol libre en se liant au récepteur NPC1L1 qui est situé dans la membrane apicale de la cellule villositaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La digestion des protéines peut encore avoir lieu dans le cytoplasme des entérocytes où des peptidases assurent l'hydrolyse de di et tripeptides, ceux-ci ayant été transportés dans la cellule par un cotransporteur 1H‘/1oligopeptide.    </t>
+    <t xml:space="preserve"> Contrairement à la sécrétion salivaire, la tonicité du liquide pancréatique est indépendante du débit sécrétoire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion hydro-électrolytique (HE) canalaire représente +ou- 75% de la sécrétion HE pancréatique.  </t>
+  </si>
+  <si>
+    <t>Ce n'est pas purement hydro-electrolytique mais aussi organique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorsque le débit de la sécrétion acide est stimulé, la concentration de H+ augmente tandis que la concentration de Na+ diminue.  </t>
+  </si>
+  <si>
+    <t>c'est après les manifestations autonomes</t>
+  </si>
+  <si>
+    <t>Le vidange gastrique dépend à la fois de la composition des aliments ET de la consistance</t>
+  </si>
+  <si>
+    <t>peut être responsable d'hyposialorhee</t>
+  </si>
+  <si>
+    <t>c'est la plus longue</t>
+  </si>
+  <si>
+    <t>c'est un muscle strié comme le spincter anal externe (on décide de quand ça rentre et quand ça sort)</t>
+  </si>
+  <si>
+    <t>il y en a pas</t>
+  </si>
+  <si>
+    <t>elle varie selon les différents segments du tube digestif</t>
+  </si>
+  <si>
+    <t>c'est l'inverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe péristaltique qui assure la propulsion des aliments au niveau de l'intestin grêle est un réflexe de type long. </t>
+  </si>
+  <si>
+    <t>c'est un reflexe court</t>
+  </si>
+  <si>
+    <t>en l'absence de stimulation buccale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un ictère s'accompagne de selles décolorées lorsque les urobilinogènes fécaux diminuent</t>
+  </si>
+  <si>
+    <t>c'est l'inverse, elle s'active en cas d'aggression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer quitte l’entérocyte duodénal, sous forme de Fe2+, en étant transporté par la ferroportine basolatérale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitamine D (1,25-OH)2 D3) contrôle l'absorption paracellulaire de Ca2+ sur toute la longueur du grêle. </t>
+  </si>
+  <si>
+    <t>c'est une absorption passive non controlée par le calcitriol</t>
+  </si>
+  <si>
+    <t>c'est 98-99%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption grêle de cholestérol, en se fixant sur le récepteur NPC1L1.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion intestinale de Cl est élevée à l’état basal. </t>
+  </si>
+  <si>
+    <t>c'est faible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les toxines infectieuses du cholera et d'E. Coli inhibent le symport SGLT1.  </t>
+  </si>
+  <si>
+    <t>ça inhibe pas</t>
+  </si>
+  <si>
+    <t>ça apparait tardivement quand la production de lipase devient inférieur à 10% de sa production normale</t>
+  </si>
+  <si>
+    <t>pas constamment</t>
+  </si>
+  <si>
+    <t>l'intestin grele absorbe bien plus d'eau que le colon, mais le rendement est inférieur</t>
+  </si>
+  <si>
+    <t>c'est secreté par les cellules pariétales</t>
+  </si>
+  <si>
+    <t>dépend du débit secrétoire</t>
+  </si>
+  <si>
+    <t>stimule de façon indirecte</t>
+  </si>
+  <si>
+    <t>survient hors de la déglutition</t>
+  </si>
+  <si>
+    <t>innervé par le nerf vii</t>
+  </si>
+  <si>
+    <t>c'est pas un symptome c'est un signe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acétylcholine stimule la sécrétion acinaire salivaire via un récepteur M3 basolatéral et via la voie du Ca2+  intracellulaire qui entraîne une sécrétion hydro-électrolytique prédominante. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau du tube digestif, le système parasympathique est globalement stimulateur même si il induit la relaxation des sphincters.  </t>
+  </si>
+  <si>
+    <t>pas uniquement autonome puisque il y a des muscles striés à l'entrée et à la sortie du tube digestif qui sont controlés volontairement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La stimulation salivaire acinaire par un agent beta1 adrénergique entraîne une sécrétion protéique prédominante via la voie de l'AMPc. </t>
+  </si>
+  <si>
+    <t>10e pour casser les jambes du prof #EtSi</t>
+  </si>
+  <si>
+    <t>elle est fortement hypotonique (faire attention à pas confondre avec le liquide pancréatique qui lui est isotonique)</t>
+  </si>
+  <si>
+    <t>c'est 0,3-0,5mL</t>
+  </si>
+  <si>
+    <t>aussi au niveau membranaire</t>
+  </si>
+  <si>
+    <t>c'est dans le système nerveux autonome intrinseque aka le système nerveux entériques (SNE)</t>
+  </si>
+  <si>
+    <t>on contrôle l'entree et la sortie</t>
+  </si>
+  <si>
+    <t>les disaccharides sont transformés en monomere pour ensuite etre absorbé</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La toxine du choléra CTX inhibe également l'absorption électroneutre de NaCl en inhibant l'échangeur  Na+/H+ (NHE3). </t>
+  </si>
+  <si>
+    <t>représente 25% de la secretion biliaire</t>
+  </si>
+  <si>
+    <t>apparait tardivement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique représente + 1,5L/j d’un liquide alcalin, riche en NaHCO3, et également riche en protéines qui sont majoritairement des enzymes.  </t>
+  </si>
+  <si>
+    <t>secretine = canalaire et CCK = acinaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une intolérance au lactose, la production de H2, de CO2 ou de CH4 au niveau grêle explique le ballonnement abdominal dont se plaignent régulièrement les patients intolérants. </t>
+  </si>
+  <si>
+    <t>c'est au niveau du colon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique stimulée est isotonique et alcaline, étant considérablement enrichie en HCO3- (+110 mEg/L).  </t>
+  </si>
+  <si>
+    <t>pH = 8 donc alcanine et le suc pancreatique est toujours isotonique</t>
+  </si>
+  <si>
+    <t>pas de tous les glucides</t>
+  </si>
+  <si>
+    <t>il va y avoir une accumulation de cystéine</t>
+  </si>
+  <si>
+    <t>protéines plus rapide que lipide</t>
+  </si>
+  <si>
+    <t>vu que ça fait une pompe, c'est des contractions phasique et pas tonique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion hydro-électrolytique gastrique est constituée de HCl et de NaHCO3</t>
+  </si>
+  <si>
+    <t>pas toujours</t>
+  </si>
+  <si>
+    <t>glucide (hyperactif) &gt; proteine (musclé °o°) &gt; lipide (gros porc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avant d'être absorbé, l'acide folique alimentaire, ingéré sous forme de PteGlu 7, est hydrolysé en PteGlu1 par une exopeptidase de la bordure en brosse des cellules villositaires du jéjunum.    </t>
+  </si>
+  <si>
+    <t>il absorbe aussi le fer hémique au niveau du duodénum</t>
+  </si>
+  <si>
+    <t>le facteur intrinseque est secreté par les cellules parietales et a lieu au niveau de l'iléon</t>
+  </si>
+  <si>
+    <t>uniquement la voie transcellulaire au niveau du duodénum, paracellulaire sur toute la longueur du grele</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est absorbé au niveau de l'iléon sous forme de Fe2+, via le symport DMTI apical,  </t>
+  </si>
+  <si>
+    <t>c'est au niveau du duodénum et non de l'iléon</t>
+  </si>
+  <si>
+    <t>par l'action du système parasympathique</t>
+  </si>
+  <si>
+    <t>assure aussi le broyage des aliments</t>
+  </si>
+  <si>
+    <t>dépendante du REB</t>
+  </si>
+  <si>
+    <t>réduction de 50%</t>
+  </si>
+  <si>
+    <t>principalement neurocrine et assurée par l'acetylcholine</t>
+  </si>
+  <si>
+    <t>il n'y a pas de propriétés lypolytique intrinsèque</t>
+  </si>
+  <si>
+    <t>c'est isotonique et ça ne dépend pas du débit secrétoire</t>
+  </si>
+  <si>
+    <t>entraine un ictere non conjugué</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive est un liquide hypotonique qui est riche en K+ et en HCO3- et dont le pH se situe entre 7 et 8 selon le niveau de stimulation.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La toxine du choléra CTX stimule la sécrétion de Cl- au niveau des cellules du grêle et du colon par activation réversible de l’adénylate cyclase.   </t>
+  </si>
+  <si>
+    <t>stimule de manière irréversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le symport SGLT1 (2Na+/1glucose) est la voie prépondérante d'absorption de Na+ lors d'un repas.    </t>
+  </si>
+  <si>
+    <t>En période postprandiale (apres les repas) et pas lors des repas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de l'intolérance au lactose, les symptômes (ballonnement abdominal, borborygmes et flatulences) sont liés à la production grêle de H2 et de CO2.   </t>
+  </si>
+  <si>
+    <t>au niveau du colon et non du grele</t>
+  </si>
+  <si>
+    <t>EN GROS là dans la dia ils disent que c'est à la fois les dissaccharides et les produits de l'hydrolyse de l'amidon qui se font tabasser par la team des 4 power rangers mais faut comprendre que parmi ces 4 powers rangers y a le lactase et lui c'est un hagar psk il est là juste pour taper du lactose or y a absolument pas de lactose dans l'amidon (y a que du glucose et pas de galactose)</t>
+  </si>
+  <si>
+    <t>pas que au niveau de l'estomac (y a la mastication de la bouche)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est transporté sous forme de PteGlu1 par le symport PteGlu1/H+ apical des cellules villositaires du Jéjunum.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est absorbé au niveau du duodénum sous forme de Fe3+ par le symport DMT1 de la membrane apicale  des entérocytes.   </t>
+  </si>
+  <si>
+    <t>DMT1 a pour substrat le Fe2+ et non le Fe3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes parotides sont purement séreuses et sont innervées par le nerf VII </t>
+  </si>
+  <si>
+    <t>30 à 40%</t>
+  </si>
+  <si>
+    <t>nerf X = nerf vague</t>
+  </si>
+  <si>
+    <t>avant l'arrivée de l'onde peristaltisme (SOI = sphincter oesophagien inférieur)</t>
+  </si>
+  <si>
+    <t>innervé par le IX</t>
+  </si>
+  <si>
+    <t>La salive primaire qui est produites par les cellules acinaires sereuses est un liquide isotonique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les hépatocytes constituent +ou- 50% du parenchyme hépatique.   </t>
+  </si>
+  <si>
+    <t>plutôt 80%</t>
+  </si>
+  <si>
+    <t>stimulée par la secretine</t>
+  </si>
+  <si>
+    <t>les deux sont des contractions phasiques</t>
+  </si>
+  <si>
+    <t>l'acetylcholine dépolarise</t>
+  </si>
+  <si>
+    <t>n'agit pas uniquement sur les cellules pariétales</t>
+  </si>
+  <si>
+    <t>quand le bol alimentaire arrive dans la cavité gastrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion pancréatique basale, dont le pH est +ou- 7,2, a un débit de l'ordre de 0,2 à 0,3 ml/min et contient surtout du NaCI.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité enzymatique de l’alpha-amylase pancréatique est identique à celle de l'alpha-amylase salivaire.    </t>
+  </si>
+  <si>
+    <t>La lipase pancréatique est une triglycéride-lipase qui agit au niveau de l'interface eau-lipide grâce aux propriétés lipolytiques de la colipase</t>
+  </si>
+  <si>
+    <t>La colipase n'a pas de propriété lipolytique</t>
+  </si>
+  <si>
+    <t>deux heures apres les repas</t>
+  </si>
+  <si>
+    <t>c'est 0,05ml/min</t>
+  </si>
+  <si>
+    <t>est inhibé</t>
+  </si>
+  <si>
+    <t>reflexe longs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’innervation orthosympathique éfférente du tube digestif est principalement postganglionnaire. </t>
+  </si>
+  <si>
+    <t>mmmh le ptit i pour faire genre c pas un info importante</t>
+  </si>
+  <si>
+    <t>ne déclenche pas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le plexus de Meissner véhicule les informations vers et en provenance de la muqueuse intestinale.</t>
+  </si>
+  <si>
+    <t>il peut être physiologique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La musculature de l'œsophage comporte une couche circulaire interne et une couche longitudinale externe  qui sont formées par des muscles striés au niveau du tiers supérieur de l'oesophage.   </t>
+  </si>
+  <si>
+    <t>est diminué</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les réactions hépatique de détoxification de phase I et II augmentent la solubilité des endo et exobiotiques toxiques et favorisent leur excrétion biliaire ou urinaire </t>
+  </si>
+  <si>
+    <t>Les TG représentent 50% des apports quotidiens de lipides dans les pays occidentaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les bactéries coliques possèdent une activité Beta-galactosidase qui permet l'hydrolyse du lactose.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le DCYTB (duodenal cytochrome b)  de la membrane apicale de l’entérocyte duodénal possède une activité ferrique réductase qui réduit le Fe3+ intestinal en Fe2+. </t>
+  </si>
+  <si>
+    <t>plus de 90%</t>
+  </si>
+  <si>
+    <t>débute dans la cavité buccale</t>
+  </si>
+  <si>
+    <t>pas nécéssairement</t>
+  </si>
+  <si>
+    <t>au niveau d'une petite partie de l'intestin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chez l'individu normal, l'intestin grêle et le colon absorbent chaque jour &gt; 95% du Na+ ingéré.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'absorption électroneutre de Na+ par les échangeurs apicaux Na+/H+ et Cl-/HCO3- est prépondérante en période interprandiale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la toxine d'E. Coli thermostable stimule la sécrétion intestinale de Cl- via l'augmentation d'AMPc  intracellulaire. </t>
+  </si>
+  <si>
+    <t>du GMPc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> une tumeur de la tête du pancréas qui comprime la voie biliaire principale peut entraîner des selles décolorées (comme du mastic)</t>
+  </si>
+  <si>
+    <t>L'hémochromatose héréditaire regroupe les maladies génétiques, responsables d'une surcharge tissulaire en fer, liées à l'augmentation de production ou d'actité de l'hepcidine</t>
+  </si>
+  <si>
+    <t>liée à une diminution</t>
+  </si>
+  <si>
+    <t>pas uniquement sur la cellule pariétale</t>
+  </si>
+  <si>
+    <t>ça se produit tjr de la même façon</t>
+  </si>
+  <si>
+    <t>uniquement par les cellules pariétales</t>
+  </si>
+  <si>
+    <t>faut inverser les deux noms</t>
+  </si>
+  <si>
+    <t>les selles sont colorées</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les phytostérols et le cholestérol sont absorbés au niveau du grêle via le récepteur NPC1L1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau des cellules villositaires, le transport apical des différents acides aminés est assuré par de nombreux symports spécifiques pouvant être Na+ ou H+ dépendants.    </t>
+  </si>
+  <si>
+    <t>si il peut l'être</t>
+  </si>
+  <si>
+    <t>c'est produit par les hépatocytes, c'est la bile ductulaire qui provient de la modification de la bile canaliculaire par les cholangiocytes</t>
+  </si>
+  <si>
+    <t>c'est la CCK et non la secretine</t>
+  </si>
+  <si>
+    <t>c'est du tier moyen</t>
+  </si>
+  <si>
+    <t>elles sont jamais présentes au niveau antral</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion gastrique de NaHCO3 est assurée par les cellules muqueuses de surface, elle est relativement faible et de volume constant.    </t>
+  </si>
+  <si>
+    <t>que le SGLT1 villositaire qui reste fonctionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse qui ne détruit pas la muqueuse, le SGLT1 (2Na+/1glucose) présent au niveau des villosités et des cryptes reste fonctionnel.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse, une entérotoxine bactérienne qui agit par la voie de l'adénylate  cyclase stimule également l'échangeur apical Na+/H+ (NHE3) au niveau villositaire.   </t>
+  </si>
+  <si>
+    <t>il inhibe l'échangeur NHE3</t>
+  </si>
+  <si>
+    <t>il est 2h du mat j'ai juste envie de peter son crane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans une solution orale de réhydratation, la présence d'amidon résistant à la digestion grêle permettrait la formation colique de SCFA, ce qui favoriserait l'absorption colique de Na+ et d’eau.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique stimule principalement la sécrétion protéique acinaire via un récepteur alpha-adrénergique et la voie de l’AMP cyclique.   </t>
+  </si>
+  <si>
+    <t>c'est beta-adrénergique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le DCYTB (duodenal cytochrome b)  de la membrane basolatérale de l’entérocyte duodénal possède une activité ferrique réductase qui réduit le Fe3+ intestinal en Fe2+. </t>
+  </si>
+  <si>
+    <t>La 25-OH vitamine D contrôle l'absorption transcellulaire de Ca2+ sur toute la longueur du grêle</t>
+  </si>
+  <si>
+    <t>de la membrane apicale</t>
+  </si>
+  <si>
+    <t>que au niveau du duodénum</t>
+  </si>
+  <si>
+    <t>depend du débit salivaire</t>
+  </si>
+  <si>
+    <t>que neurocrine</t>
+  </si>
+  <si>
+    <t>aussi régulée par la phospholipase C</t>
+  </si>
+  <si>
+    <t>diminue le  nb de PA et diminue donc l'intensité des contractions</t>
+  </si>
+  <si>
+    <t>faut inverser les noms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la cellule pariétale, la gastrine et l'acétylcholine sont des agonistes de la voie de l'AMPc tandis que l'histamine est un agoniste de la voie de la phospholipase C.   </t>
+  </si>
+  <si>
+    <t>c'est logique puisque si c'est supérieur au seuil de contraction, ça se contracterait en permanence -&gt; contraction tonique, or là c'est inférieur au seuil donc ça peut monter parfois pour déclencher une contraction -&gt; contraction phasique</t>
+  </si>
+  <si>
+    <t>dépend aussi de la consistence des aliments</t>
+  </si>
+  <si>
+    <t>n'a pas de proprieté lypolytique</t>
+  </si>
+  <si>
+    <t>elevé et supérieur à 10 mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ézétimibe inhibe l'absorption grêle de cholestérol, en se fixant sur le récepteur NPC1L1    </t>
+  </si>
+  <si>
+    <t>à la fois mécanique et physico-chimique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est transporté vers les tissus périphériques, sous forme de Fe2+ lié à la transferrine.   </t>
+  </si>
+  <si>
+    <t>sous forme de Fe3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dissociation du complexe facteur intrinsèque (FI)-vitamine B12 est favorisée au niveau du duodénum par l'élévation du pH et par l’action protéolytique des enzymes pancréatiques qui dégradent le FI    </t>
+  </si>
+  <si>
+    <t>ça dissocie le complexe R-B12 et ça va dégrader la protéine R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est transporté sous forme de PteGlu1 par le symport PteGlu1/Na+ apical des cellules villositaires du jéjunum.    </t>
+  </si>
+  <si>
+    <t>c'est le symport PteGlu1/H+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La charge glycémique (CG) d'un aliment est calculée par la formule suivante:  CG = [IG (%) * quantité d’aliment ingérée (g)] / [proportion de glucides présente dans l'aliment (%)]   </t>
+  </si>
+  <si>
+    <t>on divise pas mais on multiplie</t>
+  </si>
+  <si>
+    <t>jamais, que sous la forme de monomere</t>
+  </si>
+  <si>
+    <t>c'est pas une secretion alcaline</t>
+  </si>
+  <si>
+    <t>c'est à cause de l'urobilinogene</t>
+  </si>
+  <si>
+    <t>de manière continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la sécrétion acide pariétale est stimulée, la concentration de K+ du liquide gastrique diminue fortement tandis que celle de H+ augmente fortement.    </t>
+  </si>
+  <si>
+    <t>la concentration de K+ ne diminue pas fortement vu qu'il est recyclé</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les toxines du cholera CTX et d’E, Coli thermolabile stimulent la sécrétion intestinale de Cl-, notamment via l'augmentation d'AMPc intracellulaire au niveau des cellules des cryptes.   </t>
+  </si>
+  <si>
+    <t>entraine une diminution de la production colique de SCFA</t>
+  </si>
+  <si>
+    <t>inhibe l'action de la lipase pancréatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétine, qui est le principal régulateur hormonal de la sécrétion canalaire, induit une sécrétion hydro- électrolytique alcaline abondante via la voie de la PLC et du Ca2+    </t>
+  </si>
+  <si>
+    <t>c'est via la voie de l'AMPc</t>
+  </si>
+  <si>
+    <t>ça inhibe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'un patient dépressif signale de la xérostormie, il est possible que son traitement comporte des  médications qui ont un effet anti-cholinergique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dépendante </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion d'HCI par la cellule pariétale est stimulée de manière synergique par la voie neuronale (acétylcholine via la PLC et le Ca2+), endocrine (gastrine via la PLC et le Ca2+) et paracrine (histamine via  l'AMPc)</t>
+  </si>
+  <si>
+    <t>La somatostatine est l'antagoniste majeur de la sécrétion acide gastrique agissant uniquement au niveau de la cellule pariétale et via la voie de l'AMPc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les complexes moteurs migrants interdigestifs sont des contractions rythmiques de l'œsophage, de l'estomac et de l'intestin grêle se produisant en période de jeûne et qui se propagent vers l'iléon.   </t>
+  </si>
+  <si>
+    <t>que l'estomac et l'intestin grêle, pas l'œsophage</t>
+  </si>
+  <si>
+    <t>et d'une relaxation du muscle longitunidale externe</t>
+  </si>
+  <si>
+    <t>la fréquence diminue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sécrétion acinaire salivaire est une sécrétion mixte, hydro-électrolytique (favorisée par la voie de la PLC et du Ca2+) et protéique (favorisée par la voie de l'AMPc)</t>
+  </si>
+  <si>
+    <t>Le reflexe mastico-salivaire permet d'adapter la secretion salivaire a la consistance et à la taille des particules machees, via la compression dentaire qui active les mecanorecepteurs du ligament periodontal</t>
+  </si>
+  <si>
+    <t>4 mécanismes pouvant y etre associé donc pas une excellente corrélation entre symptomes et lésions endoscopiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire infectieuse, la sécrétion de Cl- et de HCO3+ est stimulée au niveau des cryptes et des villosités de l'intestin grêle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les acides gras à chaînes courtes sont produits au niveau du colon à partir des carbohydrates non digérés et  favorisent la sécrétion de NaCl et d'eau au niveau du colon.   </t>
+  </si>
+  <si>
+    <t>favorise l'absorption et non la sécretion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une solution orale de réhydratation ne doit pas toujours contenir du Na+ et du glucose pour assurer l'absorption de Na+ et de glucose via le SGLT1 qui reste fonctionnel.    </t>
+  </si>
+  <si>
+    <t>le "et" est souligné donc je pense que c'est important</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer inorganique est absorbé au niveau du duodénum sous forme de Fe2+ et par le symport DMT1 apical (1H+/1Fe2+).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Certaines bactéries coliques possèdent une activité beta-galactosidase qui permet l'hydrolyse du lactose.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une solution orale de réhydratation doit contenir du Na+ et du glucose pour assurer l'absorption de Na+ et de glucose via le SGLT2 (1Na+/1 glucose) apical des cellules villositaires qui reste fonctionnel.    </t>
+  </si>
+  <si>
+    <t>via SGLT1 et non SGLT2</t>
+  </si>
+  <si>
+    <t>activée par la trypsine</t>
+  </si>
+  <si>
+    <t>plus marquée sur protéique que HE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La salive définitive est un liquide isotonique, riche en K+ et en HCO3-, dont le pH se situe entre 7 (en absence de stimulation) et 8 (lors d'une stimulation).    </t>
+  </si>
+  <si>
+    <t>liquide hypotonique</t>
+  </si>
+  <si>
+    <t>isotonique</t>
+  </si>
+  <si>
+    <t>au niveau du duodénum par l'élévation du pH (donc moins acide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'acide folique est transporté sous fome de PteGlu1 dans la cellule villositaire par le symport apical PteGlu1/H+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le calcitriol contrôle l'absorption transcellulaire du Ca2+ au niveau du duodénum.    </t>
+  </si>
+  <si>
+    <t>y a aussi muscle striés</t>
+  </si>
+  <si>
+    <t>ne déclenche pas de potentiel d'action</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les phytostérols entrent en compétition avec le cholestérol pour la liaison avec le récepteur NPC1L1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'échangeur NHE3 (Na+/H+) participe à l'absorption intestinale des oligopeptides qui s'effectue selon un mécanisme de transport actif secondaire.    </t>
+  </si>
+  <si>
+    <t>transport actif tertiaire</t>
+  </si>
+  <si>
+    <t>ascendante</t>
+  </si>
+  <si>
+    <t>pas uniquement</t>
+  </si>
+  <si>
+    <t>c'est une digestion membranaire et non luminale</t>
+  </si>
+  <si>
+    <t>"et"</t>
+  </si>
+  <si>
+    <t>inférieur</t>
+  </si>
+  <si>
+    <t>c'est un reflexe mixte</t>
+  </si>
+  <si>
+    <t>c'est les stérols et pas que les phylosterols</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les glandes sublinguales sont essentiellement muqueuses; elles sont innervées par le nerf VII et assurent 5% de  la sécrétion salivaire basale,   </t>
+  </si>
+  <si>
+    <t>AHHAHAHAHAHA C'EST UN MALAAAAAADE (au final ça revient giga giga giga souvent donc apprenez bien (et j'ai pas mis assez de giga là))</t>
+  </si>
+  <si>
+    <t>les effets sont similaires et non opposés</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase céphalique de la sécrétion gastrique acide représente 30-40% de la sécrétion acide.   </t>
+  </si>
+  <si>
+    <t>principalement de façon indirecte</t>
+  </si>
+  <si>
+    <t>de pepsinogene et non pepsine</t>
+  </si>
+  <si>
+    <t>uniquement par les cholangiocytes</t>
+  </si>
+  <si>
+    <t>la concentration de Na dans le liquide pancréatique reste constant</t>
+  </si>
+  <si>
+    <t>contraction du muscle longitunidale externe</t>
+  </si>
+  <si>
+    <t>uniquement via le reflexe vago-vagal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules pariétales gastriques sécrètent le facteur intrinsèque qui se lie à la vitamine B12 dans la cavité gastrique.   </t>
+  </si>
+  <si>
+    <t>pas dans la cavité gastrique mais dans le duodenum et jejunum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hepcidine empêche la sortie tissulaire de Fe2+ vers le plasma en se liant à la ferroportine,    </t>
+  </si>
+  <si>
+    <t>en outre d'une carence de B12 qui peut faire une accumulation d'homocystéine, une carence en B9, qui sous forme active sera une carence en THF (et donc de ses differentes formes dont le N5-methyl-THF) va aussi provoquer une accumulation d'homocysteine car la synthese de méthionine sera limitée par la carence en B9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'absorption digestive de Ca2+ est active tout au long du grêle.    </t>
+  </si>
+  <si>
+    <t>passive sur tout le grele, active que au niveau du duodénum</t>
+  </si>
+  <si>
+    <t>sont réabsorbé par le cotransporteur ASBT apical (cubiline/amionless c'est pour le complexe FI-B12)</t>
+  </si>
+  <si>
+    <t>il n'y a pas forcément présence d'urobilinogene au niveau urinaire</t>
+  </si>
+  <si>
+    <t>anticholinergique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une diarrhée sécrétoire, les pertes de Na+ sont généralement iso-osmotiques.   </t>
+  </si>
+  <si>
+    <t>c'est la presence d'urobilinogene</t>
+  </si>
+  <si>
+    <t>SCFA = short chain fat acid (jai mis du temps a le comprendre mdrrrr)</t>
+  </si>
+  <si>
+    <t>se produit avant l'arrivée du bol alimentaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La digestion des protéines peut encore avoir lieu dans le cytoplasme des entérocytes où des peptidases assurent l'hydrolyse de di et tripeptides, ceux-ci ayant été transportés dans la cellule par un cotransporteur 1H+/1oligopeptide.    </t>
   </si>
 </sst>
 </file>
@@ -1864,15 +2308,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F394"/>
+  <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D365" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M380" sqref="M380"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="100.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.7109375" customWidth="1"/>
   </cols>
@@ -1905,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>373</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1925,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1945,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1965,13 +2409,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1985,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>376</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2005,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2025,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -2045,13 +2489,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -2065,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2085,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -2105,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -2125,7 +2569,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2145,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -2165,13 +2609,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -2185,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2205,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2225,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2245,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -2265,13 +2709,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2285,7 +2729,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2305,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>385</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2325,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2345,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2365,13 +2809,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2385,13 +2829,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -2405,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2425,7 +2869,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2445,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2465,7 +2909,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2485,13 +2929,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>389</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -2505,7 +2949,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2525,7 +2969,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2545,13 +2989,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -2565,13 +3009,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -2585,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2605,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2625,7 +3069,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2645,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>395</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2665,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -2685,13 +3129,13 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -2705,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -2725,13 +3169,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -2745,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
@@ -2765,7 +3209,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2785,13 +3229,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -2805,13 +3249,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -2825,13 +3269,13 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -2845,13 +3289,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>404</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2865,7 +3309,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -2885,7 +3329,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2905,7 +3349,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2925,7 +3369,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -2945,7 +3389,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2965,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>405</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -2985,13 +3429,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D56" t="b">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>602</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -3005,7 +3449,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -3025,13 +3469,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>406</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -3045,13 +3489,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>407</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -3065,7 +3509,7 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
@@ -3085,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -3105,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -3125,7 +3569,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>409</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -3145,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -3165,13 +3609,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>411</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>412</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -3185,13 +3629,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>413</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -3205,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -3225,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -3245,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -3265,13 +3709,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>414</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3285,13 +3729,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>415</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -3305,13 +3749,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -3325,13 +3769,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -3345,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -3365,13 +3809,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3385,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -3405,7 +3849,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3425,7 +3869,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -3445,13 +3889,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>420</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3465,13 +3909,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>421</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -3485,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>86</v>
+        <v>422</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3505,13 +3949,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>423</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3525,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -3545,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -3565,13 +4009,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>424</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>425</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3585,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3605,13 +4049,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>427</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -3625,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -3645,7 +4089,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -3665,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -3685,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -3705,13 +4149,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>428</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -3725,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -3745,13 +4189,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>429</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -3765,10 +4209,10 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -3785,7 +4229,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -3805,7 +4249,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3825,13 +4269,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>430</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3845,13 +4289,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>431</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -3865,10 +4309,10 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>105</v>
+        <v>432</v>
       </c>
       <c r="D100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -3885,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -3905,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -3925,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -3945,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -3965,13 +4409,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>433</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -3982,13 +4426,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>6</v>
@@ -4002,10 +4446,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -4022,13 +4466,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="s">
         <v>6</v>
@@ -4042,16 +4486,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>434</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -4062,13 +4506,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C110" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -4082,10 +4526,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C111" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -4102,10 +4546,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -4122,16 +4566,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>6</v>
+        <v>436</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -4142,13 +4586,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="s">
         <v>6</v>
@@ -4162,10 +4606,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -4182,16 +4626,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
+        <v>437</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -4202,13 +4646,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
         <v>6</v>
@@ -4222,16 +4666,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>6</v>
+        <v>438</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -4245,13 +4689,13 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>439</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>440</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -4265,13 +4709,13 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>6</v>
+        <v>441</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -4282,13 +4726,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -4302,16 +4746,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>442</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -4322,16 +4766,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>6</v>
+        <v>443</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -4342,13 +4786,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
         <v>6</v>
@@ -4362,16 +4806,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>444</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4382,13 +4826,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="s">
         <v>6</v>
@@ -4402,16 +4846,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>6</v>
+        <v>445</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -4422,16 +4866,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>6</v>
+        <v>446</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -4442,16 +4886,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C129" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>447</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4462,16 +4906,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -4482,13 +4926,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
         <v>6</v>
@@ -4502,10 +4946,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -4522,10 +4966,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>449</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4542,10 +4986,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -4557,15 +5001,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -4577,21 +5021,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="D136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>451</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -4602,16 +5046,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C137" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>456</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -4622,16 +5066,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>452</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>453</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -4642,16 +5086,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>454</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>6</v>
+        <v>455</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -4662,16 +5106,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>457</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4682,13 +5126,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
         <v>6</v>
@@ -4702,10 +5146,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>458</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4722,16 +5166,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>459</v>
       </c>
       <c r="D143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>460</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4742,13 +5186,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -4762,10 +5206,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="C145" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4782,16 +5226,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -4802,16 +5246,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C147" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="D147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>463</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4822,10 +5266,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C148" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -4842,16 +5286,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>464</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -4862,10 +5306,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -4882,16 +5326,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C151" t="s">
-        <v>170</v>
+        <v>461</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>6</v>
+        <v>465</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -4902,10 +5346,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -4922,13 +5366,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>6</v>
@@ -4942,13 +5386,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>466</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>6</v>
@@ -4962,13 +5406,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="D155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>6</v>
@@ -4982,16 +5426,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>467</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>6</v>
+        <v>468</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -5002,16 +5446,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="D157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -5022,13 +5466,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C158" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
         <v>6</v>
@@ -5042,13 +5486,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C159" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
         <v>6</v>
@@ -5062,16 +5506,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -5082,16 +5526,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>471</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -5102,16 +5546,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -5122,16 +5566,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C163" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>6</v>
+        <v>473</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -5142,13 +5586,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
         <v>6</v>
@@ -5162,13 +5606,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C165" t="s">
-        <v>189</v>
+        <v>474</v>
       </c>
       <c r="D165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
         <v>6</v>
@@ -5182,10 +5626,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>475</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5202,16 +5646,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C167" t="s">
-        <v>192</v>
+        <v>476</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>6</v>
+        <v>477</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -5222,16 +5666,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>6</v>
+        <v>478</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -5242,10 +5686,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>191</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5265,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
         <v>6</v>
@@ -5285,13 +5729,13 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="D171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -5305,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5325,13 +5769,13 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>6</v>
+        <v>480</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5345,10 +5789,10 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
         <v>6</v>
@@ -5365,7 +5809,7 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5385,13 +5829,13 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>6</v>
+        <v>481</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -5405,13 +5849,13 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>201</v>
+        <v>482</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>6</v>
+        <v>483</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -5425,13 +5869,13 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>6</v>
+        <v>484</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -5445,10 +5889,10 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
         <v>6</v>
@@ -5465,7 +5909,7 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5485,10 +5929,10 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>205</v>
+        <v>485</v>
       </c>
       <c r="D181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E181" t="s">
         <v>6</v>
@@ -5502,16 +5946,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C182" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="D182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -5522,10 +5966,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C183" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -5542,16 +5986,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>174</v>
       </c>
       <c r="C184" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>6</v>
+        <v>488</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -5562,13 +6006,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C185" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E185" t="s">
         <v>6</v>
@@ -5582,10 +6026,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C186" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5602,13 +6046,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>209</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="D187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="s">
         <v>6</v>
@@ -5622,10 +6066,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -5642,10 +6086,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>215</v>
+        <v>492</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -5662,16 +6106,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>213</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>216</v>
+        <v>490</v>
       </c>
       <c r="D190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>6</v>
+        <v>493</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -5685,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>217</v>
+        <v>491</v>
       </c>
       <c r="D191" t="b">
         <v>1</v>
@@ -5705,13 +6149,13 @@
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="D192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>6</v>
+        <v>494</v>
       </c>
       <c r="F192" t="s">
         <v>6</v>
@@ -5725,13 +6169,13 @@
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="D193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
+        <v>495</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5745,7 +6189,7 @@
         <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -5765,13 +6209,13 @@
         <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>6</v>
+        <v>521</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -5785,7 +6229,7 @@
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -5805,13 +6249,13 @@
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>6</v>
+        <v>496</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -5825,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>224</v>
+        <v>497</v>
       </c>
       <c r="D198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E198" t="s">
         <v>6</v>
@@ -5845,7 +6289,7 @@
         <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>225</v>
+        <v>498</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -5865,13 +6309,13 @@
         <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>226</v>
+        <v>499</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -5885,10 +6329,10 @@
         <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="D201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E201" t="s">
         <v>6</v>
@@ -5905,10 +6349,10 @@
         <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>228</v>
+        <v>501</v>
       </c>
       <c r="D202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E202" t="s">
         <v>6</v>
@@ -5925,13 +6369,13 @@
         <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>229</v>
+        <v>502</v>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>6</v>
+        <v>503</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -5945,13 +6389,13 @@
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -5965,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>6</v>
+        <v>505</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -5985,13 +6429,13 @@
         <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="D206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
@@ -6002,16 +6446,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="C207" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="D207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>6</v>
+        <v>507</v>
       </c>
       <c r="F207" t="s">
         <v>6</v>
@@ -6022,13 +6466,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="C208" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
         <v>6</v>
@@ -6042,13 +6486,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="C209" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="D209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E209" t="s">
         <v>6</v>
@@ -6062,13 +6506,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C210" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="D210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
         <v>6</v>
@@ -6082,16 +6526,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="C211" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>6</v>
+        <v>508</v>
       </c>
       <c r="F211" t="s">
         <v>6</v>
@@ -6102,13 +6546,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="D212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="s">
         <v>6</v>
@@ -6122,10 +6566,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C213" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -6142,10 +6586,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C214" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -6162,10 +6606,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="C215" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -6182,13 +6626,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C216" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="D216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
         <v>6</v>
@@ -6202,10 +6646,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="C217" t="s">
-        <v>245</v>
+        <v>509</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -6222,10 +6666,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="C218" t="s">
-        <v>247</v>
+        <v>510</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -6242,10 +6686,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -6262,10 +6706,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -6282,16 +6726,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="D221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>6</v>
+        <v>511</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6302,10 +6746,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6322,16 +6766,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="D223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>512</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6345,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="D224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>513</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6362,10 +6806,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="C225" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -6382,16 +6826,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="C226" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>514</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6402,10 +6846,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="C227" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6422,16 +6866,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="C228" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>515</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6442,13 +6886,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="C229" t="s">
-        <v>259</v>
+        <v>516</v>
       </c>
       <c r="D229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E229" t="s">
         <v>6</v>
@@ -6462,10 +6906,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6482,16 +6926,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C231" t="s">
-        <v>262</v>
+        <v>518</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>6</v>
+        <v>517</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -6502,16 +6946,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C232" t="s">
-        <v>263</v>
+        <v>519</v>
       </c>
       <c r="D232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -6522,13 +6966,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="C233" t="s">
-        <v>265</v>
+        <v>522</v>
       </c>
       <c r="D233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E233" t="s">
         <v>6</v>
@@ -6542,10 +6986,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C234" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6562,16 +7006,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C235" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="D235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>6</v>
+        <v>524</v>
       </c>
       <c r="F235" t="s">
         <v>6</v>
@@ -6582,13 +7026,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="C236" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="D236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" t="s">
         <v>6</v>
@@ -6602,16 +7046,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="C237" t="s">
-        <v>270</v>
+        <v>525</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>6</v>
+        <v>527</v>
       </c>
       <c r="F237" t="s">
         <v>6</v>
@@ -6622,16 +7066,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="C238" t="s">
-        <v>271</v>
+        <v>526</v>
       </c>
       <c r="D238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>6</v>
+        <v>528</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -6642,16 +7086,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C239" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="D239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>6</v>
+        <v>529</v>
       </c>
       <c r="F239" t="s">
         <v>6</v>
@@ -6662,16 +7106,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C240" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>6</v>
+        <v>530</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -6682,16 +7126,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C241" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="D241" t="b">
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>6</v>
+        <v>531</v>
       </c>
       <c r="F241" t="s">
         <v>6</v>
@@ -6702,10 +7146,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="C242" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
@@ -6722,16 +7166,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="C243" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>6</v>
+        <v>532</v>
       </c>
       <c r="F243" t="s">
         <v>6</v>
@@ -6742,13 +7186,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="C244" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="D244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="s">
         <v>6</v>
@@ -6762,16 +7206,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="C245" t="s">
-        <v>281</v>
+        <v>534</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>6</v>
+        <v>533</v>
       </c>
       <c r="F245" t="s">
         <v>6</v>
@@ -6782,16 +7226,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="C246" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="D246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>6</v>
+        <v>535</v>
       </c>
       <c r="F246" t="s">
         <v>6</v>
@@ -6802,16 +7246,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="C247" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>6</v>
+        <v>536</v>
       </c>
       <c r="F247" t="s">
         <v>6</v>
@@ -6822,10 +7266,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C248" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -6842,13 +7286,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C249" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="D249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E249" t="s">
         <v>6</v>
@@ -6862,10 +7306,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="C250" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
@@ -6882,13 +7326,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="C251" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="D251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="s">
         <v>6</v>
@@ -6902,16 +7346,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="C252" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="D252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>6</v>
+        <v>537</v>
       </c>
       <c r="F252" t="s">
         <v>6</v>
@@ -6922,16 +7366,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="C253" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D253" t="b">
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>6</v>
+        <v>538</v>
       </c>
       <c r="F253" t="s">
         <v>6</v>
@@ -6942,16 +7386,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C254" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="D254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>6</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
         <v>6</v>
@@ -6962,13 +7406,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C255" t="s">
-        <v>294</v>
+        <v>539</v>
       </c>
       <c r="D255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255" t="s">
         <v>6</v>
@@ -6982,16 +7426,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="C256" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="D256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>6</v>
+        <v>540</v>
       </c>
       <c r="F256" t="s">
         <v>6</v>
@@ -7002,10 +7446,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="C257" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
@@ -7022,10 +7466,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="C258" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -7042,16 +7486,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="C259" t="s">
-        <v>299</v>
+        <v>541</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>6</v>
+        <v>542</v>
       </c>
       <c r="F259" t="s">
         <v>6</v>
@@ -7062,16 +7506,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="C260" t="s">
-        <v>301</v>
+        <v>543</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>6</v>
+        <v>544</v>
       </c>
       <c r="F260" t="s">
         <v>6</v>
@@ -7082,16 +7526,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="C261" t="s">
-        <v>302</v>
+        <v>545</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>6</v>
+        <v>546</v>
       </c>
       <c r="F261" t="s">
         <v>6</v>
@@ -7102,13 +7546,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C262" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="D262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" t="s">
         <v>6</v>
@@ -7122,16 +7566,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C263" t="s">
-        <v>305</v>
+        <v>547</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>6</v>
+        <v>548</v>
       </c>
       <c r="F263" t="s">
         <v>6</v>
@@ -7142,16 +7586,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C264" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="D264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>6</v>
+        <v>549</v>
       </c>
       <c r="F264" t="s">
         <v>6</v>
@@ -7162,16 +7606,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="C265" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>6</v>
+        <v>550</v>
       </c>
       <c r="F265" t="s">
         <v>6</v>
@@ -7182,10 +7626,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="C266" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -7202,16 +7646,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="C267" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="D267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>6</v>
+        <v>551</v>
       </c>
       <c r="F267" t="s">
         <v>6</v>
@@ -7222,10 +7666,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="C268" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="D268" t="b">
         <v>1</v>
@@ -7242,16 +7686,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="C269" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>6</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
         <v>6</v>
@@ -7262,13 +7706,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="C270" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="D270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" t="s">
         <v>6</v>
@@ -7282,16 +7726,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="C271" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>6</v>
+        <v>552</v>
       </c>
       <c r="F271" t="s">
         <v>6</v>
@@ -7302,16 +7746,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C272" t="s">
-        <v>317</v>
+        <v>553</v>
       </c>
       <c r="D272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>6</v>
+        <v>554</v>
       </c>
       <c r="F272" t="s">
         <v>6</v>
@@ -7322,13 +7766,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C273" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="D273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E273" t="s">
         <v>6</v>
@@ -7342,13 +7786,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="C274" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="D274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="s">
         <v>6</v>
@@ -7362,13 +7806,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="C275" t="s">
-        <v>321</v>
+        <v>555</v>
       </c>
       <c r="D275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E275" t="s">
         <v>6</v>
@@ -7382,16 +7826,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="C276" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>6</v>
+        <v>556</v>
       </c>
       <c r="F276" t="s">
         <v>6</v>
@@ -7402,10 +7846,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C277" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="D277" t="b">
         <v>1</v>
@@ -7422,13 +7866,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C278" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="D278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" t="s">
         <v>6</v>
@@ -7442,10 +7886,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C279" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="D279" t="b">
         <v>1</v>
@@ -7462,16 +7906,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="C280" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="D280" t="b">
         <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>6</v>
+        <v>557</v>
       </c>
       <c r="F280" t="s">
         <v>6</v>
@@ -7482,10 +7926,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="C281" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
@@ -7502,16 +7946,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="C282" t="s">
-        <v>329</v>
+        <v>558</v>
       </c>
       <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>6</v>
+        <v>559</v>
       </c>
       <c r="F282" t="s">
         <v>6</v>
@@ -7522,10 +7966,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>327</v>
+        <v>274</v>
       </c>
       <c r="C283" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="D283" t="b">
         <v>1</v>
@@ -7542,16 +7986,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="C284" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>6</v>
+        <v>560</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -7562,10 +8006,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="C285" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -7582,10 +8026,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="C286" t="s">
-        <v>334</v>
+        <v>561</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
@@ -7602,16 +8046,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="C287" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="D287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>6</v>
+        <v>562</v>
       </c>
       <c r="F287" t="s">
         <v>6</v>
@@ -7622,10 +8066,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="C288" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="D288" t="b">
         <v>1</v>
@@ -7642,13 +8086,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>335</v>
+        <v>215</v>
       </c>
       <c r="C289" t="s">
-        <v>338</v>
+        <v>563</v>
       </c>
       <c r="D289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E289" t="s">
         <v>6</v>
@@ -7662,16 +8106,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>339</v>
+        <v>215</v>
       </c>
       <c r="C290" t="s">
-        <v>340</v>
+        <v>564</v>
       </c>
       <c r="D290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="F290" t="s">
         <v>6</v>
@@ -7682,16 +8126,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C291" t="s">
-        <v>341</v>
+        <v>565</v>
       </c>
       <c r="D291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>6</v>
+        <v>566</v>
       </c>
       <c r="F291" t="s">
         <v>6</v>
@@ -7702,16 +8146,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="C292" t="s">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="D292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E292" t="s">
-        <v>6</v>
+        <v>567</v>
       </c>
       <c r="F292" t="s">
         <v>6</v>
@@ -7722,16 +8166,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="C293" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>6</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
         <v>6</v>
@@ -7742,10 +8186,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="C294" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
@@ -7762,13 +8206,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>343</v>
+        <v>284</v>
       </c>
       <c r="C295" t="s">
-        <v>346</v>
+        <v>569</v>
       </c>
       <c r="D295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E295" t="s">
         <v>6</v>
@@ -7782,10 +8226,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>347</v>
+        <v>284</v>
       </c>
       <c r="C296" t="s">
-        <v>348</v>
+        <v>570</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
@@ -7802,13 +8246,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C297" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="D297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E297" t="s">
         <v>6</v>
@@ -7822,16 +8266,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C298" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="D298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>6</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
         <v>6</v>
@@ -7842,10 +8286,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="C299" t="s">
-        <v>352</v>
+        <v>572</v>
       </c>
       <c r="D299" t="b">
         <v>0</v>
@@ -7862,16 +8306,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="C300" t="s">
-        <v>353</v>
+        <v>573</v>
       </c>
       <c r="D300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>6</v>
+        <v>574</v>
       </c>
       <c r="F300" t="s">
         <v>6</v>
@@ -7882,16 +8326,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="C301" t="s">
-        <v>354</v>
+        <v>575</v>
       </c>
       <c r="D301" t="b">
         <v>0</v>
       </c>
       <c r="E301" t="s">
-        <v>6</v>
+        <v>576</v>
       </c>
       <c r="F301" t="s">
         <v>6</v>
@@ -7902,10 +8346,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C302" t="s">
-        <v>355</v>
+        <v>291</v>
       </c>
       <c r="D302" t="b">
         <v>1</v>
@@ -7922,10 +8366,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C303" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
@@ -7942,10 +8386,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C304" t="s">
-        <v>357</v>
+        <v>577</v>
       </c>
       <c r="D304" t="b">
         <v>1</v>
@@ -7962,13 +8406,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="C305" t="s">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="D305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305" t="s">
         <v>6</v>
@@ -7982,13 +8426,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="C306" t="s">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="D306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" t="s">
         <v>6</v>
@@ -8002,13 +8446,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>358</v>
+        <v>293</v>
       </c>
       <c r="C307" t="s">
-        <v>361</v>
+        <v>578</v>
       </c>
       <c r="D307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307" t="s">
         <v>6</v>
@@ -8022,10 +8466,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="C308" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="D308" t="b">
         <v>1</v>
@@ -8042,16 +8486,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="C309" t="s">
-        <v>364</v>
+        <v>579</v>
       </c>
       <c r="D309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309" t="s">
-        <v>6</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
         <v>6</v>
@@ -8062,10 +8506,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="C310" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="D310" t="b">
         <v>1</v>
@@ -8082,16 +8526,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="C311" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="D311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311" t="s">
-        <v>6</v>
+        <v>581</v>
       </c>
       <c r="F311" t="s">
         <v>6</v>
@@ -8102,13 +8546,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="C312" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="D312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E312" t="s">
         <v>6</v>
@@ -8122,16 +8566,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="C313" t="s">
-        <v>369</v>
+        <v>302</v>
       </c>
       <c r="D313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E313" t="s">
-        <v>6</v>
+        <v>582</v>
       </c>
       <c r="F313" t="s">
         <v>6</v>
@@ -8142,16 +8586,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="C314" t="s">
-        <v>371</v>
+        <v>583</v>
       </c>
       <c r="D314" t="b">
         <v>0</v>
       </c>
       <c r="E314" t="s">
-        <v>6</v>
+        <v>584</v>
       </c>
       <c r="F314" t="s">
         <v>6</v>
@@ -8162,16 +8606,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="C315" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="D315" t="b">
         <v>0</v>
       </c>
       <c r="E315" t="s">
-        <v>6</v>
+        <v>585</v>
       </c>
       <c r="F315" t="s">
         <v>6</v>
@@ -8182,16 +8626,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="C316" t="s">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>6</v>
+        <v>586</v>
       </c>
       <c r="F316" t="s">
         <v>6</v>
@@ -8202,10 +8646,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="C317" t="s">
-        <v>375</v>
+        <v>587</v>
       </c>
       <c r="D317" t="b">
         <v>1</v>
@@ -8222,10 +8666,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="C318" t="s">
-        <v>376</v>
+        <v>588</v>
       </c>
       <c r="D318" t="b">
         <v>1</v>
@@ -8242,16 +8686,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="C319" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="D319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>6</v>
+        <v>589</v>
       </c>
       <c r="F319" t="s">
         <v>6</v>
@@ -8262,10 +8706,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>378</v>
+        <v>227</v>
       </c>
       <c r="C320" t="s">
-        <v>379</v>
+        <v>308</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
@@ -8282,16 +8726,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>378</v>
+        <v>227</v>
       </c>
       <c r="C321" t="s">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="D321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>6</v>
+        <v>590</v>
       </c>
       <c r="F321" t="s">
         <v>6</v>
@@ -8302,10 +8746,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>378</v>
+        <v>310</v>
       </c>
       <c r="C322" t="s">
-        <v>381</v>
+        <v>591</v>
       </c>
       <c r="D322" t="b">
         <v>1</v>
@@ -8322,13 +8766,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="C323" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="D323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E323" t="s">
         <v>6</v>
@@ -8342,16 +8786,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="C324" t="s">
-        <v>384</v>
+        <v>592</v>
       </c>
       <c r="D324" t="b">
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>6</v>
+        <v>593</v>
       </c>
       <c r="F324" t="s">
         <v>6</v>
@@ -8362,16 +8806,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>382</v>
+        <v>312</v>
       </c>
       <c r="C325" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="D325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>6</v>
+        <v>594</v>
       </c>
       <c r="F325" t="s">
         <v>6</v>
@@ -8382,13 +8826,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="C326" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="D326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E326" t="s">
         <v>6</v>
@@ -8402,16 +8846,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>386</v>
+        <v>312</v>
       </c>
       <c r="C327" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="D327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>6</v>
+        <v>595</v>
       </c>
       <c r="F327" t="s">
         <v>6</v>
@@ -8422,16 +8866,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="C328" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="D328" t="b">
         <v>0</v>
       </c>
       <c r="E328" t="s">
-        <v>6</v>
+        <v>596</v>
       </c>
       <c r="F328" t="s">
         <v>6</v>
@@ -8442,13 +8886,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="C329" t="s">
-        <v>391</v>
+        <v>318</v>
       </c>
       <c r="D329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E329" t="s">
         <v>6</v>
@@ -8462,10 +8906,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>390</v>
+        <v>316</v>
       </c>
       <c r="C330" t="s">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="D330" t="b">
         <v>0</v>
@@ -8482,16 +8926,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="C331" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="D331" t="b">
         <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>6</v>
+        <v>597</v>
       </c>
       <c r="F331" t="s">
         <v>6</v>
@@ -8502,16 +8946,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C332" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="D332" t="b">
         <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>6</v>
+        <v>598</v>
       </c>
       <c r="F332" t="s">
         <v>6</v>
@@ -8522,16 +8966,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>394</v>
+        <v>320</v>
       </c>
       <c r="C333" t="s">
-        <v>396</v>
+        <v>323</v>
       </c>
       <c r="D333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E333" t="s">
-        <v>6</v>
+        <v>599</v>
       </c>
       <c r="F333" t="s">
         <v>6</v>
@@ -8542,16 +8986,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="C334" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
       <c r="D334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E334" t="s">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="F334" t="s">
         <v>6</v>
@@ -8562,13 +9006,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="C335" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="D335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E335" t="s">
         <v>6</v>
@@ -8582,10 +9026,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="C336" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="D336" t="b">
         <v>1</v>
@@ -8602,16 +9046,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="C337" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="D337" t="b">
         <v>0</v>
       </c>
       <c r="E337" t="s">
-        <v>6</v>
+        <v>603</v>
       </c>
       <c r="F337" t="s">
         <v>6</v>
@@ -8622,10 +9066,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="C338" t="s">
-        <v>402</v>
+        <v>601</v>
       </c>
       <c r="D338" t="b">
         <v>1</v>
@@ -8642,10 +9086,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="C339" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
@@ -8662,13 +9106,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="C340" t="s">
-        <v>404</v>
+        <v>604</v>
       </c>
       <c r="D340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340" t="s">
         <v>6</v>
@@ -8682,16 +9126,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="C341" t="s">
-        <v>406</v>
+        <v>332</v>
       </c>
       <c r="D341" t="b">
         <v>0</v>
       </c>
       <c r="E341" t="s">
-        <v>6</v>
+        <v>605</v>
       </c>
       <c r="F341" t="s">
         <v>6</v>
@@ -8702,16 +9146,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>405</v>
+        <v>331</v>
       </c>
       <c r="C342" t="s">
-        <v>407</v>
+        <v>333</v>
       </c>
       <c r="D342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E342" t="s">
-        <v>6</v>
+        <v>606</v>
       </c>
       <c r="F342" t="s">
         <v>6</v>
@@ -8722,13 +9166,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="C343" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="D343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E343" t="s">
         <v>6</v>
@@ -8742,16 +9186,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="C344" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344" t="s">
-        <v>6</v>
+        <v>607</v>
       </c>
       <c r="F344" t="s">
         <v>6</v>
@@ -8762,10 +9206,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>409</v>
+        <v>334</v>
       </c>
       <c r="C345" t="s">
-        <v>411</v>
+        <v>337</v>
       </c>
       <c r="D345" t="b">
         <v>1</v>
@@ -8782,13 +9226,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>409</v>
+        <v>338</v>
       </c>
       <c r="C346" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="D346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E346" t="s">
         <v>6</v>
@@ -8802,16 +9246,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="C347" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="D347" t="b">
         <v>0</v>
       </c>
       <c r="E347" t="s">
-        <v>6</v>
+        <v>608</v>
       </c>
       <c r="F347" t="s">
         <v>6</v>
@@ -8822,13 +9266,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>413</v>
+        <v>338</v>
       </c>
       <c r="C348" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
       <c r="D348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348" t="s">
         <v>6</v>
@@ -8842,16 +9286,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>413</v>
+        <v>342</v>
       </c>
       <c r="C349" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="D349" t="b">
         <v>0</v>
       </c>
       <c r="E349" t="s">
-        <v>6</v>
+        <v>609</v>
       </c>
       <c r="F349" t="s">
         <v>6</v>
@@ -8862,13 +9306,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="C350" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="D350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E350" t="s">
         <v>6</v>
@@ -8882,16 +9326,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="C351" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="D351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E351" t="s">
-        <v>6</v>
+        <v>610</v>
       </c>
       <c r="F351" t="s">
         <v>6</v>
@@ -8902,10 +9346,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>417</v>
+        <v>346</v>
       </c>
       <c r="C352" t="s">
-        <v>420</v>
+        <v>347</v>
       </c>
       <c r="D352" t="b">
         <v>1</v>
@@ -8922,16 +9366,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="C353" t="s">
-        <v>422</v>
+        <v>611</v>
       </c>
       <c r="D353" t="b">
         <v>0</v>
       </c>
       <c r="E353" t="s">
-        <v>6</v>
+        <v>612</v>
       </c>
       <c r="F353" t="s">
         <v>6</v>
@@ -8942,10 +9386,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="C354" t="s">
-        <v>423</v>
+        <v>613</v>
       </c>
       <c r="D354" t="b">
         <v>1</v>
@@ -8962,13 +9406,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="C355" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="D355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E355" t="s">
         <v>6</v>
@@ -8982,16 +9426,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="C356" t="s">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="D356" t="b">
         <v>1</v>
       </c>
       <c r="E356" t="s">
-        <v>6</v>
+        <v>614</v>
       </c>
       <c r="F356" t="s">
         <v>6</v>
@@ -9002,16 +9446,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="C357" t="s">
-        <v>427</v>
+        <v>615</v>
       </c>
       <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357" t="s">
-        <v>6</v>
+        <v>616</v>
       </c>
       <c r="F357" t="s">
         <v>6</v>
@@ -9022,16 +9466,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="C358" t="s">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="D358" t="b">
         <v>0</v>
       </c>
       <c r="E358" t="s">
-        <v>6</v>
+        <v>421</v>
       </c>
       <c r="F358" t="s">
         <v>6</v>
@@ -9042,10 +9486,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>429</v>
+        <v>351</v>
       </c>
       <c r="C359" t="s">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -9062,13 +9506,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>429</v>
+        <v>351</v>
       </c>
       <c r="C360" t="s">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="D360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E360" t="s">
         <v>6</v>
@@ -9082,16 +9526,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="C361" t="s">
-        <v>432</v>
+        <v>356</v>
       </c>
       <c r="D361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E361" t="s">
-        <v>6</v>
+        <v>617</v>
       </c>
       <c r="F361" t="s">
         <v>6</v>
@@ -9102,10 +9546,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="C362" t="s">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="D362" t="b">
         <v>1</v>
@@ -9122,16 +9566,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="C363" t="s">
-        <v>435</v>
+        <v>358</v>
       </c>
       <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363" t="s">
-        <v>6</v>
+        <v>618</v>
       </c>
       <c r="F363" t="s">
         <v>6</v>
@@ -9142,10 +9586,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="C364" t="s">
-        <v>436</v>
+        <v>360</v>
       </c>
       <c r="D364" t="b">
         <v>1</v>
@@ -9162,16 +9606,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>437</v>
+        <v>359</v>
       </c>
       <c r="C365" t="s">
-        <v>438</v>
+        <v>361</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
       </c>
       <c r="E365" t="s">
-        <v>6</v>
+        <v>619</v>
       </c>
       <c r="F365" t="s">
         <v>6</v>
@@ -9182,16 +9626,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
       <c r="C366" t="s">
-        <v>439</v>
+        <v>363</v>
       </c>
       <c r="D366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
       <c r="F366" t="s">
         <v>6</v>
@@ -9202,13 +9646,13 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
       <c r="C367" t="s">
-        <v>440</v>
+        <v>364</v>
       </c>
       <c r="D367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E367" t="s">
         <v>6</v>
@@ -9222,16 +9666,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>441</v>
+        <v>362</v>
       </c>
       <c r="C368" t="s">
-        <v>442</v>
+        <v>365</v>
       </c>
       <c r="D368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E368" t="s">
-        <v>6</v>
+        <v>621</v>
       </c>
       <c r="F368" t="s">
         <v>6</v>
@@ -9242,13 +9686,13 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="C369" t="s">
-        <v>443</v>
+        <v>620</v>
       </c>
       <c r="D369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E369" t="s">
         <v>6</v>
@@ -9262,10 +9706,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="C370" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="D370" t="b">
         <v>1</v>
@@ -9282,16 +9726,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>445</v>
+        <v>366</v>
       </c>
       <c r="C371" t="s">
-        <v>446</v>
+        <v>368</v>
       </c>
       <c r="D371" t="b">
         <v>1</v>
       </c>
       <c r="E371" t="s">
-        <v>6</v>
+        <v>622</v>
       </c>
       <c r="F371" t="s">
         <v>6</v>
@@ -9302,16 +9746,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="C372" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="D372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E372" t="s">
-        <v>6</v>
+        <v>623</v>
       </c>
       <c r="F372" t="s">
         <v>6</v>
@@ -9322,13 +9766,13 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="C373" t="s">
-        <v>448</v>
+        <v>371</v>
       </c>
       <c r="D373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E373" t="s">
         <v>6</v>
@@ -9342,418 +9786,18 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="C374" t="s">
-        <v>450</v>
+        <v>624</v>
       </c>
       <c r="D374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E374" t="s">
         <v>6</v>
       </c>
       <c r="F374" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
-        <v>374</v>
-      </c>
-      <c r="B375" t="s">
-        <v>449</v>
-      </c>
-      <c r="C375" t="s">
-        <v>451</v>
-      </c>
-      <c r="D375" t="b">
-        <v>1</v>
-      </c>
-      <c r="E375" t="s">
-        <v>6</v>
-      </c>
-      <c r="F375" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>375</v>
-      </c>
-      <c r="B376" t="s">
-        <v>449</v>
-      </c>
-      <c r="C376" t="s">
-        <v>452</v>
-      </c>
-      <c r="D376" t="b">
-        <v>1</v>
-      </c>
-      <c r="E376" t="s">
-        <v>6</v>
-      </c>
-      <c r="F376" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
-        <v>376</v>
-      </c>
-      <c r="B377" t="s">
-        <v>453</v>
-      </c>
-      <c r="C377" t="s">
-        <v>454</v>
-      </c>
-      <c r="D377" t="b">
-        <v>0</v>
-      </c>
-      <c r="E377" t="s">
-        <v>6</v>
-      </c>
-      <c r="F377" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
-        <v>377</v>
-      </c>
-      <c r="B378" t="s">
-        <v>453</v>
-      </c>
-      <c r="C378" t="s">
-        <v>455</v>
-      </c>
-      <c r="D378" t="b">
-        <v>1</v>
-      </c>
-      <c r="E378" t="s">
-        <v>6</v>
-      </c>
-      <c r="F378" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
-        <v>378</v>
-      </c>
-      <c r="B379" t="s">
-        <v>453</v>
-      </c>
-      <c r="C379" t="s">
-        <v>456</v>
-      </c>
-      <c r="D379" t="b">
-        <v>0</v>
-      </c>
-      <c r="E379" t="s">
-        <v>6</v>
-      </c>
-      <c r="F379" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
-        <v>379</v>
-      </c>
-      <c r="B380" t="s">
-        <v>457</v>
-      </c>
-      <c r="C380" t="s">
-        <v>458</v>
-      </c>
-      <c r="D380" t="b">
-        <v>1</v>
-      </c>
-      <c r="E380" t="s">
-        <v>6</v>
-      </c>
-      <c r="F380" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
-        <v>380</v>
-      </c>
-      <c r="B381" t="s">
-        <v>457</v>
-      </c>
-      <c r="C381" t="s">
-        <v>459</v>
-      </c>
-      <c r="D381" t="b">
-        <v>0</v>
-      </c>
-      <c r="E381" t="s">
-        <v>6</v>
-      </c>
-      <c r="F381" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
-        <v>381</v>
-      </c>
-      <c r="B382" t="s">
-        <v>457</v>
-      </c>
-      <c r="C382" t="s">
-        <v>460</v>
-      </c>
-      <c r="D382" t="b">
-        <v>0</v>
-      </c>
-      <c r="E382" t="s">
-        <v>6</v>
-      </c>
-      <c r="F382" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
-        <v>382</v>
-      </c>
-      <c r="B383" t="s">
-        <v>461</v>
-      </c>
-      <c r="C383" t="s">
-        <v>462</v>
-      </c>
-      <c r="D383" t="b">
-        <v>0</v>
-      </c>
-      <c r="E383" t="s">
-        <v>6</v>
-      </c>
-      <c r="F383" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
-        <v>383</v>
-      </c>
-      <c r="B384" t="s">
-        <v>461</v>
-      </c>
-      <c r="C384" t="s">
-        <v>463</v>
-      </c>
-      <c r="D384" t="b">
-        <v>1</v>
-      </c>
-      <c r="E384" t="s">
-        <v>6</v>
-      </c>
-      <c r="F384" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
-        <v>384</v>
-      </c>
-      <c r="B385" t="s">
-        <v>461</v>
-      </c>
-      <c r="C385" t="s">
-        <v>464</v>
-      </c>
-      <c r="D385" t="b">
-        <v>0</v>
-      </c>
-      <c r="E385" t="s">
-        <v>6</v>
-      </c>
-      <c r="F385" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
-        <v>385</v>
-      </c>
-      <c r="B386" t="s">
-        <v>465</v>
-      </c>
-      <c r="C386" t="s">
-        <v>466</v>
-      </c>
-      <c r="D386" t="b">
-        <v>1</v>
-      </c>
-      <c r="E386" t="s">
-        <v>6</v>
-      </c>
-      <c r="F386" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
-        <v>386</v>
-      </c>
-      <c r="B387" t="s">
-        <v>465</v>
-      </c>
-      <c r="C387" t="s">
-        <v>467</v>
-      </c>
-      <c r="D387" t="b">
-        <v>1</v>
-      </c>
-      <c r="E387" t="s">
-        <v>6</v>
-      </c>
-      <c r="F387" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
-        <v>387</v>
-      </c>
-      <c r="B388" t="s">
-        <v>465</v>
-      </c>
-      <c r="C388" t="s">
-        <v>468</v>
-      </c>
-      <c r="D388" t="b">
-        <v>1</v>
-      </c>
-      <c r="E388" t="s">
-        <v>6</v>
-      </c>
-      <c r="F388" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
-        <v>388</v>
-      </c>
-      <c r="B389" t="s">
-        <v>469</v>
-      </c>
-      <c r="C389" t="s">
-        <v>470</v>
-      </c>
-      <c r="D389" t="b">
-        <v>1</v>
-      </c>
-      <c r="E389" t="s">
-        <v>6</v>
-      </c>
-      <c r="F389" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
-        <v>389</v>
-      </c>
-      <c r="B390" t="s">
-        <v>469</v>
-      </c>
-      <c r="C390" t="s">
-        <v>471</v>
-      </c>
-      <c r="D390" t="b">
-        <v>0</v>
-      </c>
-      <c r="E390" t="s">
-        <v>6</v>
-      </c>
-      <c r="F390" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
-        <v>390</v>
-      </c>
-      <c r="B391" t="s">
-        <v>469</v>
-      </c>
-      <c r="C391" t="s">
-        <v>472</v>
-      </c>
-      <c r="D391" t="b">
-        <v>1</v>
-      </c>
-      <c r="E391" t="s">
-        <v>6</v>
-      </c>
-      <c r="F391" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
-        <v>391</v>
-      </c>
-      <c r="B392" t="s">
-        <v>473</v>
-      </c>
-      <c r="C392" t="s">
-        <v>474</v>
-      </c>
-      <c r="D392" t="b">
-        <v>1</v>
-      </c>
-      <c r="E392" t="s">
-        <v>6</v>
-      </c>
-      <c r="F392" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
-        <v>392</v>
-      </c>
-      <c r="B393" t="s">
-        <v>473</v>
-      </c>
-      <c r="C393" t="s">
-        <v>475</v>
-      </c>
-      <c r="D393" t="b">
-        <v>1</v>
-      </c>
-      <c r="E393" t="s">
-        <v>6</v>
-      </c>
-      <c r="F393" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
-        <v>393</v>
-      </c>
-      <c r="B394" t="s">
-        <v>473</v>
-      </c>
-      <c r="C394" t="s">
-        <v>476</v>
-      </c>
-      <c r="D394" t="b">
-        <v>1</v>
-      </c>
-      <c r="E394" t="s">
-        <v>6</v>
-      </c>
-      <c r="F394" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Physiopathologie/Excel/digestif.xlsx
+++ b/Physiopathologie/Excel/digestif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E93FD3-60EC-4BD8-A6F8-66EC1DDB3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F3F82C-008A-4C2E-8255-FF333FEB9B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -209,9 +209,6 @@
     <t xml:space="preserve"> Lorsque le débit salivaire est élevé, la tonicité de la salive est proche de celle du plasma  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le réflexe péristaltique est un réflexe mixte du tube digestif,  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'innervation du tube digestif est uniquement autonome, assurée par le système nerveux intrinsèque et par  le système nerveux extrinsèque. </t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t xml:space="preserve">1. Concernant la digestion et l'absorption du grêle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le cholestérol est absorbé au niveau de l'entérocyte via un processus d'endocytose médiée par le récepteur NPCILI apical.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le facteur intrinsèque est produit par les cellules principales des glandes gastriques et la liaison entre la  vitamine B12 et le facteur intrinsèque a lieu au niveau intragastrique.   </t>
   </si>
   <si>
@@ -602,9 +596,6 @@
     <t xml:space="preserve"> le cycle entéro-hépatique des acides biliaires permet de réabsorber +99% des acides biliaires.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> la somatostatine est l’antagoniste majeur de la sécrétion acide gastrique et agit uniquement au niveau de la cellule pariétale, via la voie de l’'AMPc. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> les efférences du vomissement diffèrent selon la cause du vomissement.  </t>
   </si>
   <si>
@@ -944,9 +935,6 @@
     <t xml:space="preserve"> Il n'y a pas de sécrétion protéique au niveau des canaux pancréatiques intercalaires.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'effet stimulateur de la CCK sur la sécrétion acinaire pancréatique est plus marqué sur la sécrétion hydro-  électrolytique que sur la sécrétion protéique.     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q6. Concernant la sécrétion salivaire: </t>
   </si>
   <si>
@@ -1139,9 +1127,6 @@
     <t xml:space="preserve">Q17. Concernant les diarrhées, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La sous unité A centrale de la toxine thermolabile de E. Coli entérotoxigène stimule de manière irréversible l'adénylate cyclase au niveau des cellules des cryptes du grêle, ce qui entraîne une sécrétion majeure de Cf via le CFTR.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ajouter de l'amidon résistant à la digestion grêle dans la composition d'une solution de réhydratation orale pourrait être utile dans la mesure où cet amidon est transformé, au niveau du colon, en acides gras à chaînes courtes.    </t>
   </si>
   <si>
@@ -1355,9 +1340,6 @@
     <t>uniquement la voie transcellulaire au niveau du duodénum, paracellulaire sur toute la longueur du grele</t>
   </si>
   <si>
-    <t xml:space="preserve"> Le fer est absorbé au niveau de l'iléon sous forme de Fe2+, via le symport DMTI apical,  </t>
-  </si>
-  <si>
     <t>c'est au niveau du duodénum et non de l'iléon</t>
   </si>
   <si>
@@ -1911,6 +1893,24 @@
   </si>
   <si>
     <t xml:space="preserve"> La digestion des protéines peut encore avoir lieu dans le cytoplasme des entérocytes où des peptidases assurent l'hydrolyse de di et tripeptides, ceux-ci ayant été transportés dans la cellule par un cotransporteur 1H+/1oligopeptide.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réflexe péristaltique est un réflexe mixte du tube digestif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le cholestérol est absorbé au niveau de l'entérocyte via un processus d'endocytose médiée par le récepteur NPC1L1 apical.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le fer est absorbé au niveau de l'iléon sous forme de Fe2+, via le symport DMT1 apical,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la somatostatine est l’antagoniste majeur de la sécrétion acide gastrique et agit uniquement au niveau de la cellule pariétale, via la voie de l’AMPc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet stimulateur de la CCK sur la sécrétion acinaire pancréatique est plus marqué sur la sécrétion hydro-électrolytique que sur la sécrétion protéique.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La sous unité A centrale de la toxine thermolabile de E. Coli entérotoxigène stimule de manière irréversible l'adénylate cyclase au niveau des cellules des cryptes du grêle, ce qui entraîne une sécrétion majeure de Cl- via le CFTR.   </t>
   </si>
 </sst>
 </file>
@@ -2310,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A374"/>
+    <sheetView tabSelected="1" topLeftCell="C342" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2429,7 +2429,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2749,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -2949,7 +2949,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2989,13 +2989,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -3029,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -3089,13 +3089,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -3109,13 +3109,13 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
@@ -3529,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -3549,13 +3549,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>57</v>
+        <v>619</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -3569,7 +3569,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -3589,13 +3589,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
@@ -3609,13 +3609,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -3629,13 +3629,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -3649,7 +3649,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -3709,13 +3709,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3729,13 +3729,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F71" t="s">
         <v>6</v>
@@ -3749,13 +3749,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -3769,13 +3769,13 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -3789,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -3809,13 +3809,13 @@
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3829,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -3889,13 +3889,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3909,13 +3909,13 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -3929,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3949,13 +3949,13 @@
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3969,7 +3969,7 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -3989,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -4009,13 +4009,13 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -4029,7 +4029,7 @@
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -4049,13 +4049,13 @@
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -4069,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" t="b">
         <v>1</v>
@@ -4089,7 +4089,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D91" t="b">
         <v>1</v>
@@ -4149,13 +4149,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F92" t="s">
         <v>6</v>
@@ -4169,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -4189,13 +4189,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -4209,7 +4209,7 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -4249,7 +4249,7 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -4269,13 +4269,13 @@
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -4289,13 +4289,13 @@
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F99" t="s">
         <v>6</v>
@@ -4309,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -4329,7 +4329,7 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -4349,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
@@ -4389,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -4409,13 +4409,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F105" t="s">
         <v>6</v>
@@ -4426,10 +4426,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>93</v>
+      </c>
+      <c r="C106" t="s">
         <v>94</v>
-      </c>
-      <c r="C106" t="s">
-        <v>95</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D107" t="b">
         <v>1</v>
@@ -4466,10 +4466,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -4486,16 +4486,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" t="s">
         <v>98</v>
       </c>
-      <c r="C109" t="s">
-        <v>99</v>
-      </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F109" t="s">
         <v>6</v>
@@ -4506,10 +4506,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -4526,10 +4526,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D111" t="b">
         <v>1</v>
@@ -4546,10 +4546,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -4566,16 +4566,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" t="s">
         <v>102</v>
       </c>
-      <c r="C113" t="s">
-        <v>103</v>
-      </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -4586,10 +4586,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -4606,10 +4606,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>620</v>
       </c>
       <c r="D115" t="b">
         <v>1</v>
@@ -4626,16 +4626,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
         <v>105</v>
       </c>
-      <c r="C116" t="s">
-        <v>107</v>
-      </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -4646,10 +4646,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C117" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D117" t="b">
         <v>1</v>
@@ -4669,13 +4669,13 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -4689,13 +4689,13 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>439</v>
+        <v>621</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F119" t="s">
         <v>6</v>
@@ -4709,13 +4709,13 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F120" t="s">
         <v>6</v>
@@ -4726,10 +4726,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -4746,16 +4746,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" t="s">
         <v>111</v>
       </c>
-      <c r="C122" t="s">
-        <v>113</v>
-      </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F122" t="s">
         <v>6</v>
@@ -4766,16 +4766,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -4786,10 +4786,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4806,16 +4806,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>113</v>
+      </c>
+      <c r="C125" t="s">
         <v>115</v>
       </c>
-      <c r="C125" t="s">
-        <v>117</v>
-      </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4826,10 +4826,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C126" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -4846,16 +4846,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -4866,16 +4866,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" t="s">
         <v>119</v>
       </c>
-      <c r="C128" t="s">
-        <v>121</v>
-      </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -4886,16 +4886,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4906,16 +4906,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -4926,10 +4926,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" t="s">
         <v>123</v>
-      </c>
-      <c r="C131" t="s">
-        <v>125</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4946,10 +4946,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -4966,10 +4966,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
@@ -4986,10 +4986,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -5006,10 +5006,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" t="s">
         <v>127</v>
-      </c>
-      <c r="C135" t="s">
-        <v>129</v>
       </c>
       <c r="D135" t="b">
         <v>1</v>
@@ -5026,16 +5026,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C136" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -5046,16 +5046,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -5066,16 +5066,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C138" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -5086,16 +5086,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -5106,16 +5106,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C140" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -5126,10 +5126,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" t="s">
         <v>132</v>
-      </c>
-      <c r="C141" t="s">
-        <v>134</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -5146,10 +5146,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -5166,16 +5166,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C143" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -5186,10 +5186,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -5206,10 +5206,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C145" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -5226,16 +5226,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>135</v>
+      </c>
+      <c r="C146" t="s">
         <v>137</v>
       </c>
-      <c r="C146" t="s">
-        <v>139</v>
-      </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F146" t="s">
         <v>6</v>
@@ -5246,16 +5246,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C147" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D147" t="b">
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -5266,10 +5266,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D148" t="b">
         <v>1</v>
@@ -5286,16 +5286,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>139</v>
+      </c>
+      <c r="C149" t="s">
         <v>141</v>
       </c>
-      <c r="C149" t="s">
-        <v>143</v>
-      </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F149" t="s">
         <v>6</v>
@@ -5306,10 +5306,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
@@ -5326,16 +5326,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C151" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F151" t="s">
         <v>6</v>
@@ -5346,10 +5346,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
+        <v>142</v>
+      </c>
+      <c r="C152" t="s">
         <v>144</v>
-      </c>
-      <c r="C152" t="s">
-        <v>146</v>
       </c>
       <c r="D152" t="b">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -5386,10 +5386,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -5406,10 +5406,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>145</v>
+      </c>
+      <c r="C155" t="s">
         <v>147</v>
-      </c>
-      <c r="C155" t="s">
-        <v>149</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
@@ -5426,16 +5426,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C156" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="F156" t="s">
         <v>6</v>
@@ -5446,16 +5446,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C157" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -5466,10 +5466,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>148</v>
+      </c>
+      <c r="C158" t="s">
         <v>150</v>
-      </c>
-      <c r="C158" t="s">
-        <v>152</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
@@ -5486,10 +5486,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C159" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
@@ -5506,16 +5506,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" t="s">
         <v>153</v>
       </c>
-      <c r="C160" t="s">
-        <v>155</v>
-      </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -5526,16 +5526,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C161" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -5546,16 +5546,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C162" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -5566,16 +5566,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" t="s">
         <v>157</v>
       </c>
-      <c r="C163" t="s">
-        <v>159</v>
-      </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -5586,10 +5586,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C164" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -5606,10 +5606,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C165" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D165" t="b">
         <v>1</v>
@@ -5626,10 +5626,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -5646,16 +5646,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C167" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F167" t="s">
         <v>6</v>
@@ -5669,13 +5669,13 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -5689,7 +5689,7 @@
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5709,7 +5709,7 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5729,13 +5729,13 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -5749,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
@@ -5769,13 +5769,13 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5789,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5809,7 +5809,7 @@
         <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
@@ -5829,13 +5829,13 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -5849,13 +5849,13 @@
         <v>6</v>
       </c>
       <c r="C177" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
       </c>
       <c r="E177" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F177" t="s">
         <v>6</v>
@@ -5869,13 +5869,13 @@
         <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F178" t="s">
         <v>6</v>
@@ -5889,7 +5889,7 @@
         <v>6</v>
       </c>
       <c r="C179" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -5909,7 +5909,7 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5929,7 +5929,7 @@
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
@@ -5946,16 +5946,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C182" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D182" t="b">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F182" t="s">
         <v>6</v>
@@ -5966,10 +5966,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -5986,16 +5986,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
+        <v>172</v>
+      </c>
+      <c r="C184" t="s">
         <v>174</v>
       </c>
-      <c r="C184" t="s">
-        <v>176</v>
-      </c>
       <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -6006,10 +6006,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C185" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -6026,10 +6026,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
+        <v>175</v>
+      </c>
+      <c r="C186" t="s">
         <v>177</v>
-      </c>
-      <c r="C186" t="s">
-        <v>179</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -6049,7 +6049,7 @@
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -6089,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -6109,13 +6109,13 @@
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -6129,7 +6129,7 @@
         <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D191" t="b">
         <v>1</v>
@@ -6149,13 +6149,13 @@
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F192" t="s">
         <v>6</v>
@@ -6169,13 +6169,13 @@
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -6189,7 +6189,7 @@
         <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
@@ -6209,13 +6209,13 @@
         <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -6229,7 +6229,7 @@
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -6249,13 +6249,13 @@
         <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -6269,7 +6269,7 @@
         <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D198" t="b">
         <v>1</v>
@@ -6289,7 +6289,7 @@
         <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D199" t="b">
         <v>1</v>
@@ -6309,13 +6309,13 @@
         <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -6329,7 +6329,7 @@
         <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D201" t="b">
         <v>1</v>
@@ -6349,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="C202" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -6369,13 +6369,13 @@
         <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D203" t="b">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F203" t="s">
         <v>6</v>
@@ -6389,13 +6389,13 @@
         <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>188</v>
+        <v>622</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F204" t="s">
         <v>6</v>
@@ -6409,13 +6409,13 @@
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D205" t="b">
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -6429,13 +6429,13 @@
         <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D206" t="b">
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F206" t="s">
         <v>6</v>
@@ -6446,16 +6446,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C207" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F207" t="s">
         <v>6</v>
@@ -6466,10 +6466,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C208" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
@@ -6486,10 +6486,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>188</v>
+      </c>
+      <c r="C209" t="s">
         <v>191</v>
-      </c>
-      <c r="C209" t="s">
-        <v>194</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -6506,10 +6506,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C210" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D210" t="b">
         <v>1</v>
@@ -6526,16 +6526,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C211" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F211" t="s">
         <v>6</v>
@@ -6546,10 +6546,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
+        <v>192</v>
+      </c>
+      <c r="C212" t="s">
         <v>195</v>
-      </c>
-      <c r="C212" t="s">
-        <v>198</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
@@ -6566,10 +6566,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C213" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -6586,10 +6586,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C214" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -6606,10 +6606,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
+        <v>196</v>
+      </c>
+      <c r="C215" t="s">
         <v>199</v>
-      </c>
-      <c r="C215" t="s">
-        <v>202</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -6626,10 +6626,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C216" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
@@ -6646,10 +6646,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C217" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D217" t="b">
         <v>1</v>
@@ -6666,10 +6666,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C218" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -6689,7 +6689,7 @@
         <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -6729,13 +6729,13 @@
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6749,7 +6749,7 @@
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6769,13 +6769,13 @@
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D223" t="b">
         <v>0</v>
       </c>
       <c r="E223" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6789,13 +6789,13 @@
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6806,10 +6806,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C225" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -6826,16 +6826,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C226" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6846,10 +6846,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
+        <v>208</v>
+      </c>
+      <c r="C227" t="s">
         <v>211</v>
-      </c>
-      <c r="C227" t="s">
-        <v>214</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6866,16 +6866,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C228" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D228" t="b">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6886,10 +6886,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C229" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6906,10 +6906,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C230" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6926,16 +6926,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C231" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F231" t="s">
         <v>6</v>
@@ -6946,16 +6946,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C232" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -6966,10 +6966,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C233" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -6986,10 +6986,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C234" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -7006,16 +7006,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F235" t="s">
         <v>6</v>
@@ -7026,10 +7026,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C236" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -7046,16 +7046,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C237" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F237" t="s">
         <v>6</v>
@@ -7066,16 +7066,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C238" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D238" t="b">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -7086,16 +7086,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C239" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F239" t="s">
         <v>6</v>
@@ -7106,16 +7106,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C240" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -7126,16 +7126,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
+        <v>220</v>
+      </c>
+      <c r="C241" t="s">
         <v>223</v>
       </c>
-      <c r="C241" t="s">
-        <v>226</v>
-      </c>
       <c r="D241" t="b">
         <v>0</v>
       </c>
       <c r="E241" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F241" t="s">
         <v>6</v>
@@ -7146,10 +7146,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C242" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
@@ -7166,16 +7166,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C243" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
       <c r="E243" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F243" t="s">
         <v>6</v>
@@ -7186,10 +7186,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
+        <v>224</v>
+      </c>
+      <c r="C244" t="s">
         <v>227</v>
-      </c>
-      <c r="C244" t="s">
-        <v>230</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -7206,16 +7206,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C245" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D245" t="b">
         <v>0</v>
       </c>
       <c r="E245" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F245" t="s">
         <v>6</v>
@@ -7226,16 +7226,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C246" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F246" t="s">
         <v>6</v>
@@ -7246,16 +7246,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C247" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D247" t="b">
         <v>0</v>
       </c>
       <c r="E247" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F247" t="s">
         <v>6</v>
@@ -7266,10 +7266,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C248" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D248" t="b">
         <v>1</v>
@@ -7286,10 +7286,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C249" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D249" t="b">
         <v>1</v>
@@ -7306,10 +7306,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C250" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D250" t="b">
         <v>1</v>
@@ -7326,10 +7326,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C251" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
@@ -7346,16 +7346,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
+        <v>234</v>
+      </c>
+      <c r="C252" t="s">
         <v>237</v>
       </c>
-      <c r="C252" t="s">
-        <v>240</v>
-      </c>
       <c r="D252" t="b">
         <v>0</v>
       </c>
       <c r="E252" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F252" t="s">
         <v>6</v>
@@ -7366,16 +7366,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C253" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D253" t="b">
         <v>0</v>
       </c>
       <c r="E253" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F253" t="s">
         <v>6</v>
@@ -7386,16 +7386,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C254" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D254" t="b">
         <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F254" t="s">
         <v>6</v>
@@ -7406,10 +7406,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C255" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
@@ -7426,16 +7426,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C256" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D256" t="b">
         <v>0</v>
       </c>
       <c r="E256" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F256" t="s">
         <v>6</v>
@@ -7446,10 +7446,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C257" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D257" t="b">
         <v>1</v>
@@ -7466,10 +7466,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C258" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -7486,16 +7486,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C259" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D259" t="b">
         <v>0</v>
       </c>
       <c r="E259" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F259" t="s">
         <v>6</v>
@@ -7506,16 +7506,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C260" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
       </c>
       <c r="E260" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F260" t="s">
         <v>6</v>
@@ -7526,16 +7526,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C261" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F261" t="s">
         <v>6</v>
@@ -7546,10 +7546,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C262" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D262" t="b">
         <v>1</v>
@@ -7566,16 +7566,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C263" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D263" t="b">
         <v>0</v>
       </c>
       <c r="E263" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F263" t="s">
         <v>6</v>
@@ -7586,16 +7586,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C264" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D264" t="b">
         <v>0</v>
       </c>
       <c r="E264" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F264" t="s">
         <v>6</v>
@@ -7606,16 +7606,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C265" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="F265" t="s">
         <v>6</v>
@@ -7626,10 +7626,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C266" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D266" t="b">
         <v>1</v>
@@ -7646,16 +7646,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
+        <v>250</v>
+      </c>
+      <c r="C267" t="s">
         <v>253</v>
       </c>
-      <c r="C267" t="s">
-        <v>256</v>
-      </c>
       <c r="D267" t="b">
         <v>0</v>
       </c>
       <c r="E267" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F267" t="s">
         <v>6</v>
@@ -7666,10 +7666,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C268" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D268" t="b">
         <v>1</v>
@@ -7686,16 +7686,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C269" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
         <v>6</v>
@@ -7706,10 +7706,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C270" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D270" t="b">
         <v>1</v>
@@ -7726,16 +7726,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C271" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D271" t="b">
         <v>0</v>
       </c>
       <c r="E271" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F271" t="s">
         <v>6</v>
@@ -7746,16 +7746,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C272" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D272" t="b">
         <v>0</v>
       </c>
       <c r="E272" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F272" t="s">
         <v>6</v>
@@ -7766,10 +7766,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C273" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D273" t="b">
         <v>1</v>
@@ -7786,10 +7786,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C274" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D274" t="b">
         <v>1</v>
@@ -7806,10 +7806,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C275" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D275" t="b">
         <v>1</v>
@@ -7826,16 +7826,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C276" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D276" t="b">
         <v>0</v>
       </c>
       <c r="E276" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="F276" t="s">
         <v>6</v>
@@ -7846,10 +7846,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C277" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D277" t="b">
         <v>1</v>
@@ -7866,10 +7866,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C278" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D278" t="b">
         <v>1</v>
@@ -7886,10 +7886,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
+        <v>264</v>
+      </c>
+      <c r="C279" t="s">
         <v>267</v>
-      </c>
-      <c r="C279" t="s">
-        <v>270</v>
       </c>
       <c r="D279" t="b">
         <v>1</v>
@@ -7906,16 +7906,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C280" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D280" t="b">
         <v>0</v>
       </c>
       <c r="E280" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F280" t="s">
         <v>6</v>
@@ -7926,10 +7926,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C281" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D281" t="b">
         <v>1</v>
@@ -7946,16 +7946,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C282" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F282" t="s">
         <v>6</v>
@@ -7966,10 +7966,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C283" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D283" t="b">
         <v>1</v>
@@ -7986,16 +7986,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C284" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D284" t="b">
         <v>0</v>
       </c>
       <c r="E284" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F284" t="s">
         <v>6</v>
@@ -8006,10 +8006,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
+        <v>271</v>
+      </c>
+      <c r="C285" t="s">
         <v>274</v>
-      </c>
-      <c r="C285" t="s">
-        <v>277</v>
       </c>
       <c r="D285" t="b">
         <v>1</v>
@@ -8026,10 +8026,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C286" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D286" t="b">
         <v>1</v>
@@ -8046,16 +8046,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C287" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D287" t="b">
         <v>0</v>
       </c>
       <c r="E287" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
         <v>6</v>
@@ -8066,10 +8066,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C288" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D288" t="b">
         <v>1</v>
@@ -8086,10 +8086,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C289" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D289" t="b">
         <v>1</v>
@@ -8106,16 +8106,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C290" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D290" t="b">
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F290" t="s">
         <v>6</v>
@@ -8126,16 +8126,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C291" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D291" t="b">
         <v>0</v>
       </c>
       <c r="E291" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
         <v>6</v>
@@ -8146,16 +8146,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C292" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D292" t="b">
         <v>0</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
         <v>6</v>
@@ -8166,16 +8166,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C293" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F293" t="s">
         <v>6</v>
@@ -8186,10 +8186,10 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C294" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D294" t="b">
         <v>1</v>
@@ -8206,10 +8206,10 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C295" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D295" t="b">
         <v>1</v>
@@ -8226,10 +8226,10 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C296" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D296" t="b">
         <v>1</v>
@@ -8246,10 +8246,10 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C297" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D297" t="b">
         <v>1</v>
@@ -8266,16 +8266,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C298" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D298" t="b">
         <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
         <v>6</v>
@@ -8286,10 +8286,10 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C299" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D299" t="b">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C300" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D300" t="b">
         <v>0</v>
       </c>
       <c r="E300" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F300" t="s">
         <v>6</v>
@@ -8326,16 +8326,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C301" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D301" t="b">
         <v>0</v>
       </c>
       <c r="E301" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F301" t="s">
         <v>6</v>
@@ -8346,10 +8346,10 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C302" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D302" t="b">
         <v>1</v>
@@ -8366,10 +8366,10 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C303" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D303" t="b">
         <v>1</v>
@@ -8386,10 +8386,10 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C304" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D304" t="b">
         <v>1</v>
@@ -8406,10 +8406,10 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C305" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D305" t="b">
         <v>1</v>
@@ -8426,10 +8426,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C306" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D306" t="b">
         <v>1</v>
@@ -8446,10 +8446,10 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C307" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -8466,10 +8466,10 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C308" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D308" t="b">
         <v>1</v>
@@ -8486,16 +8486,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C309" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D309" t="b">
         <v>0</v>
       </c>
       <c r="E309" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="F309" t="s">
         <v>6</v>
@@ -8506,10 +8506,10 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C310" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D310" t="b">
         <v>1</v>
@@ -8526,16 +8526,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C311" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D311" t="b">
         <v>0</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F311" t="s">
         <v>6</v>
@@ -8546,10 +8546,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C312" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D312" t="b">
         <v>1</v>
@@ -8566,16 +8566,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C313" t="s">
-        <v>302</v>
+        <v>623</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
       </c>
       <c r="E313" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F313" t="s">
         <v>6</v>
@@ -8586,16 +8586,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C314" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D314" t="b">
         <v>0</v>
       </c>
       <c r="E314" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F314" t="s">
         <v>6</v>
@@ -8606,16 +8606,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C315" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D315" t="b">
         <v>0</v>
       </c>
       <c r="E315" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F315" t="s">
         <v>6</v>
@@ -8626,16 +8626,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C316" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="F316" t="s">
         <v>6</v>
@@ -8646,10 +8646,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C317" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D317" t="b">
         <v>1</v>
@@ -8666,10 +8666,10 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C318" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D318" t="b">
         <v>1</v>
@@ -8686,16 +8686,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C319" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D319" t="b">
         <v>0</v>
       </c>
       <c r="E319" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F319" t="s">
         <v>6</v>
@@ -8706,10 +8706,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C320" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D320" t="b">
         <v>1</v>
@@ -8726,16 +8726,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C321" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D321" t="b">
         <v>0</v>
       </c>
       <c r="E321" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F321" t="s">
         <v>6</v>
@@ -8746,10 +8746,10 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C322" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D322" t="b">
         <v>1</v>
@@ -8766,10 +8766,10 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C323" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D323" t="b">
         <v>0</v>
@@ -8786,16 +8786,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C324" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D324" t="b">
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F324" t="s">
         <v>6</v>
@@ -8806,16 +8806,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C325" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D325" t="b">
         <v>0</v>
       </c>
       <c r="E325" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F325" t="s">
         <v>6</v>
@@ -8826,10 +8826,10 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C326" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D326" t="b">
         <v>1</v>
@@ -8846,16 +8846,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C327" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D327" t="b">
         <v>0</v>
       </c>
       <c r="E327" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F327" t="s">
         <v>6</v>
@@ -8866,16 +8866,16 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C328" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D328" t="b">
         <v>0</v>
       </c>
       <c r="E328" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="F328" t="s">
         <v>6</v>
@@ -8886,10 +8886,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C329" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D329" t="b">
         <v>1</v>
@@ -8906,10 +8906,10 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C330" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D330" t="b">
         <v>0</v>
@@ -8926,16 +8926,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C331" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D331" t="b">
         <v>0</v>
       </c>
       <c r="E331" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F331" t="s">
         <v>6</v>
@@ -8946,16 +8946,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C332" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D332" t="b">
         <v>0</v>
       </c>
       <c r="E332" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F332" t="s">
         <v>6</v>
@@ -8966,16 +8966,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C333" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D333" t="b">
         <v>0</v>
       </c>
       <c r="E333" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F333" t="s">
         <v>6</v>
@@ -8986,16 +8986,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C334" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D334" t="b">
         <v>0</v>
       </c>
       <c r="E334" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F334" t="s">
         <v>6</v>
@@ -9006,10 +9006,10 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C335" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D335" t="b">
         <v>1</v>
@@ -9026,10 +9026,10 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C336" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D336" t="b">
         <v>1</v>
@@ -9046,16 +9046,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C337" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D337" t="b">
         <v>0</v>
       </c>
       <c r="E337" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F337" t="s">
         <v>6</v>
@@ -9066,10 +9066,10 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C338" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D338" t="b">
         <v>1</v>
@@ -9086,10 +9086,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C339" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
@@ -9106,10 +9106,10 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C340" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D340" t="b">
         <v>1</v>
@@ -9126,16 +9126,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C341" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D341" t="b">
         <v>0</v>
       </c>
       <c r="E341" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F341" t="s">
         <v>6</v>
@@ -9146,16 +9146,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C342" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D342" t="b">
         <v>0</v>
       </c>
       <c r="E342" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F342" t="s">
         <v>6</v>
@@ -9166,10 +9166,10 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C343" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D343" t="b">
         <v>1</v>
@@ -9186,16 +9186,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C344" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F344" t="s">
         <v>6</v>
@@ -9206,10 +9206,10 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C345" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D345" t="b">
         <v>1</v>
@@ -9226,10 +9226,10 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C346" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D346" t="b">
         <v>1</v>
@@ -9246,16 +9246,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C347" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D347" t="b">
         <v>0</v>
       </c>
       <c r="E347" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="F347" t="s">
         <v>6</v>
@@ -9266,10 +9266,10 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C348" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D348" t="b">
         <v>1</v>
@@ -9286,16 +9286,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C349" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D349" t="b">
         <v>0</v>
       </c>
       <c r="E349" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F349" t="s">
         <v>6</v>
@@ -9306,10 +9306,10 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C350" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D350" t="b">
         <v>1</v>
@@ -9326,16 +9326,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C351" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D351" t="b">
         <v>0</v>
       </c>
       <c r="E351" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="F351" t="s">
         <v>6</v>
@@ -9346,10 +9346,10 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C352" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D352" t="b">
         <v>1</v>
@@ -9366,16 +9366,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C353" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D353" t="b">
         <v>0</v>
       </c>
       <c r="E353" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F353" t="s">
         <v>6</v>
@@ -9386,10 +9386,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C354" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D354" t="b">
         <v>1</v>
@@ -9406,10 +9406,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C355" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D355" t="b">
         <v>1</v>
@@ -9426,16 +9426,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C356" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D356" t="b">
         <v>1</v>
       </c>
       <c r="E356" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F356" t="s">
         <v>6</v>
@@ -9446,16 +9446,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C357" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F357" t="s">
         <v>6</v>
@@ -9466,16 +9466,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C358" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D358" t="b">
         <v>0</v>
       </c>
       <c r="E358" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F358" t="s">
         <v>6</v>
@@ -9486,10 +9486,10 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C359" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -9506,10 +9506,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C360" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D360" t="b">
         <v>1</v>
@@ -9526,16 +9526,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C361" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D361" t="b">
         <v>0</v>
       </c>
       <c r="E361" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F361" t="s">
         <v>6</v>
@@ -9546,10 +9546,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C362" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D362" t="b">
         <v>1</v>
@@ -9566,16 +9566,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C363" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D363" t="b">
         <v>0</v>
       </c>
       <c r="E363" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="F363" t="s">
         <v>6</v>
@@ -9586,10 +9586,10 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C364" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D364" t="b">
         <v>1</v>
@@ -9606,16 +9606,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C365" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D365" t="b">
         <v>0</v>
       </c>
       <c r="E365" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F365" t="s">
         <v>6</v>
@@ -9626,16 +9626,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C366" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D366" t="b">
         <v>0</v>
       </c>
       <c r="E366" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F366" t="s">
         <v>6</v>
@@ -9646,10 +9646,10 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C367" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D367" t="b">
         <v>1</v>
@@ -9666,16 +9666,16 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C368" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D368" t="b">
         <v>0</v>
       </c>
       <c r="E368" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F368" t="s">
         <v>6</v>
@@ -9686,10 +9686,10 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C369" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D369" t="b">
         <v>1</v>
@@ -9706,10 +9706,10 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C370" t="s">
-        <v>367</v>
+        <v>624</v>
       </c>
       <c r="D370" t="b">
         <v>1</v>
@@ -9726,16 +9726,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C371" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D371" t="b">
         <v>1</v>
       </c>
       <c r="E371" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F371" t="s">
         <v>6</v>
@@ -9746,16 +9746,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C372" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D372" t="b">
         <v>0</v>
       </c>
       <c r="E372" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F372" t="s">
         <v>6</v>
@@ -9766,10 +9766,10 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C373" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D373" t="b">
         <v>1</v>
@@ -9786,10 +9786,10 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C374" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D374" t="b">
         <v>1</v>
